--- a/result/BO_TransformerCNN_CS2_35_predictions.xlsx
+++ b/result/BO_TransformerCNN_CS2_35_predictions.xlsx
@@ -557,7 +557,7 @@
         <v>1.087582295466167</v>
       </c>
       <c r="C11" t="n">
-        <v>1.087582295466167</v>
+        <v>1.083524942398071</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
         <v>1.094747894970746</v>
       </c>
       <c r="C12" t="n">
-        <v>1.094747894970746</v>
+        <v>1.083296418190002</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
         <v>1.095568286342689</v>
       </c>
       <c r="C13" t="n">
-        <v>1.095568286342689</v>
+        <v>1.082451701164246</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
         <v>1.095432918070909</v>
       </c>
       <c r="C14" t="n">
-        <v>1.103371381759644</v>
+        <v>1.081406354904175</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>1.095223222083344</v>
       </c>
       <c r="C15" t="n">
-        <v>1.103573441505432</v>
+        <v>1.08067786693573</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         <v>1.094804055533258</v>
       </c>
       <c r="C16" t="n">
-        <v>1.10336709022522</v>
+        <v>1.079809188842773</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
         <v>1.09444488179593</v>
       </c>
       <c r="C17" t="n">
-        <v>1.1026771068573</v>
+        <v>1.079606056213379</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
         <v>1.094044210720856</v>
       </c>
       <c r="C18" t="n">
-        <v>1.102322578430176</v>
+        <v>1.079646110534668</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>1.093461421510534</v>
       </c>
       <c r="C19" t="n">
-        <v>1.101916074752808</v>
+        <v>1.079992413520813</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>1.092733219407279</v>
       </c>
       <c r="C20" t="n">
-        <v>1.101289868354797</v>
+        <v>1.080117702484131</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>1.088853678732427</v>
       </c>
       <c r="C21" t="n">
-        <v>1.100598812103271</v>
+        <v>1.079053521156311</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +678,7 @@
         <v>1.08838141344787</v>
       </c>
       <c r="C22" t="n">
-        <v>1.097561240196228</v>
+        <v>1.078434109687805</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +689,7 @@
         <v>1.087994962451323</v>
       </c>
       <c r="C23" t="n">
-        <v>1.096181631088257</v>
+        <v>1.077690720558167</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
         <v>1.087629018845757</v>
       </c>
       <c r="C24" t="n">
-        <v>1.095406651496887</v>
+        <v>1.077377915382385</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         <v>1.087233549216766</v>
       </c>
       <c r="C25" t="n">
-        <v>1.094711303710938</v>
+        <v>1.076608538627625</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         <v>1.086799750378054</v>
       </c>
       <c r="C26" t="n">
-        <v>1.094089508056641</v>
+        <v>1.075942516326904</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +733,7 @@
         <v>1.086397688089526</v>
       </c>
       <c r="C27" t="n">
-        <v>1.093191027641296</v>
+        <v>1.075439691543579</v>
       </c>
     </row>
     <row r="28">
@@ -744,7 +744,7 @@
         <v>1.076460839867151</v>
       </c>
       <c r="C28" t="n">
-        <v>1.092087745666504</v>
+        <v>1.072319269180298</v>
       </c>
     </row>
     <row r="29">
@@ -755,7 +755,7 @@
         <v>1.068281321967137</v>
       </c>
       <c r="C29" t="n">
-        <v>1.082915663719177</v>
+        <v>1.068781852722168</v>
       </c>
     </row>
     <row r="30">
@@ -766,7 +766,7 @@
         <v>1.061871030040747</v>
       </c>
       <c r="C30" t="n">
-        <v>1.074092507362366</v>
+        <v>1.064496159553528</v>
       </c>
     </row>
     <row r="31">
@@ -777,7 +777,7 @@
         <v>1.060449954213002</v>
       </c>
       <c r="C31" t="n">
-        <v>1.069304347038269</v>
+        <v>1.060936450958252</v>
       </c>
     </row>
     <row r="32">
@@ -788,7 +788,7 @@
         <v>1.05907035155131</v>
       </c>
       <c r="C32" t="n">
-        <v>1.067082762718201</v>
+        <v>1.058007836341858</v>
       </c>
     </row>
     <row r="33">
@@ -799,7 +799,7 @@
         <v>1.068431631526196</v>
       </c>
       <c r="C33" t="n">
-        <v>1.06563127040863</v>
+        <v>1.057428240776062</v>
       </c>
     </row>
     <row r="34">
@@ -810,7 +810,7 @@
         <v>1.069764576241007</v>
       </c>
       <c r="C34" t="n">
-        <v>1.06821072101593</v>
+        <v>1.055757641792297</v>
       </c>
     </row>
     <row r="35">
@@ -821,7 +821,7 @@
         <v>1.06124673608998</v>
       </c>
       <c r="C35" t="n">
-        <v>1.068269491195679</v>
+        <v>1.052136778831482</v>
       </c>
     </row>
     <row r="36">
@@ -832,7 +832,7 @@
         <v>1.052803838829476</v>
       </c>
       <c r="C36" t="n">
-        <v>1.063125729560852</v>
+        <v>1.048722386360168</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
         <v>1.051496983915716</v>
       </c>
       <c r="C37" t="n">
-        <v>1.05645477771759</v>
+        <v>1.046730756759644</v>
       </c>
     </row>
     <row r="38">
@@ -854,7 +854,7 @@
         <v>1.050788537389256</v>
       </c>
       <c r="C38" t="n">
-        <v>1.053392291069031</v>
+        <v>1.045930624008179</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>1.049771042431389</v>
       </c>
       <c r="C39" t="n">
-        <v>1.052489042282104</v>
+        <v>1.044944643974304</v>
       </c>
     </row>
     <row r="40">
@@ -876,7 +876,7 @@
         <v>1.05916552576209</v>
       </c>
       <c r="C40" t="n">
-        <v>1.052297711372375</v>
+        <v>1.045822262763977</v>
       </c>
     </row>
     <row r="41">
@@ -887,7 +887,7 @@
         <v>1.060456277404846</v>
       </c>
       <c r="C41" t="n">
-        <v>1.056590557098389</v>
+        <v>1.04576563835144</v>
       </c>
     </row>
     <row r="42">
@@ -898,7 +898,7 @@
         <v>1.057632133197537</v>
       </c>
       <c r="C42" t="n">
-        <v>1.057913064956665</v>
+        <v>1.044378876686096</v>
       </c>
     </row>
     <row r="43">
@@ -909,7 +909,7 @@
         <v>1.048273703399718</v>
       </c>
       <c r="C43" t="n">
-        <v>1.055614709854126</v>
+        <v>1.04203188419342</v>
       </c>
     </row>
     <row r="44">
@@ -920,7 +920,7 @@
         <v>1.043392804566336</v>
       </c>
       <c r="C44" t="n">
-        <v>1.049915313720703</v>
+        <v>1.040073037147522</v>
       </c>
     </row>
     <row r="45">
@@ -931,7 +931,7 @@
         <v>1.042916763731058</v>
       </c>
       <c r="C45" t="n">
-        <v>1.045957565307617</v>
+        <v>1.039142847061157</v>
       </c>
     </row>
     <row r="46">
@@ -942,7 +942,7 @@
         <v>1.042017255691393</v>
       </c>
       <c r="C46" t="n">
-        <v>1.044995427131653</v>
+        <v>1.038893103599548</v>
       </c>
     </row>
     <row r="47">
@@ -953,7 +953,7 @@
         <v>1.049724410294748</v>
       </c>
       <c r="C47" t="n">
-        <v>1.044723749160767</v>
+        <v>1.039546966552734</v>
       </c>
     </row>
     <row r="48">
@@ -964,7 +964,7 @@
         <v>1.051906223251826</v>
       </c>
       <c r="C48" t="n">
-        <v>1.047774076461792</v>
+        <v>1.039305448532104</v>
       </c>
     </row>
     <row r="49">
@@ -975,7 +975,7 @@
         <v>1.056326663309842</v>
       </c>
       <c r="C49" t="n">
-        <v>1.049503803253174</v>
+        <v>1.039695024490356</v>
       </c>
     </row>
     <row r="50">
@@ -986,7 +986,7 @@
         <v>1.04146721482339</v>
       </c>
       <c r="C50" t="n">
-        <v>1.051709651947021</v>
+        <v>1.036572337150574</v>
       </c>
     </row>
     <row r="51">
@@ -997,7 +997,7 @@
         <v>1.041002883870996</v>
       </c>
       <c r="C51" t="n">
-        <v>1.044850945472717</v>
+        <v>1.035315632820129</v>
       </c>
     </row>
     <row r="52">
@@ -1008,7 +1008,7 @@
         <v>1.040485113004439</v>
       </c>
       <c r="C52" t="n">
-        <v>1.042009472846985</v>
+        <v>1.034774780273438</v>
       </c>
     </row>
     <row r="53">
@@ -1019,7 +1019,7 @@
         <v>1.039212144079476</v>
       </c>
       <c r="C53" t="n">
-        <v>1.041311502456665</v>
+        <v>1.034551858901978</v>
       </c>
     </row>
     <row r="54">
@@ -1030,7 +1030,7 @@
         <v>1.086998240735958</v>
       </c>
       <c r="C54" t="n">
-        <v>1.042412519454956</v>
+        <v>1.045294523239136</v>
       </c>
     </row>
     <row r="55">
@@ -1041,7 +1041,7 @@
         <v>1.080607390094404</v>
       </c>
       <c r="C55" t="n">
-        <v>1.083164572715759</v>
+        <v>1.048933148384094</v>
       </c>
     </row>
     <row r="56">
@@ -1052,7 +1052,7 @@
         <v>1.08674940553732</v>
       </c>
       <c r="C56" t="n">
-        <v>1.082155227661133</v>
+        <v>1.053554177284241</v>
       </c>
     </row>
     <row r="57">
@@ -1063,7 +1063,7 @@
         <v>1.086558905233767</v>
       </c>
       <c r="C57" t="n">
-        <v>1.088962912559509</v>
+        <v>1.056904673576355</v>
       </c>
     </row>
     <row r="58">
@@ -1074,7 +1074,7 @@
         <v>1.077421785991114</v>
       </c>
       <c r="C58" t="n">
-        <v>1.090123891830444</v>
+        <v>1.057981252670288</v>
       </c>
     </row>
     <row r="59">
@@ -1085,7 +1085,7 @@
         <v>1.070168258926928</v>
       </c>
       <c r="C59" t="n">
-        <v>1.07978343963623</v>
+        <v>1.05904233455658</v>
       </c>
     </row>
     <row r="60">
@@ -1096,7 +1096,7 @@
         <v>1.06872401501102</v>
       </c>
       <c r="C60" t="n">
-        <v>1.072011709213257</v>
+        <v>1.060710430145264</v>
       </c>
     </row>
     <row r="61">
@@ -1107,7 +1107,7 @@
         <v>1.059973758029493</v>
       </c>
       <c r="C61" t="n">
-        <v>1.070131540298462</v>
+        <v>1.059699535369873</v>
       </c>
     </row>
     <row r="62">
@@ -1118,7 +1118,7 @@
         <v>1.060902187674471</v>
       </c>
       <c r="C62" t="n">
-        <v>1.066541314125061</v>
+        <v>1.0585697889328</v>
       </c>
     </row>
     <row r="63">
@@ -1129,7 +1129,7 @@
         <v>1.059678179790818</v>
       </c>
       <c r="C63" t="n">
-        <v>1.065555214881897</v>
+        <v>1.055702686309814</v>
       </c>
     </row>
     <row r="64">
@@ -1140,7 +1140,7 @@
         <v>1.051177012969059</v>
       </c>
       <c r="C64" t="n">
-        <v>1.063679456710815</v>
+        <v>1.051384568214417</v>
       </c>
     </row>
     <row r="65">
@@ -1151,7 +1151,7 @@
         <v>1.050114386790367</v>
       </c>
       <c r="C65" t="n">
-        <v>1.058210492134094</v>
+        <v>1.04842472076416</v>
       </c>
     </row>
     <row r="66">
@@ -1162,7 +1162,7 @@
         <v>1.044345653556991</v>
       </c>
       <c r="C66" t="n">
-        <v>1.054359078407288</v>
+        <v>1.044831991195679</v>
       </c>
     </row>
     <row r="67">
@@ -1173,7 +1173,7 @@
         <v>1.043579683672381</v>
       </c>
       <c r="C67" t="n">
-        <v>1.049919009208679</v>
+        <v>1.042325615882874</v>
       </c>
     </row>
     <row r="68">
@@ -1184,7 +1184,7 @@
         <v>1.041433869950444</v>
       </c>
       <c r="C68" t="n">
-        <v>1.047420740127563</v>
+        <v>1.039732694625854</v>
       </c>
     </row>
     <row r="69">
@@ -1195,7 +1195,7 @@
         <v>1.042326438082793</v>
       </c>
       <c r="C69" t="n">
-        <v>1.0454181432724</v>
+        <v>1.037986159324646</v>
       </c>
     </row>
     <row r="70">
@@ -1206,7 +1206,7 @@
         <v>1.041955783237692</v>
       </c>
       <c r="C70" t="n">
-        <v>1.044160842895508</v>
+        <v>1.036430478096008</v>
       </c>
     </row>
     <row r="71">
@@ -1217,7 +1217,7 @@
         <v>1.034641962547191</v>
       </c>
       <c r="C71" t="n">
-        <v>1.042763352394104</v>
+        <v>1.033197283744812</v>
       </c>
     </row>
     <row r="72">
@@ -1228,7 +1228,7 @@
         <v>1.033443463109441</v>
       </c>
       <c r="C72" t="n">
-        <v>1.038891792297363</v>
+        <v>1.030963897705078</v>
       </c>
     </row>
     <row r="73">
@@ -1239,7 +1239,7 @@
         <v>1.032917449780958</v>
       </c>
       <c r="C73" t="n">
-        <v>1.036530256271362</v>
+        <v>1.029486417770386</v>
       </c>
     </row>
     <row r="74">
@@ -1250,7 +1250,7 @@
         <v>1.032427234234721</v>
       </c>
       <c r="C74" t="n">
-        <v>1.035431385040283</v>
+        <v>1.028475284576416</v>
       </c>
     </row>
     <row r="75">
@@ -1261,7 +1261,7 @@
         <v>1.025694489212341</v>
       </c>
       <c r="C75" t="n">
-        <v>1.034374117851257</v>
+        <v>1.026429057121277</v>
       </c>
     </row>
     <row r="76">
@@ -1272,7 +1272,7 @@
         <v>1.03208332995093</v>
       </c>
       <c r="C76" t="n">
-        <v>1.031548500061035</v>
+        <v>1.026069641113281</v>
       </c>
     </row>
     <row r="77">
@@ -1283,7 +1283,7 @@
         <v>1.031910898136915</v>
       </c>
       <c r="C77" t="n">
-        <v>1.032514810562134</v>
+        <v>1.025294542312622</v>
       </c>
     </row>
     <row r="78">
@@ -1294,7 +1294,7 @@
         <v>1.031384485064461</v>
       </c>
       <c r="C78" t="n">
-        <v>1.032449722290039</v>
+        <v>1.024470448493958</v>
       </c>
     </row>
     <row r="79">
@@ -1305,7 +1305,7 @@
         <v>1.030364005884403</v>
       </c>
       <c r="C79" t="n">
-        <v>1.031888127326965</v>
+        <v>1.023603677749634</v>
       </c>
     </row>
     <row r="80">
@@ -1316,7 +1316,7 @@
         <v>1.025377354176111</v>
       </c>
       <c r="C80" t="n">
-        <v>1.030986070632935</v>
+        <v>1.022358417510986</v>
       </c>
     </row>
     <row r="81">
@@ -1327,7 +1327,7 @@
         <v>1.025316923693586</v>
       </c>
       <c r="C81" t="n">
-        <v>1.028563141822815</v>
+        <v>1.02161717414856</v>
       </c>
     </row>
     <row r="82">
@@ -1338,7 +1338,7 @@
         <v>1.024726663592637</v>
       </c>
       <c r="C82" t="n">
-        <v>1.027375102043152</v>
+        <v>1.020975589752197</v>
       </c>
     </row>
     <row r="83">
@@ -1349,7 +1349,7 @@
         <v>1.023678921989417</v>
       </c>
       <c r="C83" t="n">
-        <v>1.027036905288696</v>
+        <v>1.020575642585754</v>
       </c>
     </row>
     <row r="84">
@@ -1360,7 +1360,7 @@
         <v>1.023080049356832</v>
       </c>
       <c r="C84" t="n">
-        <v>1.026410698890686</v>
+        <v>1.019795894622803</v>
       </c>
     </row>
     <row r="85">
@@ -1371,7 +1371,7 @@
         <v>1.022644747838547</v>
       </c>
       <c r="C85" t="n">
-        <v>1.02564537525177</v>
+        <v>1.018910765647888</v>
       </c>
     </row>
     <row r="86">
@@ -1382,7 +1382,7 @@
         <v>1.022090350109911</v>
       </c>
       <c r="C86" t="n">
-        <v>1.024886608123779</v>
+        <v>1.01804506778717</v>
       </c>
     </row>
     <row r="87">
@@ -1393,7 +1393,7 @@
         <v>1.021515456591576</v>
       </c>
       <c r="C87" t="n">
-        <v>1.024251461029053</v>
+        <v>1.017269611358643</v>
       </c>
     </row>
     <row r="88">
@@ -1404,7 +1404,7 @@
         <v>1.016603677451011</v>
       </c>
       <c r="C88" t="n">
-        <v>1.023551940917969</v>
+        <v>1.015853643417358</v>
       </c>
     </row>
     <row r="89">
@@ -1415,7 +1415,7 @@
         <v>1.021017053476107</v>
       </c>
       <c r="C89" t="n">
-        <v>1.021202802658081</v>
+        <v>1.015725612640381</v>
       </c>
     </row>
     <row r="90">
@@ -1426,7 +1426,7 @@
         <v>1.015750461864208</v>
       </c>
       <c r="C90" t="n">
-        <v>1.021964073181152</v>
+        <v>1.014538049697876</v>
       </c>
     </row>
     <row r="91">
@@ -1437,7 +1437,7 @@
         <v>1.01513351153089</v>
       </c>
       <c r="C91" t="n">
-        <v>1.020029544830322</v>
+        <v>1.013659358024597</v>
       </c>
     </row>
     <row r="92">
@@ -1448,7 +1448,7 @@
         <v>1.014788482897024</v>
       </c>
       <c r="C92" t="n">
-        <v>1.018771171569824</v>
+        <v>1.012761116027832</v>
       </c>
     </row>
     <row r="93">
@@ -1459,7 +1459,7 @@
         <v>1.005539169784046</v>
       </c>
       <c r="C93" t="n">
-        <v>1.017790198326111</v>
+        <v>1.010417699813843</v>
       </c>
     </row>
     <row r="94">
@@ -1470,7 +1470,7 @@
         <v>1.004114977866715</v>
       </c>
       <c r="C94" t="n">
-        <v>1.013615250587463</v>
+        <v>1.00794792175293</v>
       </c>
     </row>
     <row r="95">
@@ -1481,7 +1481,7 @@
         <v>0.998737578636572</v>
       </c>
       <c r="C95" t="n">
-        <v>1.011017084121704</v>
+        <v>1.005458116531372</v>
       </c>
     </row>
     <row r="96">
@@ -1492,7 +1492,7 @@
         <v>0.9978437616368123</v>
       </c>
       <c r="C96" t="n">
-        <v>1.007959961891174</v>
+        <v>1.003131628036499</v>
       </c>
     </row>
     <row r="97">
@@ -1503,7 +1503,7 @@
         <v>1.016196169483176</v>
       </c>
       <c r="C97" t="n">
-        <v>1.006677150726318</v>
+        <v>1.005292415618896</v>
       </c>
     </row>
     <row r="98">
@@ -1514,7 +1514,7 @@
         <v>1.015518543184167</v>
       </c>
       <c r="C98" t="n">
-        <v>1.014604926109314</v>
+        <v>1.005151748657227</v>
       </c>
     </row>
     <row r="99">
@@ -1525,7 +1525,7 @@
         <v>1.014263594271739</v>
       </c>
       <c r="C99" t="n">
-        <v>1.015987396240234</v>
+        <v>1.00482714176178</v>
       </c>
     </row>
     <row r="100">
@@ -1536,7 +1536,7 @@
         <v>1.022954002532552</v>
       </c>
       <c r="C100" t="n">
-        <v>1.015729665756226</v>
+        <v>1.006597876548767</v>
       </c>
     </row>
     <row r="101">
@@ -1547,7 +1547,7 @@
         <v>1.02309587948284</v>
       </c>
       <c r="C101" t="n">
-        <v>1.020309329032898</v>
+        <v>1.008089184761047</v>
       </c>
     </row>
     <row r="102">
@@ -1558,7 +1558,7 @@
         <v>1.013637450985629</v>
       </c>
       <c r="C102" t="n">
-        <v>1.021462440490723</v>
+        <v>1.008346199989319</v>
       </c>
     </row>
     <row r="103">
@@ -1569,7 +1569,7 @@
         <v>1.042110100964546</v>
       </c>
       <c r="C103" t="n">
-        <v>1.018675565719604</v>
+        <v>1.01506519317627</v>
       </c>
     </row>
     <row r="104">
@@ -1580,7 +1580,7 @@
         <v>1.041562374116777</v>
       </c>
       <c r="C104" t="n">
-        <v>1.034663438796997</v>
+        <v>1.019182205200195</v>
       </c>
     </row>
     <row r="105">
@@ -1591,7 +1591,7 @@
         <v>1.04968097005276</v>
       </c>
       <c r="C105" t="n">
-        <v>1.037934899330139</v>
+        <v>1.024509787559509</v>
       </c>
     </row>
     <row r="106">
@@ -1602,7 +1602,7 @@
         <v>1.05021896713044</v>
       </c>
       <c r="C106" t="n">
-        <v>1.043739676475525</v>
+        <v>1.027648091316223</v>
       </c>
     </row>
     <row r="107">
@@ -1613,7 +1613,7 @@
         <v>1.034513942261907</v>
       </c>
       <c r="C107" t="n">
-        <v>1.045107245445251</v>
+        <v>1.026945352554321</v>
       </c>
     </row>
     <row r="108">
@@ -1624,7 +1624,7 @@
         <v>1.034205857606464</v>
       </c>
       <c r="C108" t="n">
-        <v>1.037986159324646</v>
+        <v>1.027675986289978</v>
       </c>
     </row>
     <row r="109">
@@ -1635,7 +1635,7 @@
         <v>1.034671846102861</v>
       </c>
       <c r="C109" t="n">
-        <v>1.035500645637512</v>
+        <v>1.028785347938538</v>
       </c>
     </row>
     <row r="110">
@@ -1646,7 +1646,7 @@
         <v>1.033362148410156</v>
       </c>
       <c r="C110" t="n">
-        <v>1.035774707794189</v>
+        <v>1.029327750205994</v>
       </c>
     </row>
     <row r="111">
@@ -1657,7 +1657,7 @@
         <v>1.032349956311799</v>
       </c>
       <c r="C111" t="n">
-        <v>1.03563380241394</v>
+        <v>1.029302477836609</v>
       </c>
     </row>
     <row r="112">
@@ -1668,7 +1668,7 @@
         <v>1.041169381175602</v>
       </c>
       <c r="C112" t="n">
-        <v>1.035507917404175</v>
+        <v>1.030192375183105</v>
       </c>
     </row>
     <row r="113">
@@ -1679,7 +1679,7 @@
         <v>1.041413811262639</v>
       </c>
       <c r="C113" t="n">
-        <v>1.038762807846069</v>
+        <v>1.029704093933105</v>
       </c>
     </row>
     <row r="114">
@@ -1690,7 +1690,7 @@
         <v>1.031678125364828</v>
       </c>
       <c r="C114" t="n">
-        <v>1.039219260215759</v>
+        <v>1.027334332466125</v>
       </c>
     </row>
     <row r="115">
@@ -1701,7 +1701,7 @@
         <v>1.025124550857827</v>
       </c>
       <c r="C115" t="n">
-        <v>1.034588575363159</v>
+        <v>1.025063991546631</v>
       </c>
     </row>
     <row r="116">
@@ -1712,7 +1712,7 @@
         <v>1.023763200472524</v>
       </c>
       <c r="C116" t="n">
-        <v>1.030223369598389</v>
+        <v>1.024011611938477</v>
       </c>
     </row>
     <row r="117">
@@ -1723,7 +1723,7 @@
         <v>1.02303382832651</v>
       </c>
       <c r="C117" t="n">
-        <v>1.028143525123596</v>
+        <v>1.023257493972778</v>
       </c>
     </row>
     <row r="118">
@@ -1734,7 +1734,7 @@
         <v>1.016824986324075</v>
       </c>
       <c r="C118" t="n">
-        <v>1.027433037757874</v>
+        <v>1.021245718002319</v>
       </c>
     </row>
     <row r="119">
@@ -1745,7 +1745,7 @@
         <v>1.030891669898717</v>
       </c>
       <c r="C119" t="n">
-        <v>1.025524258613586</v>
+        <v>1.022227764129639</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>1.031329276795845</v>
       </c>
       <c r="C120" t="n">
-        <v>1.029872536659241</v>
+        <v>1.021737217903137</v>
       </c>
     </row>
     <row r="121">
@@ -1767,7 +1767,7 @@
         <v>1.021634638883802</v>
       </c>
       <c r="C121" t="n">
-        <v>1.030417680740356</v>
+        <v>1.019266843795776</v>
       </c>
     </row>
     <row r="122">
@@ -1778,7 +1778,7 @@
         <v>1.013692986795674</v>
       </c>
       <c r="C122" t="n">
-        <v>1.025835156440735</v>
+        <v>1.016192674636841</v>
       </c>
     </row>
     <row r="123">
@@ -1789,7 +1789,7 @@
         <v>1.014050689975245</v>
       </c>
       <c r="C123" t="n">
-        <v>1.020718932151794</v>
+        <v>1.014818429946899</v>
       </c>
     </row>
     <row r="124">
@@ -1800,7 +1800,7 @@
         <v>1.007424738847512</v>
       </c>
       <c r="C124" t="n">
-        <v>1.018828868865967</v>
+        <v>1.013019323348999</v>
       </c>
     </row>
     <row r="125">
@@ -1811,7 +1811,7 @@
         <v>1.014495474779827</v>
       </c>
       <c r="C125" t="n">
-        <v>1.016417384147644</v>
+        <v>1.013266801834106</v>
       </c>
     </row>
     <row r="126">
@@ -1822,7 +1822,7 @@
         <v>1.021236116383053</v>
       </c>
       <c r="C126" t="n">
-        <v>1.018582463264465</v>
+        <v>1.01416003704071</v>
       </c>
     </row>
     <row r="127">
@@ -1833,7 +1833,7 @@
         <v>1.021451952124413</v>
       </c>
       <c r="C127" t="n">
-        <v>1.021831512451172</v>
+        <v>1.013715744018555</v>
       </c>
     </row>
     <row r="128">
@@ -1844,7 +1844,7 @@
         <v>1.02130814918964</v>
       </c>
       <c r="C128" t="n">
-        <v>1.022098779678345</v>
+        <v>1.012636423110962</v>
       </c>
     </row>
     <row r="129">
@@ -1855,7 +1855,7 @@
         <v>1.021086870997337</v>
       </c>
       <c r="C129" t="n">
-        <v>1.02169668674469</v>
+        <v>1.012341141700745</v>
       </c>
     </row>
     <row r="130">
@@ -1866,7 +1866,7 @@
         <v>1.020821496166261</v>
       </c>
       <c r="C130" t="n">
-        <v>1.021473288536072</v>
+        <v>1.012588500976562</v>
       </c>
     </row>
     <row r="131">
@@ -1877,7 +1877,7 @@
         <v>1.020985153112075</v>
       </c>
       <c r="C131" t="n">
-        <v>1.021473288536072</v>
+        <v>1.013501882553101</v>
       </c>
     </row>
     <row r="132">
@@ -1888,7 +1888,7 @@
         <v>1.020792862375987</v>
       </c>
       <c r="C132" t="n">
-        <v>1.021831035614014</v>
+        <v>1.014224529266357</v>
       </c>
     </row>
     <row r="133">
@@ -1899,7 +1899,7 @@
         <v>1.020496331871266</v>
       </c>
       <c r="C133" t="n">
-        <v>1.022027134895325</v>
+        <v>1.014952063560486</v>
       </c>
     </row>
     <row r="134">
@@ -1910,7 +1910,7 @@
         <v>1.01999324637743</v>
       </c>
       <c r="C134" t="n">
-        <v>1.021967649459839</v>
+        <v>1.015098094940186</v>
       </c>
     </row>
     <row r="135">
@@ -1921,7 +1921,7 @@
         <v>1.015980809481124</v>
       </c>
       <c r="C135" t="n">
-        <v>1.021399140357971</v>
+        <v>1.014158129692078</v>
       </c>
     </row>
     <row r="136">
@@ -1932,7 +1932,7 @@
         <v>1.015687960747475</v>
       </c>
       <c r="C136" t="n">
-        <v>1.019601225852966</v>
+        <v>1.013543248176575</v>
       </c>
     </row>
     <row r="137">
@@ -1943,7 +1943,7 @@
         <v>1.015556833289859</v>
       </c>
       <c r="C137" t="n">
-        <v>1.018842697143555</v>
+        <v>1.012879371643066</v>
       </c>
     </row>
     <row r="138">
@@ -1954,7 +1954,7 @@
         <v>1.015508282845802</v>
       </c>
       <c r="C138" t="n">
-        <v>1.018503665924072</v>
+        <v>1.012358903884888</v>
       </c>
     </row>
     <row r="139">
@@ -1965,7 +1965,7 @@
         <v>1.015482734087905</v>
       </c>
       <c r="C139" t="n">
-        <v>1.018208503723145</v>
+        <v>1.01203727722168</v>
       </c>
     </row>
     <row r="140">
@@ -1976,7 +1976,7 @@
         <v>1.015929979239883</v>
       </c>
       <c r="C140" t="n">
-        <v>1.01807427406311</v>
+        <v>1.011617064476013</v>
       </c>
     </row>
     <row r="141">
@@ -1987,7 +1987,7 @@
         <v>1.019976880876325</v>
       </c>
       <c r="C141" t="n">
-        <v>1.018148303031921</v>
+        <v>1.011831760406494</v>
       </c>
     </row>
     <row r="142">
@@ -1998,7 +1998,7 @@
         <v>0.9974043010955367</v>
       </c>
       <c r="C142" t="n">
-        <v>1.019152283668518</v>
+        <v>1.00748085975647</v>
       </c>
     </row>
     <row r="143">
@@ -2009,7 +2009,7 @@
         <v>0.998209455084404</v>
       </c>
       <c r="C143" t="n">
-        <v>1.011297821998596</v>
+        <v>1.00516152381897</v>
       </c>
     </row>
     <row r="144">
@@ -2020,7 +2020,7 @@
         <v>0.9965402093647885</v>
       </c>
       <c r="C144" t="n">
-        <v>1.007267713546753</v>
+        <v>1.00285542011261</v>
       </c>
     </row>
     <row r="145">
@@ -2031,7 +2031,7 @@
         <v>0.9960214937045305</v>
       </c>
       <c r="C145" t="n">
-        <v>1.005467891693115</v>
+        <v>1.001251697540283</v>
       </c>
     </row>
     <row r="146">
@@ -2042,7 +2042,7 @@
         <v>0.9946042077873745</v>
       </c>
       <c r="C146" t="n">
-        <v>1.004415512084961</v>
+        <v>0.9988818764686584</v>
       </c>
     </row>
     <row r="147">
@@ -2053,7 +2053,7 @@
         <v>1.004795305155153</v>
       </c>
       <c r="C147" t="n">
-        <v>1.003600358963013</v>
+        <v>0.998880922794342</v>
       </c>
     </row>
     <row r="148">
@@ -2064,7 +2064,7 @@
         <v>1.005341905733581</v>
       </c>
       <c r="C148" t="n">
-        <v>1.006656765937805</v>
+        <v>0.9976379871368408</v>
       </c>
     </row>
     <row r="149">
@@ -2075,7 +2075,7 @@
         <v>0.9892254453768154</v>
       </c>
       <c r="C149" t="n">
-        <v>1.006418228149414</v>
+        <v>0.9926904439926147</v>
       </c>
     </row>
     <row r="150">
@@ -2086,7 +2086,7 @@
         <v>0.98783034801796</v>
       </c>
       <c r="C150" t="n">
-        <v>0.9994017481803894</v>
+        <v>0.9898278713226318</v>
       </c>
     </row>
     <row r="151">
@@ -2097,7 +2097,7 @@
         <v>0.9952966605341488</v>
       </c>
       <c r="C151" t="n">
-        <v>0.9958788752555847</v>
+        <v>0.9907256960868835</v>
       </c>
     </row>
     <row r="152">
@@ -2108,7 +2108,7 @@
         <v>1.004763952630166</v>
       </c>
       <c r="C152" t="n">
-        <v>0.998530387878418</v>
+        <v>0.9935601353645325</v>
       </c>
     </row>
     <row r="153">
@@ -2119,7 +2119,7 @@
         <v>1.004959506193382</v>
       </c>
       <c r="C153" t="n">
-        <v>1.004499316215515</v>
+        <v>0.9947599768638611</v>
       </c>
     </row>
     <row r="154">
@@ -2130,7 +2130,7 @@
         <v>0.9888022696116783</v>
       </c>
       <c r="C154" t="n">
-        <v>1.005529046058655</v>
+        <v>0.9912117123603821</v>
       </c>
     </row>
     <row r="155">
@@ -2141,7 +2141,7 @@
         <v>0.9940255990048955</v>
       </c>
       <c r="C155" t="n">
-        <v>0.9989590048789978</v>
+        <v>0.9903579950332642</v>
       </c>
     </row>
     <row r="156">
@@ -2152,7 +2152,7 @@
         <v>0.9943771458510681</v>
       </c>
       <c r="C156" t="n">
-        <v>0.9975704550743103</v>
+        <v>0.989845871925354</v>
       </c>
     </row>
     <row r="157">
@@ -2163,7 +2163,7 @@
         <v>0.9938228623649807</v>
       </c>
       <c r="C157" t="n">
-        <v>0.9978405237197876</v>
+        <v>0.9902767539024353</v>
       </c>
     </row>
     <row r="158">
@@ -2174,7 +2174,7 @@
         <v>0.9946040130171476</v>
       </c>
       <c r="C158" t="n">
-        <v>0.9982006549835205</v>
+        <v>0.9908588528633118</v>
       </c>
     </row>
     <row r="159">
@@ -2185,7 +2185,7 @@
         <v>1.002917399636447</v>
       </c>
       <c r="C159" t="n">
-        <v>0.9990878701210022</v>
+        <v>0.9925766587257385</v>
       </c>
     </row>
     <row r="160">
@@ -2196,7 +2196,7 @@
         <v>1.003949832890729</v>
       </c>
       <c r="C160" t="n">
-        <v>1.003137230873108</v>
+        <v>0.9933551549911499</v>
       </c>
     </row>
     <row r="161">
@@ -2207,7 +2207,7 @@
         <v>0.9891224077913174</v>
       </c>
       <c r="C161" t="n">
-        <v>1.003904223442078</v>
+        <v>0.9897204637527466</v>
       </c>
     </row>
     <row r="162">
@@ -2218,7 +2218,7 @@
         <v>0.9883696080131971</v>
       </c>
       <c r="C162" t="n">
-        <v>0.9978474378585815</v>
+        <v>0.9884185791015625</v>
       </c>
     </row>
     <row r="163">
@@ -2229,7 +2229,7 @@
         <v>0.9872901233124124</v>
       </c>
       <c r="C163" t="n">
-        <v>0.994642436504364</v>
+        <v>0.987750768661499</v>
       </c>
     </row>
     <row r="164">
@@ -2240,7 +2240,7 @@
         <v>0.9883442785612961</v>
       </c>
       <c r="C164" t="n">
-        <v>0.9936074614524841</v>
+        <v>0.9875255227088928</v>
       </c>
     </row>
     <row r="165">
@@ -2251,7 +2251,7 @@
         <v>0.9966089387806081</v>
       </c>
       <c r="C165" t="n">
-        <v>0.9943563938140869</v>
+        <v>0.989145815372467</v>
       </c>
     </row>
     <row r="166">
@@ -2262,7 +2262,7 @@
         <v>1.002802835058828</v>
       </c>
       <c r="C166" t="n">
-        <v>0.9985575079917908</v>
+        <v>0.9908104538917542</v>
       </c>
     </row>
     <row r="167">
@@ -2273,7 +2273,7 @@
         <v>1.003350892265714</v>
       </c>
       <c r="C167" t="n">
-        <v>1.002837538719177</v>
+        <v>0.9909975528717041</v>
       </c>
     </row>
     <row r="168">
@@ -2284,7 +2284,7 @@
         <v>0.98706929083246</v>
       </c>
       <c r="C168" t="n">
-        <v>1.003138184547424</v>
+        <v>0.9874136447906494</v>
       </c>
     </row>
     <row r="169">
@@ -2295,7 +2295,7 @@
         <v>0.9887449288432122</v>
       </c>
       <c r="C169" t="n">
-        <v>0.9963152408599854</v>
+        <v>0.9863653779029846</v>
       </c>
     </row>
     <row r="170">
@@ -2306,7 +2306,7 @@
         <v>0.9951140079029389</v>
       </c>
       <c r="C170" t="n">
-        <v>0.9940986037254333</v>
+        <v>0.9880712032318115</v>
       </c>
     </row>
     <row r="171">
@@ -2317,7 +2317,7 @@
         <v>1.00350622311123</v>
       </c>
       <c r="C171" t="n">
-        <v>0.9975225329399109</v>
+        <v>0.9917671680450439</v>
       </c>
     </row>
     <row r="172">
@@ -2328,7 +2328,7 @@
         <v>1.003696884983767</v>
       </c>
       <c r="C172" t="n">
-        <v>1.003238439559937</v>
+        <v>0.9934636950492859</v>
       </c>
     </row>
     <row r="173">
@@ -2339,7 +2339,7 @@
         <v>1.003872604234181</v>
       </c>
       <c r="C173" t="n">
-        <v>1.004987478256226</v>
+        <v>0.9940967559814453</v>
       </c>
     </row>
     <row r="174">
@@ -2350,7 +2350,7 @@
         <v>1.004058066940849</v>
       </c>
       <c r="C174" t="n">
-        <v>1.005182385444641</v>
+        <v>0.9945104718208313</v>
       </c>
     </row>
     <row r="175">
@@ -2361,7 +2361,7 @@
         <v>1.004254427151797</v>
       </c>
       <c r="C175" t="n">
-        <v>1.005254030227661</v>
+        <v>0.9950050115585327</v>
       </c>
     </row>
     <row r="176">
@@ -2372,7 +2372,7 @@
         <v>1.004406299151803</v>
       </c>
       <c r="C176" t="n">
-        <v>1.005647659301758</v>
+        <v>0.9963797926902771</v>
       </c>
     </row>
     <row r="177">
@@ -2383,7 +2383,7 @@
         <v>1.005054048345979</v>
       </c>
       <c r="C177" t="n">
-        <v>1.006187915802002</v>
+        <v>0.9980936050415039</v>
       </c>
     </row>
     <row r="178">
@@ -2394,7 +2394,7 @@
         <v>1.005266705104192</v>
       </c>
       <c r="C178" t="n">
-        <v>1.006890892982483</v>
+        <v>0.9992920756340027</v>
       </c>
     </row>
     <row r="179">
@@ -2405,7 +2405,7 @@
         <v>1.005370895032933</v>
       </c>
       <c r="C179" t="n">
-        <v>1.007377147674561</v>
+        <v>0.9997268915176392</v>
       </c>
     </row>
     <row r="180">
@@ -2416,7 +2416,7 @@
         <v>1.005399939534475</v>
       </c>
       <c r="C180" t="n">
-        <v>1.007511496543884</v>
+        <v>1.000043869018555</v>
       </c>
     </row>
     <row r="181">
@@ -2427,7 +2427,7 @@
         <v>1.005700273430759</v>
       </c>
       <c r="C181" t="n">
-        <v>1.007614970207214</v>
+        <v>1.0002760887146</v>
       </c>
     </row>
     <row r="182">
@@ -2438,7 +2438,7 @@
         <v>1.005801998591239</v>
       </c>
       <c r="C182" t="n">
-        <v>1.007977962493896</v>
+        <v>1.000458478927612</v>
       </c>
     </row>
     <row r="183">
@@ -2449,7 +2449,7 @@
         <v>1.005855573520931</v>
       </c>
       <c r="C183" t="n">
-        <v>1.008112072944641</v>
+        <v>1.00048291683197</v>
       </c>
     </row>
     <row r="184">
@@ -2460,7 +2460,7 @@
         <v>1.005880827322872</v>
       </c>
       <c r="C184" t="n">
-        <v>1.008172869682312</v>
+        <v>1.000537633895874</v>
       </c>
     </row>
     <row r="185">
@@ -2471,7 +2471,7 @@
         <v>1.006019950480692</v>
       </c>
       <c r="C185" t="n">
-        <v>1.008276343345642</v>
+        <v>1.000983357429504</v>
       </c>
     </row>
     <row r="186">
@@ -2482,7 +2482,7 @@
         <v>1.005986301791358</v>
       </c>
       <c r="C186" t="n">
-        <v>1.008378624916077</v>
+        <v>1.001088976860046</v>
       </c>
     </row>
     <row r="187">
@@ -2493,7 +2493,7 @@
         <v>1.005987601985854</v>
       </c>
       <c r="C187" t="n">
-        <v>1.008378624916077</v>
+        <v>1.001094698905945</v>
       </c>
     </row>
     <row r="188">
@@ -2504,7 +2504,7 @@
         <v>1.00596961266207</v>
       </c>
       <c r="C188" t="n">
-        <v>1.008378624916077</v>
+        <v>1.001095175743103</v>
       </c>
     </row>
     <row r="189">
@@ -2515,7 +2515,7 @@
         <v>0.9963309572331707</v>
       </c>
       <c r="C189" t="n">
-        <v>1.00805652141571</v>
+        <v>0.9988721609115601</v>
       </c>
     </row>
     <row r="190">
@@ -2526,7 +2526,7 @@
         <v>0.9948217445466202</v>
       </c>
       <c r="C190" t="n">
-        <v>1.003964304924011</v>
+        <v>0.997184157371521</v>
       </c>
     </row>
     <row r="191">
@@ -2537,7 +2537,7 @@
         <v>0.994521028049694</v>
       </c>
       <c r="C191" t="n">
-        <v>1.00139307975769</v>
+        <v>0.9959157109260559</v>
       </c>
     </row>
     <row r="192">
@@ -2548,7 +2548,7 @@
         <v>0.9883843457319411</v>
       </c>
       <c r="C192" t="n">
-        <v>1.000308752059937</v>
+        <v>0.9933426976203918</v>
       </c>
     </row>
     <row r="193">
@@ -2559,7 +2559,7 @@
         <v>0.9871311328142819</v>
       </c>
       <c r="C193" t="n">
-        <v>0.9974908828735352</v>
+        <v>0.9912686347961426</v>
       </c>
     </row>
     <row r="194">
@@ -2570,7 +2570,7 @@
         <v>0.9961886673958846</v>
       </c>
       <c r="C194" t="n">
-        <v>0.9959132671356201</v>
+        <v>0.9911456704139709</v>
       </c>
     </row>
     <row r="195">
@@ -2581,7 +2581,7 @@
         <v>1.00162675428924</v>
       </c>
       <c r="C195" t="n">
-        <v>0.998952329158783</v>
+        <v>0.9915425181388855</v>
       </c>
     </row>
     <row r="196">
@@ -2592,7 +2592,7 @@
         <v>0.9973176445996305</v>
       </c>
       <c r="C196" t="n">
-        <v>1.002058744430542</v>
+        <v>0.9902024865150452</v>
       </c>
     </row>
     <row r="197">
@@ -2603,7 +2603,7 @@
         <v>0.9868966354532899</v>
       </c>
       <c r="C197" t="n">
-        <v>1.000080823898315</v>
+        <v>0.9869705438613892</v>
       </c>
     </row>
     <row r="198">
@@ -2614,7 +2614,7 @@
         <v>1.026721739524377</v>
       </c>
       <c r="C198" t="n">
-        <v>0.9965400099754333</v>
+        <v>0.9959935545921326</v>
       </c>
     </row>
     <row r="199">
@@ -2625,7 +2625,7 @@
         <v>1.032906028770985</v>
       </c>
       <c r="C199" t="n">
-        <v>1.020312547683716</v>
+        <v>1.002293229103088</v>
       </c>
     </row>
     <row r="200">
@@ -2636,7 +2636,7 @@
         <v>1.034320310675049</v>
       </c>
       <c r="C200" t="n">
-        <v>1.028212428092957</v>
+        <v>1.007475018501282</v>
       </c>
     </row>
     <row r="201">
@@ -2647,7 +2647,7 @@
         <v>1.034823915299681</v>
       </c>
       <c r="C201" t="n">
-        <v>1.03092086315155</v>
+        <v>1.011614799499512</v>
       </c>
     </row>
     <row r="202">
@@ -2658,7 +2658,7 @@
         <v>1.034883663790742</v>
       </c>
       <c r="C202" t="n">
-        <v>1.0318843126297</v>
+        <v>1.015553712844849</v>
       </c>
     </row>
     <row r="203">
@@ -2669,7 +2669,7 @@
         <v>1.034729272302874</v>
       </c>
       <c r="C203" t="n">
-        <v>1.032449126243591</v>
+        <v>1.018958926200867</v>
       </c>
     </row>
     <row r="204">
@@ -2680,7 +2680,7 @@
         <v>1.034700332868783</v>
       </c>
       <c r="C204" t="n">
-        <v>1.032852411270142</v>
+        <v>1.022140264511108</v>
       </c>
     </row>
     <row r="205">
@@ -2691,7 +2691,7 @@
         <v>1.034815042750312</v>
       </c>
       <c r="C205" t="n">
-        <v>1.033479928970337</v>
+        <v>1.024578452110291</v>
       </c>
     </row>
     <row r="206">
@@ -2702,7 +2702,7 @@
         <v>1.034575275765159</v>
       </c>
       <c r="C206" t="n">
-        <v>1.033974409103394</v>
+        <v>1.026084661483765</v>
       </c>
     </row>
     <row r="207">
@@ -2713,7 +2713,7 @@
         <v>1.03418676413402</v>
       </c>
       <c r="C207" t="n">
-        <v>1.03404712677002</v>
+        <v>1.026479840278625</v>
       </c>
     </row>
     <row r="208">
@@ -2724,7 +2724,7 @@
         <v>1.033809756272464</v>
       </c>
       <c r="C208" t="n">
-        <v>1.033976793289185</v>
+        <v>1.026271462440491</v>
       </c>
     </row>
     <row r="209">
@@ -2735,7 +2735,7 @@
         <v>1.033089975682004</v>
       </c>
       <c r="C209" t="n">
-        <v>1.033617734909058</v>
+        <v>1.026143670082092</v>
       </c>
     </row>
     <row r="210">
@@ -2746,7 +2746,7 @@
         <v>1.032852285411854</v>
       </c>
       <c r="C210" t="n">
-        <v>1.033413171768188</v>
+        <v>1.025705337524414</v>
       </c>
     </row>
     <row r="211">
@@ -2757,7 +2757,7 @@
         <v>1.032568951208464</v>
       </c>
       <c r="C211" t="n">
-        <v>1.033146500587463</v>
+        <v>1.025522351264954</v>
       </c>
     </row>
     <row r="212">
@@ -2768,7 +2768,7 @@
         <v>1.03225089406925</v>
       </c>
       <c r="C212" t="n">
-        <v>1.032789826393127</v>
+        <v>1.025325655937195</v>
       </c>
     </row>
     <row r="213">
@@ -2779,7 +2779,7 @@
         <v>1.032131119234101</v>
       </c>
       <c r="C213" t="n">
-        <v>1.032583951950073</v>
+        <v>1.025251984596252</v>
       </c>
     </row>
     <row r="214">
@@ -2790,7 +2790,7 @@
         <v>1.031588572679129</v>
       </c>
       <c r="C214" t="n">
-        <v>1.032513618469238</v>
+        <v>1.024640917778015</v>
       </c>
     </row>
     <row r="215">
@@ -2801,7 +2801,7 @@
         <v>1.022828694307256</v>
       </c>
       <c r="C215" t="n">
-        <v>1.031812787055969</v>
+        <v>1.023113250732422</v>
       </c>
     </row>
     <row r="216">
@@ -2812,7 +2812,7 @@
         <v>1.01398230027562</v>
       </c>
       <c r="C216" t="n">
-        <v>1.02785336971283</v>
+        <v>1.020053386688232</v>
       </c>
     </row>
     <row r="217">
@@ -2823,7 +2823,7 @@
         <v>1.014445992958473</v>
       </c>
       <c r="C217" t="n">
-        <v>1.023149132728577</v>
+        <v>1.018495798110962</v>
       </c>
     </row>
     <row r="218">
@@ -2834,7 +2834,7 @@
         <v>1.013516961176781</v>
       </c>
       <c r="C218" t="n">
-        <v>1.021333575248718</v>
+        <v>1.016995668411255</v>
       </c>
     </row>
     <row r="219">
@@ -2845,7 +2845,7 @@
         <v>1.007194747915555</v>
       </c>
       <c r="C219" t="n">
-        <v>1.020089745521545</v>
+        <v>1.014319777488708</v>
       </c>
     </row>
     <row r="220">
@@ -2856,7 +2856,7 @@
         <v>1.015550963306092</v>
       </c>
       <c r="C220" t="n">
-        <v>1.017316222190857</v>
+        <v>1.013508915901184</v>
       </c>
     </row>
     <row r="221">
@@ -2867,7 +2867,7 @@
         <v>1.021081418812168</v>
       </c>
       <c r="C221" t="n">
-        <v>1.018918514251709</v>
+        <v>1.012991547584534</v>
       </c>
     </row>
     <row r="222">
@@ -2878,7 +2878,7 @@
         <v>1.015078868941353</v>
       </c>
       <c r="C222" t="n">
-        <v>1.021057844161987</v>
+        <v>1.010966658592224</v>
       </c>
     </row>
     <row r="223">
@@ -2889,7 +2889,7 @@
         <v>1.005128281056301</v>
       </c>
       <c r="C223" t="n">
-        <v>1.017992615699768</v>
+        <v>1.007865190505981</v>
       </c>
     </row>
     <row r="224">
@@ -2900,7 +2900,7 @@
         <v>1.004521569187405</v>
       </c>
       <c r="C224" t="n">
-        <v>1.012682557106018</v>
+        <v>1.006191730499268</v>
       </c>
     </row>
     <row r="225">
@@ -2911,7 +2911,7 @@
         <v>0.9991076825610314</v>
       </c>
       <c r="C225" t="n">
-        <v>1.009966135025024</v>
+        <v>1.004098296165466</v>
       </c>
     </row>
     <row r="226">
@@ -2922,7 +2922,7 @@
         <v>0.9976109538495037</v>
       </c>
       <c r="C226" t="n">
-        <v>1.007234692573547</v>
+        <v>1.00255286693573</v>
       </c>
     </row>
     <row r="227">
@@ -2933,7 +2933,7 @@
         <v>1.007006829152553</v>
       </c>
       <c r="C227" t="n">
-        <v>1.006349086761475</v>
+        <v>1.003465175628662</v>
       </c>
     </row>
     <row r="228">
@@ -2944,7 +2944,7 @@
         <v>1.007646340174613</v>
       </c>
       <c r="C228" t="n">
-        <v>1.009539723396301</v>
+        <v>1.002942204475403</v>
       </c>
     </row>
     <row r="229">
@@ -2955,7 +2955,7 @@
         <v>0.9982191781842366</v>
       </c>
       <c r="C229" t="n">
-        <v>1.009723544120789</v>
+        <v>0.9995245337486267</v>
       </c>
     </row>
     <row r="230">
@@ -2966,7 +2966,7 @@
         <v>0.9958854367500491</v>
       </c>
       <c r="C230" t="n">
-        <v>1.005072116851807</v>
+        <v>0.9965679049491882</v>
       </c>
     </row>
     <row r="231">
@@ -2977,7 +2977,7 @@
         <v>0.9953109274050419</v>
       </c>
       <c r="C231" t="n">
-        <v>1.001916408538818</v>
+        <v>0.9948537349700928</v>
       </c>
     </row>
     <row r="232">
@@ -2988,7 +2988,7 @@
         <v>0.9898175082935713</v>
       </c>
       <c r="C232" t="n">
-        <v>1.000310063362122</v>
+        <v>0.9928607940673828</v>
       </c>
     </row>
     <row r="233">
@@ -2999,7 +2999,7 @@
         <v>0.9885376187240682</v>
       </c>
       <c r="C233" t="n">
-        <v>0.9976968169212341</v>
+        <v>0.9912587404251099</v>
       </c>
     </row>
     <row r="234">
@@ -3010,7 +3010,7 @@
         <v>0.9979857012611792</v>
       </c>
       <c r="C234" t="n">
-        <v>0.9967816472053528</v>
+        <v>0.9924705624580383</v>
       </c>
     </row>
     <row r="235">
@@ -3021,7 +3021,7 @@
         <v>1.003679111297135</v>
       </c>
       <c r="C235" t="n">
-        <v>1.000256419181824</v>
+        <v>0.9933964610099792</v>
       </c>
     </row>
     <row r="236">
@@ -3032,7 +3032,7 @@
         <v>0.9964134268898389</v>
       </c>
       <c r="C236" t="n">
-        <v>1.003650426864624</v>
+        <v>0.9912768602371216</v>
       </c>
     </row>
     <row r="237">
@@ -3043,7 +3043,7 @@
         <v>0.9868981716359936</v>
       </c>
       <c r="C237" t="n">
-        <v>1.000439763069153</v>
+        <v>0.9880370497703552</v>
       </c>
     </row>
     <row r="238">
@@ -3054,7 +3054,7 @@
         <v>0.9870884784415241</v>
       </c>
       <c r="C238" t="n">
-        <v>0.9950640201568604</v>
+        <v>0.9864901900291443</v>
       </c>
     </row>
     <row r="239">
@@ -3065,7 +3065,7 @@
         <v>0.9867313290853452</v>
       </c>
       <c r="C239" t="n">
-        <v>0.9929448366165161</v>
+        <v>0.9857784509658813</v>
       </c>
     </row>
     <row r="240">
@@ -3076,7 +3076,7 @@
         <v>0.9863201182207895</v>
       </c>
       <c r="C240" t="n">
-        <v>0.9925181269645691</v>
+        <v>0.9855567812919617</v>
       </c>
     </row>
     <row r="241">
@@ -3087,7 +3087,7 @@
         <v>0.9890539220983674</v>
       </c>
       <c r="C241" t="n">
-        <v>0.9927476048469543</v>
+        <v>0.9856024980545044</v>
       </c>
     </row>
     <row r="242">
@@ -3098,7 +3098,7 @@
         <v>0.9954218229371102</v>
       </c>
       <c r="C242" t="n">
-        <v>0.9938607811927795</v>
+        <v>0.9862128496170044</v>
       </c>
     </row>
     <row r="243">
@@ -3109,7 +3109,7 @@
         <v>0.9956969400915286</v>
       </c>
       <c r="C243" t="n">
-        <v>0.9967109560966492</v>
+        <v>0.9858709573745728</v>
       </c>
     </row>
     <row r="244">
@@ -3120,7 +3120,7 @@
         <v>0.9795235689846699</v>
       </c>
       <c r="C244" t="n">
-        <v>0.9967105984687805</v>
+        <v>0.9815652370452881</v>
       </c>
     </row>
     <row r="245">
@@ -3131,7 +3131,7 @@
         <v>0.9787960270717194</v>
       </c>
       <c r="C245" t="n">
-        <v>0.9898948073387146</v>
+        <v>0.9798184037208557</v>
       </c>
     </row>
     <row r="246">
@@ -3142,7 +3142,7 @@
         <v>0.9889367651412062</v>
       </c>
       <c r="C246" t="n">
-        <v>0.9869774580001831</v>
+        <v>0.981314480304718</v>
       </c>
     </row>
     <row r="247">
@@ -3153,7 +3153,7 @@
         <v>0.9966287385414311</v>
       </c>
       <c r="C247" t="n">
-        <v>0.9912218451499939</v>
+        <v>0.9842100739479065</v>
       </c>
     </row>
     <row r="248">
@@ -3164,7 +3164,7 @@
         <v>0.9969204553538157</v>
       </c>
       <c r="C248" t="n">
-        <v>0.9968860745429993</v>
+        <v>0.9856724143028259</v>
       </c>
     </row>
     <row r="249">
@@ -3175,7 +3175,7 @@
         <v>0.9968583608033946</v>
       </c>
       <c r="C249" t="n">
-        <v>0.9984700083732605</v>
+        <v>0.9861331582069397</v>
       </c>
     </row>
     <row r="250">
@@ -3186,7 +3186,7 @@
         <v>0.9968217321450881</v>
       </c>
       <c r="C250" t="n">
-        <v>0.9985735416412354</v>
+        <v>0.9861462712287903</v>
       </c>
     </row>
     <row r="251">
@@ -3197,7 +3197,7 @@
         <v>0.996884635532937</v>
       </c>
       <c r="C251" t="n">
-        <v>0.9984393119812012</v>
+        <v>0.9868752956390381</v>
       </c>
     </row>
     <row r="252">
@@ -3208,7 +3208,7 @@
         <v>0.9968361942823105</v>
       </c>
       <c r="C252" t="n">
-        <v>0.9986770749092102</v>
+        <v>0.9883834719657898</v>
       </c>
     </row>
     <row r="253">
@@ -3219,7 +3219,7 @@
         <v>0.9968111573066131</v>
       </c>
       <c r="C253" t="n">
-        <v>0.9991742372512817</v>
+        <v>0.9899660348892212</v>
       </c>
     </row>
     <row r="254">
@@ -3230,7 +3230,7 @@
         <v>0.9965887635226353</v>
       </c>
       <c r="C254" t="n">
-        <v>0.9996258020401001</v>
+        <v>0.9912226796150208</v>
       </c>
     </row>
     <row r="255">
@@ -3241,7 +3241,7 @@
         <v>0.9963911038295699</v>
       </c>
       <c r="C255" t="n">
-        <v>0.999692440032959</v>
+        <v>0.9912543892860413</v>
       </c>
     </row>
     <row r="256">
@@ -3252,7 +3252,7 @@
         <v>0.9962127681971513</v>
       </c>
       <c r="C256" t="n">
-        <v>0.9994934797286987</v>
+        <v>0.9911665916442871</v>
       </c>
     </row>
     <row r="257">
@@ -3263,7 +3263,7 @@
         <v>0.9960312370518538</v>
       </c>
       <c r="C257" t="n">
-        <v>0.9993085265159607</v>
+        <v>0.9911763072013855</v>
       </c>
     </row>
     <row r="258">
@@ -3274,7 +3274,7 @@
         <v>0.9959191105424616</v>
       </c>
       <c r="C258" t="n">
-        <v>0.9992061257362366</v>
+        <v>0.991142749786377</v>
       </c>
     </row>
     <row r="259">
@@ -3285,7 +3285,7 @@
         <v>0.9958409528735543</v>
       </c>
       <c r="C259" t="n">
-        <v>0.9991345405578613</v>
+        <v>0.9909058213233948</v>
       </c>
     </row>
     <row r="260">
@@ -3296,7 +3296,7 @@
         <v>0.9958535702850607</v>
       </c>
       <c r="C260" t="n">
-        <v>0.9991026520729065</v>
+        <v>0.9908719658851624</v>
       </c>
     </row>
     <row r="261">
@@ -3307,7 +3307,7 @@
         <v>0.9957174754583212</v>
       </c>
       <c r="C261" t="n">
-        <v>0.9991026520729065</v>
+        <v>0.9908348321914673</v>
       </c>
     </row>
     <row r="262">
@@ -3318,7 +3318,7 @@
         <v>0.9956502162522823</v>
       </c>
       <c r="C262" t="n">
-        <v>0.9989643692970276</v>
+        <v>0.9903417229652405</v>
       </c>
     </row>
     <row r="263">
@@ -3329,7 +3329,7 @@
         <v>0.9954229014419208</v>
       </c>
       <c r="C263" t="n">
-        <v>0.9988608360290527</v>
+        <v>0.9903032779693604</v>
       </c>
     </row>
     <row r="264">
@@ -3340,7 +3340,7 @@
         <v>0.9789682930662583</v>
       </c>
       <c r="C264" t="n">
-        <v>0.9979153275489807</v>
+        <v>0.9862316250801086</v>
       </c>
     </row>
     <row r="265">
@@ -3351,7 +3351,7 @@
         <v>0.9777512249521022</v>
       </c>
       <c r="C265" t="n">
-        <v>0.9916144013404846</v>
+        <v>0.9837162494659424</v>
       </c>
     </row>
     <row r="266">
@@ -3362,7 +3362,7 @@
         <v>0.9775720728454733</v>
       </c>
       <c r="C266" t="n">
-        <v>0.9879851937294006</v>
+        <v>0.9817164540290833</v>
       </c>
     </row>
     <row r="267">
@@ -3373,7 +3373,7 @@
         <v>0.9863157375121945</v>
       </c>
       <c r="C267" t="n">
-        <v>0.9871132373809814</v>
+        <v>0.9819716811180115</v>
       </c>
     </row>
     <row r="268">
@@ -3384,7 +3384,7 @@
         <v>0.9871017937768864</v>
       </c>
       <c r="C268" t="n">
-        <v>0.9901608228683472</v>
+        <v>0.9813374876976013</v>
       </c>
     </row>
     <row r="269">
@@ -3395,7 +3395,7 @@
         <v>0.9783507627636574</v>
       </c>
       <c r="C269" t="n">
-        <v>0.9908022284507751</v>
+        <v>0.9780362248420715</v>
       </c>
     </row>
     <row r="270">
@@ -3406,7 +3406,7 @@
         <v>0.9704417052615276</v>
       </c>
       <c r="C270" t="n">
-        <v>0.9862655997276306</v>
+        <v>0.973982036113739</v>
       </c>
     </row>
     <row r="271">
@@ -3417,7 +3417,7 @@
         <v>0.9703653920181594</v>
       </c>
       <c r="C271" t="n">
-        <v>0.9807495474815369</v>
+        <v>0.9714178442955017</v>
       </c>
     </row>
     <row r="272">
@@ -3428,7 +3428,7 @@
         <v>0.9699810677212032</v>
       </c>
       <c r="C272" t="n">
-        <v>0.9783156514167786</v>
+        <v>0.9701690673828125</v>
       </c>
     </row>
     <row r="273">
@@ -3439,7 +3439,7 @@
         <v>0.9784245319780143</v>
       </c>
       <c r="C273" t="n">
-        <v>0.9782628417015076</v>
+        <v>0.9714958667755127</v>
       </c>
     </row>
     <row r="274">
@@ -3450,7 +3450,7 @@
         <v>0.9796393159290953</v>
       </c>
       <c r="C274" t="n">
-        <v>0.9819162487983704</v>
+        <v>0.9717140793800354</v>
       </c>
     </row>
     <row r="275">
@@ -3461,7 +3461,7 @@
         <v>0.9852947168074363</v>
       </c>
       <c r="C275" t="n">
-        <v>0.9834522008895874</v>
+        <v>0.9721656441688538</v>
       </c>
     </row>
     <row r="276">
@@ -3472,7 +3472,7 @@
         <v>0.9689327047070245</v>
       </c>
       <c r="C276" t="n">
-        <v>0.985352098941803</v>
+        <v>0.9684755206108093</v>
       </c>
     </row>
     <row r="277">
@@ -3483,7 +3483,7 @@
         <v>0.96834348327937</v>
       </c>
       <c r="C277" t="n">
-        <v>0.9788903594017029</v>
+        <v>0.9667559266090393</v>
       </c>
     </row>
     <row r="278">
@@ -3494,7 +3494,7 @@
         <v>0.9682142883503887</v>
       </c>
       <c r="C278" t="n">
-        <v>0.9755581617355347</v>
+        <v>0.966319739818573</v>
       </c>
     </row>
     <row r="279">
@@ -3505,7 +3505,7 @@
         <v>0.9685044631559417</v>
       </c>
       <c r="C279" t="n">
-        <v>0.9750797748565674</v>
+        <v>0.9665423631668091</v>
       </c>
     </row>
     <row r="280">
@@ -3516,7 +3516,7 @@
         <v>0.9684786166832067</v>
       </c>
       <c r="C280" t="n">
-        <v>0.9753203392028809</v>
+        <v>0.9665385484695435</v>
       </c>
     </row>
     <row r="281">
@@ -3527,7 +3527,7 @@
         <v>0.9778201328650258</v>
       </c>
       <c r="C281" t="n">
-        <v>0.9758387804031372</v>
+        <v>0.9678109288215637</v>
       </c>
     </row>
     <row r="282">
@@ -3538,7 +3538,7 @@
         <v>0.9784144960654163</v>
       </c>
       <c r="C282" t="n">
-        <v>0.9797907471656799</v>
+        <v>0.9674213528633118</v>
       </c>
     </row>
     <row r="283">
@@ -3549,7 +3549,7 @@
         <v>0.9692798785358708</v>
       </c>
       <c r="C283" t="n">
-        <v>0.9804604053497314</v>
+        <v>0.9651988744735718</v>
       </c>
     </row>
     <row r="284">
@@ -3560,7 +3560,7 @@
         <v>0.962305415273543</v>
       </c>
       <c r="C284" t="n">
-        <v>0.9760556221008301</v>
+        <v>0.9625937342643738</v>
       </c>
     </row>
     <row r="285">
@@ -3571,7 +3571,7 @@
         <v>0.9625190325361124</v>
       </c>
       <c r="C285" t="n">
-        <v>0.971616804599762</v>
+        <v>0.9620983600616455</v>
       </c>
     </row>
     <row r="286">
@@ -3582,7 +3582,7 @@
         <v>0.9619630370806096</v>
       </c>
       <c r="C286" t="n">
-        <v>0.9701966047286987</v>
+        <v>0.9615806937217712</v>
       </c>
     </row>
     <row r="287">
@@ -3593,7 +3593,7 @@
         <v>0.9610128335254235</v>
       </c>
       <c r="C287" t="n">
-        <v>0.9698033928871155</v>
+        <v>0.9609711766242981</v>
       </c>
     </row>
     <row r="288">
@@ -3604,7 +3604,7 @@
         <v>0.9700352374738228</v>
       </c>
       <c r="C288" t="n">
-        <v>0.9698783755302429</v>
+        <v>0.9619494080543518</v>
       </c>
     </row>
     <row r="289">
@@ -3615,7 +3615,7 @@
         <v>0.9766201259049363</v>
       </c>
       <c r="C289" t="n">
-        <v>0.9734962582588196</v>
+        <v>0.9630080461502075</v>
       </c>
     </row>
     <row r="290">
@@ -3626,7 +3626,7 @@
         <v>0.9711609395379545</v>
       </c>
       <c r="C290" t="n">
-        <v>0.9772975444793701</v>
+        <v>0.9617331624031067</v>
       </c>
     </row>
     <row r="291">
@@ -3637,7 +3637,7 @@
         <v>0.960203022157457</v>
       </c>
       <c r="C291" t="n">
-        <v>0.9751901626586914</v>
+        <v>0.9588553905487061</v>
       </c>
     </row>
     <row r="292">
@@ -3648,7 +3648,7 @@
         <v>0.9603708914633122</v>
       </c>
       <c r="C292" t="n">
-        <v>0.9697129726409912</v>
+        <v>0.9580923914909363</v>
       </c>
     </row>
     <row r="293">
@@ -3659,7 +3659,7 @@
         <v>0.9625217997267146</v>
       </c>
       <c r="C293" t="n">
-        <v>0.9676814079284668</v>
+        <v>0.9588292837142944</v>
       </c>
     </row>
     <row r="294">
@@ -3670,7 +3670,7 @@
         <v>0.9619549657205942</v>
       </c>
       <c r="C294" t="n">
-        <v>0.9683831930160522</v>
+        <v>0.9590601325035095</v>
       </c>
     </row>
     <row r="295">
@@ -3681,7 +3681,7 @@
         <v>0.9711865106879002</v>
       </c>
       <c r="C295" t="n">
-        <v>0.9693902730941772</v>
+        <v>0.9609540104866028</v>
       </c>
     </row>
     <row r="296">
@@ -3692,7 +3692,7 @@
         <v>0.9765622594501272</v>
       </c>
       <c r="C296" t="n">
-        <v>0.9738898873329163</v>
+        <v>0.9624382853507996</v>
       </c>
     </row>
     <row r="297">
@@ -3703,7 +3703,7 @@
         <v>0.9766113986106715</v>
       </c>
       <c r="C297" t="n">
-        <v>0.9776354432106018</v>
+        <v>0.9628008604049683</v>
       </c>
     </row>
     <row r="298">
@@ -3714,7 +3714,7 @@
         <v>0.9766634216549258</v>
       </c>
       <c r="C298" t="n">
-        <v>0.9785322546958923</v>
+        <v>0.9632494449615479</v>
       </c>
     </row>
     <row r="299">
@@ -3725,7 +3725,7 @@
         <v>0.9766857261273997</v>
       </c>
       <c r="C299" t="n">
-        <v>0.9790197014808655</v>
+        <v>0.9641487598419189</v>
       </c>
     </row>
     <row r="300">
@@ -3736,7 +3736,7 @@
         <v>0.977403678699249</v>
       </c>
       <c r="C300" t="n">
-        <v>0.9792587161064148</v>
+        <v>0.9662013649940491</v>
       </c>
     </row>
     <row r="301">
@@ -3747,7 +3747,7 @@
         <v>0.9775983373972061</v>
       </c>
       <c r="C301" t="n">
-        <v>0.9800890684127808</v>
+        <v>0.9681496620178223</v>
       </c>
     </row>
     <row r="302">
@@ -3758,7 +3758,7 @@
         <v>0.9777585751260944</v>
       </c>
       <c r="C302" t="n">
-        <v>0.9808539748191833</v>
+        <v>0.9695623517036438</v>
       </c>
     </row>
     <row r="303">
@@ -3769,7 +3769,7 @@
         <v>0.9778448236736682</v>
       </c>
       <c r="C303" t="n">
-        <v>0.9812807440757751</v>
+        <v>0.9704582691192627</v>
       </c>
     </row>
     <row r="304">
@@ -3780,7 +3780,7 @@
         <v>0.9779059717720707</v>
       </c>
       <c r="C304" t="n">
-        <v>0.9814866185188293</v>
+        <v>0.9710628986358643</v>
       </c>
     </row>
     <row r="305">
@@ -3791,7 +3791,7 @@
         <v>0.977996177288193</v>
       </c>
       <c r="C305" t="n">
-        <v>0.9817431569099426</v>
+        <v>0.9710286259651184</v>
       </c>
     </row>
     <row r="306">
@@ -3802,7 +3802,7 @@
         <v>0.9780021006801189</v>
       </c>
       <c r="C306" t="n">
-        <v>0.9818705320358276</v>
+        <v>0.9710953235626221</v>
       </c>
     </row>
     <row r="307">
@@ -3813,7 +3813,7 @@
         <v>0.9780862535758763</v>
       </c>
       <c r="C307" t="n">
-        <v>0.9819741249084473</v>
+        <v>0.9713337421417236</v>
       </c>
     </row>
     <row r="308">
@@ -3824,7 +3824,7 @@
         <v>0.9782530920986814</v>
       </c>
       <c r="C308" t="n">
-        <v>0.9820776581764221</v>
+        <v>0.9713822603225708</v>
       </c>
     </row>
     <row r="309">
@@ -3835,7 +3835,7 @@
         <v>0.9785300332301125</v>
       </c>
       <c r="C309" t="n">
-        <v>0.9821492433547974</v>
+        <v>0.9714207053184509</v>
       </c>
     </row>
     <row r="310">
@@ -3846,7 +3846,7 @@
         <v>0.9783459544876644</v>
       </c>
       <c r="C310" t="n">
-        <v>0.982471227645874</v>
+        <v>0.9717363715171814</v>
       </c>
     </row>
     <row r="311">
@@ -3857,7 +3857,7 @@
         <v>0.9783354431963519</v>
       </c>
       <c r="C311" t="n">
-        <v>0.9822846651077271</v>
+        <v>0.9718597531318665</v>
       </c>
     </row>
     <row r="312">
@@ -3868,7 +3868,7 @@
         <v>0.9681818610839451</v>
       </c>
       <c r="C312" t="n">
-        <v>0.9818505048751831</v>
+        <v>0.969533383846283</v>
       </c>
     </row>
     <row r="313">
@@ -3879,7 +3879,7 @@
         <v>0.9608754365283414</v>
       </c>
       <c r="C313" t="n">
-        <v>0.9772767424583435</v>
+        <v>0.9666493535041809</v>
       </c>
     </row>
     <row r="314">
@@ -3890,7 +3890,7 @@
         <v>0.9609583399806172</v>
       </c>
       <c r="C314" t="n">
-        <v>0.9728698134422302</v>
+        <v>0.9651158452033997</v>
       </c>
     </row>
     <row r="315">
@@ -3901,7 +3901,7 @@
         <v>0.9608500606240138</v>
       </c>
       <c r="C315" t="n">
-        <v>0.9710281491279602</v>
+        <v>0.9634073376655579</v>
       </c>
     </row>
     <row r="316">
@@ -3912,7 +3912,7 @@
         <v>0.9600415446078494</v>
       </c>
       <c r="C316" t="n">
-        <v>0.9702607393264771</v>
+        <v>0.9616994857788086</v>
       </c>
     </row>
     <row r="317">
@@ -3923,7 +3923,7 @@
         <v>0.9683876294104253</v>
       </c>
       <c r="C317" t="n">
-        <v>0.9695859551429749</v>
+        <v>0.9614049792289734</v>
       </c>
     </row>
     <row r="318">
@@ -3934,7 +3934,7 @@
         <v>0.9700992774305741</v>
       </c>
       <c r="C318" t="n">
-        <v>0.972309410572052</v>
+        <v>0.9607086777687073</v>
       </c>
     </row>
     <row r="319">
@@ -3945,7 +3945,7 @@
         <v>0.9606814025743466</v>
       </c>
       <c r="C319" t="n">
-        <v>0.9728236198425293</v>
+        <v>0.9577772617340088</v>
       </c>
     </row>
     <row r="320">
@@ -3956,7 +3956,7 @@
         <v>0.9597800854163634</v>
       </c>
       <c r="C320" t="n">
-        <v>0.968762993812561</v>
+        <v>0.9560267329216003</v>
       </c>
     </row>
     <row r="321">
@@ -3967,7 +3967,7 @@
         <v>0.9601190220193736</v>
       </c>
       <c r="C321" t="n">
-        <v>0.9666091799736023</v>
+        <v>0.9557496905326843</v>
       </c>
     </row>
     <row r="322">
@@ -3978,7 +3978,7 @@
         <v>0.9592152712499306</v>
       </c>
       <c r="C322" t="n">
-        <v>0.966109573841095</v>
+        <v>0.9557686448097229</v>
       </c>
     </row>
     <row r="323">
@@ -3989,7 +3989,7 @@
         <v>0.9531109672313358</v>
       </c>
       <c r="C323" t="n">
-        <v>0.9655333757400513</v>
+        <v>0.954401969909668</v>
       </c>
     </row>
     <row r="324">
@@ -4000,7 +4000,7 @@
         <v>0.9683422893701634</v>
       </c>
       <c r="C324" t="n">
-        <v>0.9640331268310547</v>
+        <v>0.9565892815589905</v>
       </c>
     </row>
     <row r="325">
@@ -4011,7 +4011,7 @@
         <v>0.9696408011616388</v>
       </c>
       <c r="C325" t="n">
-        <v>0.969831109046936</v>
+        <v>0.9574503302574158</v>
       </c>
     </row>
     <row r="326">
@@ -4022,7 +4022,7 @@
         <v>0.962179863733083</v>
       </c>
       <c r="C326" t="n">
-        <v>0.9717566967010498</v>
+        <v>0.9561365246772766</v>
       </c>
     </row>
     <row r="327">
@@ -4033,7 +4033,7 @@
         <v>0.9534041720607623</v>
       </c>
       <c r="C327" t="n">
-        <v>0.9682451486587524</v>
+        <v>0.9535263180732727</v>
       </c>
     </row>
     <row r="328">
@@ -4044,7 +4044,7 @@
         <v>0.9590403356759051</v>
       </c>
       <c r="C328" t="n">
-        <v>0.9637158513069153</v>
+        <v>0.9538905620574951</v>
       </c>
     </row>
     <row r="329">
@@ -4055,7 +4055,7 @@
         <v>0.9593704365355666</v>
       </c>
       <c r="C329" t="n">
-        <v>0.9642690420150757</v>
+        <v>0.9543303847312927</v>
       </c>
     </row>
     <row r="330">
@@ -4066,7 +4066,7 @@
         <v>0.9590044864187866</v>
       </c>
       <c r="C330" t="n">
-        <v>0.9651437997817993</v>
+        <v>0.9545977711677551</v>
       </c>
     </row>
     <row r="331">
@@ -4077,7 +4077,7 @@
         <v>0.9610721321654954</v>
       </c>
       <c r="C331" t="n">
-        <v>0.9654926657676697</v>
+        <v>0.9548115134239197</v>
       </c>
     </row>
     <row r="332">
@@ -4088,7 +4088,7 @@
         <v>0.9687960687204022</v>
       </c>
       <c r="C332" t="n">
-        <v>0.9665995836257935</v>
+        <v>0.9563607573509216</v>
       </c>
     </row>
     <row r="333">
@@ -4099,7 +4099,7 @@
         <v>0.969519399411128</v>
       </c>
       <c r="C333" t="n">
-        <v>0.9703884720802307</v>
+        <v>0.9566816687583923</v>
       </c>
     </row>
     <row r="334">
@@ -4110,7 +4110,7 @@
         <v>0.9596849939589831</v>
       </c>
       <c r="C334" t="n">
-        <v>0.9713889360427856</v>
+        <v>0.9549708962440491</v>
       </c>
     </row>
     <row r="335">
@@ -4121,7 +4121,7 @@
         <v>0.9587616328445689</v>
       </c>
       <c r="C335" t="n">
-        <v>0.9673948884010315</v>
+        <v>0.9546549320220947</v>
       </c>
     </row>
     <row r="336">
@@ -4132,7 +4132,7 @@
         <v>0.9588601795919151</v>
       </c>
       <c r="C336" t="n">
-        <v>0.9654162526130676</v>
+        <v>0.9548919200897217</v>
       </c>
     </row>
     <row r="337">
@@ -4143,7 +4143,7 @@
         <v>0.953386023923382</v>
       </c>
       <c r="C337" t="n">
-        <v>0.9648093581199646</v>
+        <v>0.9542226195335388</v>
       </c>
     </row>
     <row r="338">
@@ -4154,7 +4154,7 @@
         <v>0.9528632917865418</v>
       </c>
       <c r="C338" t="n">
-        <v>0.962900698184967</v>
+        <v>0.9535022377967834</v>
       </c>
     </row>
     <row r="339">
@@ -4165,7 +4165,7 @@
         <v>0.9603535296015113</v>
       </c>
       <c r="C339" t="n">
-        <v>0.9622738361358643</v>
+        <v>0.9539762139320374</v>
       </c>
     </row>
     <row r="340">
@@ -4176,7 +4176,7 @@
         <v>0.952136519573564</v>
       </c>
       <c r="C340" t="n">
-        <v>0.9642790555953979</v>
+        <v>0.9516762495040894</v>
       </c>
     </row>
     <row r="341">
@@ -4187,7 +4187,7 @@
         <v>0.9515682014486117</v>
       </c>
       <c r="C341" t="n">
-        <v>0.961333692073822</v>
+        <v>0.9499805569648743</v>
       </c>
     </row>
     <row r="342">
@@ -4198,7 +4198,7 @@
         <v>0.9596374349007893</v>
       </c>
       <c r="C342" t="n">
-        <v>0.9599371552467346</v>
+        <v>0.9503915905952454</v>
       </c>
     </row>
     <row r="343">
@@ -4209,7 +4209,7 @@
         <v>0.9592289368485695</v>
       </c>
       <c r="C343" t="n">
-        <v>0.9627788662910461</v>
+        <v>0.9504114389419556</v>
       </c>
     </row>
     <row r="344">
@@ -4220,7 +4220,7 @@
         <v>0.9533217486646101</v>
       </c>
       <c r="C344" t="n">
-        <v>0.9632831811904907</v>
+        <v>0.9492926597595215</v>
       </c>
     </row>
     <row r="345">
@@ -4231,7 +4231,7 @@
         <v>0.962193090695889</v>
       </c>
       <c r="C345" t="n">
-        <v>0.961442232131958</v>
+        <v>0.9508710503578186</v>
       </c>
     </row>
     <row r="346">
@@ -4242,7 +4242,7 @@
         <v>0.967648057837092</v>
       </c>
       <c r="C346" t="n">
-        <v>0.9649245142936707</v>
+        <v>0.9528332948684692</v>
       </c>
     </row>
     <row r="347">
@@ -4253,7 +4253,7 @@
         <v>0.9679039107231974</v>
       </c>
       <c r="C347" t="n">
-        <v>0.9690589308738708</v>
+        <v>0.9542508125305176</v>
       </c>
     </row>
     <row r="348">
@@ -4264,7 +4264,7 @@
         <v>0.9680513533736592</v>
       </c>
       <c r="C348" t="n">
-        <v>0.9704490900039673</v>
+        <v>0.955534040927887</v>
       </c>
     </row>
     <row r="349">
@@ -4275,7 +4275,7 @@
         <v>0.9681374592300501</v>
       </c>
       <c r="C349" t="n">
-        <v>0.9711424112319946</v>
+        <v>0.956904411315918</v>
       </c>
     </row>
     <row r="350">
@@ -4286,7 +4286,7 @@
         <v>0.9682880347580802</v>
       </c>
       <c r="C350" t="n">
-        <v>0.9713495373725891</v>
+        <v>0.9582279920578003</v>
       </c>
     </row>
     <row r="351">
@@ -4297,7 +4297,7 @@
         <v>0.9693557273680014</v>
       </c>
       <c r="C351" t="n">
-        <v>0.9719097018241882</v>
+        <v>0.9597313404083252</v>
       </c>
     </row>
     <row r="352">
@@ -4308,7 +4308,7 @@
         <v>0.9713428124242277</v>
       </c>
       <c r="C352" t="n">
-        <v>0.9730003476142883</v>
+        <v>0.9615899920463562</v>
       </c>
     </row>
     <row r="353">
@@ -4319,7 +4319,7 @@
         <v>0.9774094130217554</v>
       </c>
       <c r="C353" t="n">
-        <v>0.9747150540351868</v>
+        <v>0.9638580679893494</v>
       </c>
     </row>
     <row r="354">
@@ -4330,7 +4330,7 @@
         <v>0.9777853189542488</v>
       </c>
       <c r="C354" t="n">
-        <v>0.9785040020942688</v>
+        <v>0.9652776122093201</v>
       </c>
     </row>
     <row r="355">
@@ -4341,7 +4341,7 @@
         <v>0.9689928951847727</v>
       </c>
       <c r="C355" t="n">
-        <v>0.9794069528579712</v>
+        <v>0.9643844366073608</v>
       </c>
     </row>
     <row r="356">
@@ -4352,7 +4352,7 @@
         <v>0.9689238996501304</v>
       </c>
       <c r="C356" t="n">
-        <v>0.9759064912796021</v>
+        <v>0.9642128944396973</v>
       </c>
     </row>
     <row r="357">
@@ -4363,7 +4363,7 @@
         <v>0.9701719465308652</v>
       </c>
       <c r="C357" t="n">
-        <v>0.9744593501091003</v>
+        <v>0.9647206664085388</v>
       </c>
     </row>
     <row r="358">
@@ -4374,7 +4374,7 @@
         <v>0.9712987157423145</v>
       </c>
       <c r="C358" t="n">
-        <v>0.9749381542205811</v>
+        <v>0.9655974507331848</v>
       </c>
     </row>
     <row r="359">
@@ -4385,7 +4385,7 @@
         <v>0.971200073231132</v>
       </c>
       <c r="C359" t="n">
-        <v>0.9759522676467896</v>
+        <v>0.9656567573547363</v>
       </c>
     </row>
     <row r="360">
@@ -4396,7 +4396,7 @@
         <v>0.9778180721944113</v>
       </c>
       <c r="C360" t="n">
-        <v>0.9766001105308533</v>
+        <v>0.9670674800872803</v>
       </c>
     </row>
     <row r="361">
@@ -4407,7 +4407,7 @@
         <v>0.9782104082366423</v>
       </c>
       <c r="C361" t="n">
-        <v>0.9796239733695984</v>
+        <v>0.9672682285308838</v>
       </c>
     </row>
     <row r="362">
@@ -4418,7 +4418,7 @@
         <v>0.9714821772350183</v>
       </c>
       <c r="C362" t="n">
-        <v>0.9804321527481079</v>
+        <v>0.9661028981208801</v>
       </c>
     </row>
     <row r="363">
@@ -4429,7 +4429,7 @@
         <v>0.9695559975532383</v>
       </c>
       <c r="C363" t="n">
-        <v>0.9774423241615295</v>
+        <v>0.965171217918396</v>
       </c>
     </row>
     <row r="364">
@@ -4440,7 +4440,7 @@
         <v>0.9694213724737814</v>
       </c>
       <c r="C364" t="n">
-        <v>0.9754239320755005</v>
+        <v>0.9652849435806274</v>
       </c>
     </row>
     <row r="365">
@@ -4451,7 +4451,7 @@
         <v>0.9707512392896198</v>
       </c>
       <c r="C365" t="n">
-        <v>0.9751219749450684</v>
+        <v>0.9657727479934692</v>
       </c>
     </row>
     <row r="366">
@@ -4462,7 +4462,7 @@
         <v>0.9707291552413696</v>
       </c>
       <c r="C366" t="n">
-        <v>0.9756609797477722</v>
+        <v>0.9661216139793396</v>
       </c>
     </row>
     <row r="367">
@@ -4473,7 +4473,7 @@
         <v>0.976093575812211</v>
       </c>
       <c r="C367" t="n">
-        <v>0.9762087464332581</v>
+        <v>0.9669251441955566</v>
       </c>
     </row>
     <row r="368">
@@ -4484,7 +4484,7 @@
         <v>0.9771141952541974</v>
       </c>
       <c r="C368" t="n">
-        <v>0.9786394238471985</v>
+        <v>0.9670918583869934</v>
       </c>
     </row>
     <row r="369">
@@ -4495,7 +4495,7 @@
         <v>0.9772564212953591</v>
       </c>
       <c r="C369" t="n">
-        <v>0.9798165559768677</v>
+        <v>0.9670875072479248</v>
       </c>
     </row>
     <row r="370">
@@ -4506,7 +4506,7 @@
         <v>0.9687844771360773</v>
       </c>
       <c r="C370" t="n">
-        <v>0.9797989130020142</v>
+        <v>0.9655613899230957</v>
       </c>
     </row>
     <row r="371">
@@ -4517,7 +4517,7 @@
         <v>0.9686663134392109</v>
       </c>
       <c r="C371" t="n">
-        <v>0.9761136174201965</v>
+        <v>0.9654388427734375</v>
       </c>
     </row>
     <row r="372">
@@ -4528,7 +4528,7 @@
         <v>0.9684567255558265</v>
       </c>
       <c r="C372" t="n">
-        <v>0.9746577143669128</v>
+        <v>0.9650874733924866</v>
       </c>
     </row>
     <row r="373">
@@ -4539,7 +4539,7 @@
         <v>0.968143925483163</v>
       </c>
       <c r="C373" t="n">
-        <v>0.974455714225769</v>
+        <v>0.9651045799255371</v>
       </c>
     </row>
     <row r="374">
@@ -4550,7 +4550,7 @@
         <v>0.9623797058027724</v>
       </c>
       <c r="C374" t="n">
-        <v>0.9739457368850708</v>
+        <v>0.9636067152023315</v>
       </c>
     </row>
     <row r="375">
@@ -4561,7 +4561,7 @@
         <v>0.9700123225574017</v>
       </c>
       <c r="C375" t="n">
-        <v>0.9719657301902771</v>
+        <v>0.9639376401901245</v>
       </c>
     </row>
     <row r="376">
@@ -4572,7 +4572,7 @@
         <v>0.9708125423166657</v>
       </c>
       <c r="C376" t="n">
-        <v>0.9739019870758057</v>
+        <v>0.963481068611145</v>
       </c>
     </row>
     <row r="377">
@@ -4583,7 +4583,7 @@
         <v>0.9688127415430069</v>
       </c>
       <c r="C377" t="n">
-        <v>0.9746546149253845</v>
+        <v>0.9623426795005798</v>
       </c>
     </row>
     <row r="378">
@@ -4594,7 +4594,7 @@
         <v>0.9619879187419949</v>
       </c>
       <c r="C378" t="n">
-        <v>0.9734130501747131</v>
+        <v>0.960235059261322</v>
       </c>
     </row>
     <row r="379">
@@ -4605,7 +4605,7 @@
         <v>0.962446473822264</v>
       </c>
       <c r="C379" t="n">
-        <v>0.9701942205429077</v>
+        <v>0.9595388770103455</v>
       </c>
     </row>
     <row r="380">
@@ -4616,7 +4616,7 @@
         <v>0.9677940126658239</v>
       </c>
       <c r="C380" t="n">
-        <v>0.9692813754081726</v>
+        <v>0.9602670073509216</v>
       </c>
     </row>
     <row r="381">
@@ -4627,7 +4627,7 @@
         <v>0.9682733872135955</v>
       </c>
       <c r="C381" t="n">
-        <v>0.9713838696479797</v>
+        <v>0.960894763469696</v>
       </c>
     </row>
     <row r="382">
@@ -4638,7 +4638,7 @@
         <v>0.9685214457969706</v>
       </c>
       <c r="C382" t="n">
-        <v>0.9725731015205383</v>
+        <v>0.9610076546669006</v>
       </c>
     </row>
     <row r="383">
@@ -4649,7 +4649,7 @@
         <v>0.9702553778217688</v>
       </c>
       <c r="C383" t="n">
-        <v>0.9730311036109924</v>
+        <v>0.9613389372825623</v>
       </c>
     </row>
     <row r="384">
@@ -4660,7 +4660,7 @@
         <v>0.970625839312023</v>
       </c>
       <c r="C384" t="n">
-        <v>0.9737959504127502</v>
+        <v>0.961361289024353</v>
       </c>
     </row>
     <row r="385">
@@ -4671,7 +4671,7 @@
         <v>0.9707747748883538</v>
       </c>
       <c r="C385" t="n">
-        <v>0.9740685224533081</v>
+        <v>0.9615920782089233</v>
       </c>
     </row>
     <row r="386">
@@ -4682,7 +4682,7 @@
         <v>0.9708607553296966</v>
       </c>
       <c r="C386" t="n">
-        <v>0.974427342414856</v>
+        <v>0.9623430371284485</v>
       </c>
     </row>
     <row r="387">
@@ -4693,7 +4693,7 @@
         <v>0.9708553034224966</v>
       </c>
       <c r="C387" t="n">
-        <v>0.9747605919837952</v>
+        <v>0.9630087018013</v>
       </c>
     </row>
     <row r="388">
@@ -4704,7 +4704,7 @@
         <v>0.9759605251164475</v>
       </c>
       <c r="C388" t="n">
-        <v>0.9752417206764221</v>
+        <v>0.9648134112358093</v>
       </c>
     </row>
     <row r="389">
@@ -4715,7 +4715,7 @@
         <v>0.9761834997105076</v>
       </c>
       <c r="C389" t="n">
-        <v>0.9779328107833862</v>
+        <v>0.9659140706062317</v>
       </c>
     </row>
     <row r="390">
@@ -4726,7 +4726,7 @@
         <v>0.9762742101337604</v>
       </c>
       <c r="C390" t="n">
-        <v>0.9790503978729248</v>
+        <v>0.9666228294372559</v>
       </c>
     </row>
     <row r="391">
@@ -4737,7 +4737,7 @@
         <v>0.9762731342443235</v>
       </c>
       <c r="C391" t="n">
-        <v>0.9793241024017334</v>
+        <v>0.9671992063522339</v>
       </c>
     </row>
     <row r="392">
@@ -4748,7 +4748,7 @@
         <v>0.9762805343661169</v>
       </c>
       <c r="C392" t="n">
-        <v>0.9796510934829712</v>
+        <v>0.9679051637649536</v>
       </c>
     </row>
     <row r="393">
@@ -4759,7 +4759,7 @@
         <v>0.9760725544321923</v>
       </c>
       <c r="C393" t="n">
-        <v>0.9797865748405457</v>
+        <v>0.9685543775558472</v>
       </c>
     </row>
     <row r="394">
@@ -4770,7 +4770,7 @@
         <v>0.9761205382987658</v>
       </c>
       <c r="C394" t="n">
-        <v>0.9798184633255005</v>
+        <v>0.9691670536994934</v>
       </c>
     </row>
     <row r="395">
@@ -4781,7 +4781,7 @@
         <v>0.9760217205064491</v>
       </c>
       <c r="C395" t="n">
-        <v>0.9800878763198853</v>
+        <v>0.969395637512207</v>
       </c>
     </row>
     <row r="396">
@@ -4792,7 +4792,7 @@
         <v>0.9760316838624249</v>
       </c>
       <c r="C396" t="n">
-        <v>0.9802728295326233</v>
+        <v>0.9696019887924194</v>
       </c>
     </row>
     <row r="397">
@@ -4803,7 +4803,7 @@
         <v>0.9760494030120499</v>
       </c>
       <c r="C397" t="n">
-        <v>0.9802728295326233</v>
+        <v>0.9696009159088135</v>
       </c>
     </row>
     <row r="398">
@@ -4814,7 +4814,7 @@
         <v>0.9759930599790423</v>
       </c>
       <c r="C398" t="n">
-        <v>0.9802728295326233</v>
+        <v>0.9695442914962769</v>
       </c>
     </row>
     <row r="399">
@@ -4825,7 +4825,7 @@
         <v>0.9758076675791776</v>
       </c>
       <c r="C399" t="n">
-        <v>0.9802728295326233</v>
+        <v>0.9694532155990601</v>
       </c>
     </row>
     <row r="400">
@@ -4836,7 +4836,7 @@
         <v>0.9678377252775308</v>
       </c>
       <c r="C400" t="n">
-        <v>0.9797273278236389</v>
+        <v>0.9677392244338989</v>
       </c>
     </row>
     <row r="401">
@@ -4847,7 +4847,7 @@
         <v>0.9810616772228468</v>
       </c>
       <c r="C401" t="n">
-        <v>0.9770300984382629</v>
+        <v>0.9697291851043701</v>
       </c>
     </row>
     <row r="402">
@@ -4858,7 +4858,7 @@
         <v>0.9800405267648649</v>
       </c>
       <c r="C402" t="n">
-        <v>0.9818017482757568</v>
+        <v>0.9702515602111816</v>
       </c>
     </row>
     <row r="403">
@@ -4869,7 +4869,7 @@
         <v>0.9807073778075596</v>
       </c>
       <c r="C403" t="n">
-        <v>0.9829500913619995</v>
+        <v>0.9709835052490234</v>
       </c>
     </row>
     <row r="404">
@@ -4880,7 +4880,7 @@
         <v>0.9884020126511398</v>
       </c>
       <c r="C404" t="n">
-        <v>0.9839898943901062</v>
+        <v>0.9727938175201416</v>
       </c>
     </row>
     <row r="405">
@@ -4891,7 +4891,7 @@
         <v>0.9891694667078306</v>
       </c>
       <c r="C405" t="n">
-        <v>0.9882848262786865</v>
+        <v>0.9743329286575317</v>
       </c>
     </row>
     <row r="406">
@@ -4902,7 +4902,7 @@
         <v>0.9808050244157939</v>
       </c>
       <c r="C406" t="n">
-        <v>0.9896860718727112</v>
+        <v>0.9741709232330322</v>
       </c>
     </row>
     <row r="407">
@@ -4913,7 +4913,7 @@
         <v>0.9800572007284393</v>
       </c>
       <c r="C407" t="n">
-        <v>0.9862905144691467</v>
+        <v>0.974537193775177</v>
       </c>
     </row>
     <row r="408">
@@ -4924,7 +4924,7 @@
         <v>0.9803666482806253</v>
       </c>
       <c r="C408" t="n">
-        <v>0.9848657846450806</v>
+        <v>0.9749993681907654</v>
       </c>
     </row>
     <row r="409">
@@ -4935,7 +4935,7 @@
         <v>0.9800805880592611</v>
       </c>
       <c r="C409" t="n">
-        <v>0.9848645329475403</v>
+        <v>0.9757470488548279</v>
       </c>
     </row>
     <row r="410">
@@ -4946,7 +4946,7 @@
         <v>0.9789817769928428</v>
       </c>
       <c r="C410" t="n">
-        <v>0.9848953485488892</v>
+        <v>0.9755389094352722</v>
       </c>
     </row>
     <row r="411">
@@ -4957,7 +4957,7 @@
         <v>0.9866677697312971</v>
       </c>
       <c r="C411" t="n">
-        <v>0.9848828911781311</v>
+        <v>0.9767352938652039</v>
       </c>
     </row>
     <row r="412">
@@ -4968,7 +4968,7 @@
         <v>0.9871378162588823</v>
       </c>
       <c r="C412" t="n">
-        <v>0.9882119297981262</v>
+        <v>0.9771704077720642</v>
       </c>
     </row>
     <row r="413">
@@ -4979,7 +4979,7 @@
         <v>0.9860458729678183</v>
       </c>
       <c r="C413" t="n">
-        <v>0.9893578886985779</v>
+        <v>0.9768644571304321</v>
       </c>
     </row>
     <row r="414">
@@ -4990,7 +4990,7 @@
         <v>0.9776592175893822</v>
       </c>
       <c r="C414" t="n">
-        <v>0.9886077046394348</v>
+        <v>0.9750977754592896</v>
       </c>
     </row>
     <row r="415">
@@ -5001,7 +5001,7 @@
         <v>0.9778880856673615</v>
       </c>
       <c r="C415" t="n">
-        <v>0.9847617745399475</v>
+        <v>0.9748603701591492</v>
       </c>
     </row>
     <row r="416">
@@ -5012,7 +5012,7 @@
         <v>0.9778552235098363</v>
       </c>
       <c r="C416" t="n">
-        <v>0.9834035634994507</v>
+        <v>0.9744521975517273</v>
       </c>
     </row>
     <row r="417">
@@ -5023,7 +5023,7 @@
         <v>0.9694574611227151</v>
       </c>
       <c r="C417" t="n">
-        <v>0.982824981212616</v>
+        <v>0.972808837890625</v>
       </c>
     </row>
     <row r="418">
@@ -5034,7 +5034,7 @@
         <v>0.9696243622023575</v>
       </c>
       <c r="C418" t="n">
-        <v>0.9796602725982666</v>
+        <v>0.9713733196258545</v>
       </c>
     </row>
     <row r="419">
@@ -5045,7 +5045,7 @@
         <v>0.9779205622333085</v>
       </c>
       <c r="C419" t="n">
-        <v>0.9786537289619446</v>
+        <v>0.9718285799026489</v>
       </c>
     </row>
     <row r="420">
@@ -5056,7 +5056,7 @@
         <v>0.978439555826711</v>
       </c>
       <c r="C420" t="n">
-        <v>0.9812536835670471</v>
+        <v>0.971246063709259</v>
       </c>
     </row>
     <row r="421">
@@ -5067,7 +5067,7 @@
         <v>0.9687510210821922</v>
       </c>
       <c r="C421" t="n">
-        <v>0.9815297722816467</v>
+        <v>0.9683151841163635</v>
       </c>
     </row>
     <row r="422">
@@ -5078,7 +5078,7 @@
         <v>0.9610661626068885</v>
       </c>
       <c r="C422" t="n">
-        <v>0.9771744608879089</v>
+        <v>0.9649763107299805</v>
       </c>
     </row>
     <row r="423">
@@ -5089,7 +5089,7 @@
         <v>0.9605962238147504</v>
       </c>
       <c r="C423" t="n">
-        <v>0.9721752405166626</v>
+        <v>0.9628012776374817</v>
       </c>
     </row>
     <row r="424">
@@ -5100,7 +5100,7 @@
         <v>0.9683040759161757</v>
       </c>
       <c r="C424" t="n">
-        <v>0.9701138138771057</v>
+        <v>0.9632867574691772</v>
       </c>
     </row>
     <row r="425">
@@ -5111,7 +5111,7 @@
         <v>0.9694006607354979</v>
       </c>
       <c r="C425" t="n">
-        <v>0.9728803634643555</v>
+        <v>0.9633906483650208</v>
       </c>
     </row>
     <row r="426">
@@ -5122,7 +5122,7 @@
         <v>0.9698449694398528</v>
       </c>
       <c r="C426" t="n">
-        <v>0.974427342414856</v>
+        <v>0.9632766842842102</v>
       </c>
     </row>
     <row r="427">
@@ -5133,7 +5133,7 @@
         <v>0.9699426232208518</v>
       </c>
       <c r="C427" t="n">
-        <v>0.9745656251907349</v>
+        <v>0.9621647000312805</v>
       </c>
     </row>
     <row r="428">
@@ -5144,7 +5144,7 @@
         <v>0.9702362325514932</v>
       </c>
       <c r="C428" t="n">
-        <v>0.9740672707557678</v>
+        <v>0.9614618420600891</v>
       </c>
     </row>
     <row r="429">
@@ -5155,7 +5155,7 @@
         <v>0.9705387715921311</v>
       </c>
       <c r="C429" t="n">
-        <v>0.9740018844604492</v>
+        <v>0.9615719318389893</v>
       </c>
     </row>
     <row r="430">
@@ -5166,7 +5166,7 @@
         <v>0.9705435205997377</v>
       </c>
       <c r="C430" t="n">
-        <v>0.9742743372917175</v>
+        <v>0.9623388051986694</v>
       </c>
     </row>
     <row r="431">
@@ -5177,7 +5177,7 @@
         <v>0.9703053106265482</v>
       </c>
       <c r="C431" t="n">
-        <v>0.9747287034988403</v>
+        <v>0.9632307887077332</v>
       </c>
     </row>
     <row r="432">
@@ -5188,7 +5188,7 @@
         <v>0.9695138532990883</v>
       </c>
       <c r="C432" t="n">
-        <v>0.9746878743171692</v>
+        <v>0.9634593725204468</v>
       </c>
     </row>
     <row r="433">
@@ -5199,7 +5199,7 @@
         <v>0.9692293454990673</v>
       </c>
       <c r="C433" t="n">
-        <v>0.9743534326553345</v>
+        <v>0.9632716774940491</v>
       </c>
     </row>
     <row r="434">
@@ -5210,7 +5210,7 @@
         <v>0.968956321089802</v>
       </c>
       <c r="C434" t="n">
-        <v>0.9740968346595764</v>
+        <v>0.963214099407196</v>
       </c>
     </row>
     <row r="435">
@@ -5221,7 +5221,7 @@
         <v>0.9687097922996341</v>
       </c>
       <c r="C435" t="n">
-        <v>0.9738562107086182</v>
+        <v>0.963172435760498</v>
       </c>
     </row>
     <row r="436">
@@ -5232,7 +5232,7 @@
         <v>0.9686266159561472</v>
       </c>
       <c r="C436" t="n">
-        <v>0.973691999912262</v>
+        <v>0.9630172848701477</v>
       </c>
     </row>
     <row r="437">
@@ -5243,7 +5243,7 @@
         <v>0.9684963017784867</v>
       </c>
       <c r="C437" t="n">
-        <v>0.9736599922180176</v>
+        <v>0.9629130959510803</v>
       </c>
     </row>
     <row r="438">
@@ -5254,7 +5254,7 @@
         <v>0.9683731892546965</v>
       </c>
       <c r="C438" t="n">
-        <v>0.9734034538269043</v>
+        <v>0.9623847007751465</v>
       </c>
     </row>
     <row r="439">
@@ -5265,7 +5265,7 @@
         <v>0.9682104969326253</v>
       </c>
       <c r="C439" t="n">
-        <v>0.9732652306556702</v>
+        <v>0.9623615741729736</v>
       </c>
     </row>
     <row r="440">
@@ -5276,7 +5276,7 @@
         <v>0.9680627345389531</v>
       </c>
       <c r="C440" t="n">
-        <v>0.9731616973876953</v>
+        <v>0.9621479511260986</v>
       </c>
     </row>
     <row r="441">
@@ -5287,7 +5287,7 @@
         <v>0.9506776309663554</v>
       </c>
       <c r="C441" t="n">
-        <v>0.9719918966293335</v>
+        <v>0.958284854888916</v>
       </c>
     </row>
     <row r="442">
@@ -5298,7 +5298,7 @@
         <v>0.9442161477203319</v>
       </c>
       <c r="C442" t="n">
-        <v>0.9654169082641602</v>
+        <v>0.9545844793319702</v>
       </c>
     </row>
     <row r="443">
@@ -5309,7 +5309,7 @@
         <v>0.9420542321756972</v>
       </c>
       <c r="C443" t="n">
-        <v>0.9600921273231506</v>
+        <v>0.9517496228218079</v>
       </c>
     </row>
     <row r="444">
@@ -5320,7 +5320,7 @@
         <v>0.9416969048419513</v>
       </c>
       <c r="C444" t="n">
-        <v>0.9572755098342896</v>
+        <v>0.9493059515953064</v>
       </c>
     </row>
     <row r="445">
@@ -5331,7 +5331,7 @@
         <v>0.9350995822020318</v>
       </c>
       <c r="C445" t="n">
-        <v>0.9556251764297485</v>
+        <v>0.9451889395713806</v>
       </c>
     </row>
     <row r="446">
@@ -5342,7 +5342,7 @@
         <v>0.9513069707715761</v>
       </c>
       <c r="C446" t="n">
-        <v>0.9532933235168457</v>
+        <v>0.9453858733177185</v>
       </c>
     </row>
     <row r="447">
@@ -5353,7 +5353,7 @@
         <v>0.9526756706121019</v>
       </c>
       <c r="C447" t="n">
-        <v>0.9566621780395508</v>
+        <v>0.9441158771514893</v>
       </c>
     </row>
     <row r="448">
@@ -5364,7 +5364,7 @@
         <v>0.9442774319894062</v>
       </c>
       <c r="C448" t="n">
-        <v>0.9569593071937561</v>
+        <v>0.9409406781196594</v>
       </c>
     </row>
     <row r="449">
@@ -5375,7 +5375,7 @@
         <v>0.9433459961262561</v>
       </c>
       <c r="C449" t="n">
-        <v>0.9532260298728943</v>
+        <v>0.9388182163238525</v>
       </c>
     </row>
     <row r="450">
@@ -5386,7 +5386,7 @@
         <v>0.9503787172055562</v>
       </c>
       <c r="C450" t="n">
-        <v>0.9513484239578247</v>
+        <v>0.9399686455726624</v>
       </c>
     </row>
     <row r="451">
@@ -5397,7 +5397,7 @@
         <v>0.9527774839377957</v>
       </c>
       <c r="C451" t="n">
-        <v>0.9542702436447144</v>
+        <v>0.941739022731781</v>
       </c>
     </row>
     <row r="452">
@@ -5408,7 +5408,7 @@
         <v>0.9531486625872516</v>
       </c>
       <c r="C452" t="n">
-        <v>0.9566844701766968</v>
+        <v>0.9430260062217712</v>
       </c>
     </row>
     <row r="453">
@@ -5419,7 +5419,7 @@
         <v>0.9419817870182252</v>
       </c>
       <c r="C453" t="n">
-        <v>0.9570481777191162</v>
+        <v>0.9416850805282593</v>
       </c>
     </row>
     <row r="454">
@@ -5430,7 +5430,7 @@
         <v>0.9345537004238544</v>
       </c>
       <c r="C454" t="n">
-        <v>0.9523286819458008</v>
+        <v>0.9394890666007996</v>
       </c>
     </row>
     <row r="455">
@@ -5441,7 +5441,7 @@
         <v>0.933766616361746</v>
       </c>
       <c r="C455" t="n">
-        <v>0.9474005103111267</v>
+        <v>0.9379655122756958</v>
       </c>
     </row>
     <row r="456">
@@ -5452,7 +5452,7 @@
         <v>0.9334888738043081</v>
       </c>
       <c r="C456" t="n">
-        <v>0.9454846382141113</v>
+        <v>0.9368236064910889</v>
       </c>
     </row>
     <row r="457">
@@ -5463,7 +5463,7 @@
         <v>0.9258153493614463</v>
       </c>
       <c r="C457" t="n">
-        <v>0.9444335103034973</v>
+        <v>0.9339718818664551</v>
       </c>
     </row>
     <row r="458">
@@ -5474,7 +5474,7 @@
         <v>0.9320645343697624</v>
       </c>
       <c r="C458" t="n">
-        <v>0.9421671628952026</v>
+        <v>0.9331652522087097</v>
       </c>
     </row>
     <row r="459">
@@ -5485,7 +5485,7 @@
         <v>0.934399145506472</v>
       </c>
       <c r="C459" t="n">
-        <v>0.9421665668487549</v>
+        <v>0.931567370891571</v>
       </c>
     </row>
     <row r="460">
@@ -5496,7 +5496,7 @@
         <v>0.9428251629732505</v>
       </c>
       <c r="C460" t="n">
-        <v>0.9427910447120667</v>
+        <v>0.9315566420555115</v>
       </c>
     </row>
     <row r="461">
@@ -5507,7 +5507,7 @@
         <v>0.9440757753521501</v>
       </c>
       <c r="C461" t="n">
-        <v>0.9464404582977295</v>
+        <v>0.9311712980270386</v>
       </c>
     </row>
     <row r="462">
@@ -5518,7 +5518,7 @@
         <v>0.9341702198609231</v>
       </c>
       <c r="C462" t="n">
-        <v>0.9477480053901672</v>
+        <v>0.9296552538871765</v>
       </c>
     </row>
     <row r="463">
@@ -5529,7 +5529,7 @@
         <v>0.9329054560370239</v>
       </c>
       <c r="C463" t="n">
-        <v>0.943777322769165</v>
+        <v>0.9291976094245911</v>
       </c>
     </row>
     <row r="464">
@@ -5540,7 +5540,7 @@
         <v>0.9327883937913083</v>
       </c>
       <c r="C464" t="n">
-        <v>0.9414930939674377</v>
+        <v>0.9294523596763611</v>
       </c>
     </row>
     <row r="465">
@@ -5551,7 +5551,7 @@
         <v>0.932048035436184</v>
       </c>
       <c r="C465" t="n">
-        <v>0.9410859346389771</v>
+        <v>0.9299778342247009</v>
       </c>
     </row>
     <row r="466">
@@ -5562,7 +5562,7 @@
         <v>0.9258986505454213</v>
       </c>
       <c r="C466" t="n">
-        <v>0.9405344128608704</v>
+        <v>0.9291129112243652</v>
       </c>
     </row>
     <row r="467">
@@ -5573,7 +5573,7 @@
         <v>0.9351601874986786</v>
       </c>
       <c r="C467" t="n">
-        <v>0.9388588666915894</v>
+        <v>0.9298368692398071</v>
       </c>
     </row>
     <row r="468">
@@ -5584,7 +5584,7 @@
         <v>0.9415537702190951</v>
       </c>
       <c r="C468" t="n">
-        <v>0.9418585896492004</v>
+        <v>0.9307359457015991</v>
       </c>
     </row>
     <row r="469">
@@ -5595,7 +5595,7 @@
         <v>0.9408928557446545</v>
       </c>
       <c r="C469" t="n">
-        <v>0.9453645348548889</v>
+        <v>0.9304713606834412</v>
       </c>
     </row>
     <row r="470">
@@ -5606,7 +5606,7 @@
         <v>0.9259181784966103</v>
       </c>
       <c r="C470" t="n">
-        <v>0.9452643990516663</v>
+        <v>0.9274976253509521</v>
       </c>
     </row>
     <row r="471">
@@ -5617,7 +5617,7 @@
         <v>0.925919731108561</v>
       </c>
       <c r="C471" t="n">
-        <v>0.9395062923431396</v>
+        <v>0.9264873266220093</v>
       </c>
     </row>
     <row r="472">
@@ -5628,7 +5628,7 @@
         <v>0.9246494483030581</v>
       </c>
       <c r="C472" t="n">
-        <v>0.9365645051002502</v>
+        <v>0.9257828593254089</v>
       </c>
     </row>
     <row r="473">
@@ -5639,7 +5639,7 @@
         <v>0.9240650792589392</v>
       </c>
       <c r="C473" t="n">
-        <v>0.9354678988456726</v>
+        <v>0.9255197048187256</v>
       </c>
     </row>
     <row r="474">
@@ -5650,7 +5650,7 @@
         <v>0.9239050230894398</v>
       </c>
       <c r="C474" t="n">
-        <v>0.9352261424064636</v>
+        <v>0.9249781370162964</v>
       </c>
     </row>
     <row r="475">
@@ -5661,7 +5661,7 @@
         <v>0.9328508523522187</v>
       </c>
       <c r="C475" t="n">
-        <v>0.9353976845741272</v>
+        <v>0.9256466627120972</v>
       </c>
     </row>
     <row r="476">
@@ -5672,7 +5672,7 @@
         <v>0.933658976525035</v>
       </c>
       <c r="C476" t="n">
-        <v>0.9385462403297424</v>
+        <v>0.9252921342849731</v>
       </c>
     </row>
     <row r="477">
@@ -5683,7 +5683,7 @@
         <v>0.9243494417946631</v>
       </c>
       <c r="C477" t="n">
-        <v>0.9389051198959351</v>
+        <v>0.9226689338684082</v>
       </c>
     </row>
     <row r="478">
@@ -5694,7 +5694,7 @@
         <v>0.9234686159555783</v>
       </c>
       <c r="C478" t="n">
-        <v>0.9351779818534851</v>
+        <v>0.9211403727531433</v>
       </c>
     </row>
     <row r="479">
@@ -5705,7 +5705,7 @@
         <v>0.9239472577735877</v>
       </c>
       <c r="C479" t="n">
-        <v>0.9331461787223816</v>
+        <v>0.9212197065353394</v>
       </c>
     </row>
     <row r="480">
@@ -5716,7 +5716,7 @@
         <v>0.9236280801195623</v>
       </c>
       <c r="C480" t="n">
-        <v>0.9329402446746826</v>
+        <v>0.9213902354240417</v>
       </c>
     </row>
     <row r="481">
@@ -5727,7 +5727,7 @@
         <v>0.9234251360072399</v>
       </c>
       <c r="C481" t="n">
-        <v>0.9329378008842468</v>
+        <v>0.9214608669281006</v>
       </c>
     </row>
     <row r="482">
@@ -5738,7 +5738,7 @@
         <v>0.9254166010685019</v>
       </c>
       <c r="C482" t="n">
-        <v>0.9329105019569397</v>
+        <v>0.9216283559799194</v>
       </c>
     </row>
     <row r="483">
@@ -5749,7 +5749,7 @@
         <v>0.9320799531243443</v>
       </c>
       <c r="C483" t="n">
-        <v>0.9338396787643433</v>
+        <v>0.9223100543022156</v>
       </c>
     </row>
     <row r="484">
@@ -5760,7 +5760,7 @@
         <v>0.9323381552472977</v>
       </c>
       <c r="C484" t="n">
-        <v>0.9369475841522217</v>
+        <v>0.9224802851676941</v>
       </c>
     </row>
     <row r="485">
@@ -5771,7 +5771,7 @@
         <v>0.9167849167819597</v>
       </c>
       <c r="C485" t="n">
-        <v>0.9371140003204346</v>
+        <v>0.9195301532745361</v>
       </c>
     </row>
     <row r="486">
@@ -5782,7 +5782,7 @@
         <v>0.9168064577423998</v>
       </c>
       <c r="C486" t="n">
-        <v>0.931422233581543</v>
+        <v>0.9183738231658936</v>
       </c>
     </row>
     <row r="487">
@@ -5793,7 +5793,7 @@
         <v>0.91680596066936</v>
       </c>
       <c r="C487" t="n">
-        <v>0.9284370541572571</v>
+        <v>0.9178377985954285</v>
       </c>
     </row>
     <row r="488">
@@ -5804,7 +5804,7 @@
         <v>0.9168177293715797</v>
       </c>
       <c r="C488" t="n">
-        <v>0.9278979897499084</v>
+        <v>0.9178508520126343</v>
       </c>
     </row>
     <row r="489">
@@ -5815,7 +5815,7 @@
         <v>0.9157667529602249</v>
       </c>
       <c r="C489" t="n">
-        <v>0.9276378154754639</v>
+        <v>0.91698157787323</v>
       </c>
     </row>
     <row r="490">
@@ -5826,7 +5826,7 @@
         <v>0.9243561564604146</v>
       </c>
       <c r="C490" t="n">
-        <v>0.9277645945549011</v>
+        <v>0.9175984263420105</v>
       </c>
     </row>
     <row r="491">
@@ -5837,7 +5837,7 @@
         <v>0.9250413392234573</v>
       </c>
       <c r="C491" t="n">
-        <v>0.9307100176811218</v>
+        <v>0.917119562625885</v>
       </c>
     </row>
     <row r="492">
@@ -5848,7 +5848,7 @@
         <v>0.9252684101817492</v>
       </c>
       <c r="C492" t="n">
-        <v>0.9316600561141968</v>
+        <v>0.9165508151054382</v>
       </c>
     </row>
     <row r="493">
@@ -5859,7 +5859,7 @@
         <v>0.9252484095059378</v>
       </c>
       <c r="C493" t="n">
-        <v>0.9320497512817383</v>
+        <v>0.9164507985115051</v>
       </c>
     </row>
     <row r="494">
@@ -5870,7 +5870,7 @@
         <v>0.9251909495991286</v>
       </c>
       <c r="C494" t="n">
-        <v>0.9321520328521729</v>
+        <v>0.917207658290863</v>
       </c>
     </row>
     <row r="495">
@@ -5881,7 +5881,7 @@
         <v>0.9250848281141208</v>
       </c>
       <c r="C495" t="n">
-        <v>0.9323221445083618</v>
+        <v>0.9182851910591125</v>
       </c>
     </row>
     <row r="496">
@@ -5892,7 +5892,7 @@
         <v>0.9250142898503677</v>
       </c>
       <c r="C496" t="n">
-        <v>0.9324852228164673</v>
+        <v>0.9192571640014648</v>
       </c>
     </row>
     <row r="497">
@@ -5903,7 +5903,7 @@
         <v>0.924757515435093</v>
       </c>
       <c r="C497" t="n">
-        <v>0.932843029499054</v>
+        <v>0.9198452234268188</v>
       </c>
     </row>
     <row r="498">
@@ -5914,7 +5914,7 @@
         <v>0.9248037827599048</v>
       </c>
       <c r="C498" t="n">
-        <v>0.932874858379364</v>
+        <v>0.9202724099159241</v>
       </c>
     </row>
     <row r="499">
@@ -5925,7 +5925,7 @@
         <v>0.9243890453041488</v>
       </c>
       <c r="C499" t="n">
-        <v>0.9328736662864685</v>
+        <v>0.9202335476875305</v>
       </c>
     </row>
     <row r="500">
@@ -5936,7 +5936,7 @@
         <v>0.9243072682878045</v>
       </c>
       <c r="C500" t="n">
-        <v>0.9326170682907104</v>
+        <v>0.9201876521110535</v>
       </c>
     </row>
     <row r="501">
@@ -5947,7 +5947,7 @@
         <v>0.9241234222805138</v>
       </c>
       <c r="C501" t="n">
-        <v>0.9324527978897095</v>
+        <v>0.9200820326805115</v>
       </c>
     </row>
     <row r="502">
@@ -5958,7 +5958,7 @@
         <v>0.9235459475855844</v>
       </c>
       <c r="C502" t="n">
-        <v>0.9323480725288391</v>
+        <v>0.9199594855308533</v>
       </c>
     </row>
     <row r="503">
@@ -5969,7 +5969,7 @@
         <v>0.9233515326732314</v>
       </c>
       <c r="C503" t="n">
-        <v>0.9321062564849854</v>
+        <v>0.9195536971092224</v>
       </c>
     </row>
     <row r="504">
@@ -5980,7 +5980,7 @@
         <v>0.9168325713486026</v>
       </c>
       <c r="C504" t="n">
-        <v>0.9314488172531128</v>
+        <v>0.9180545210838318</v>
       </c>
     </row>
     <row r="505">
@@ -5991,7 +5991,7 @@
         <v>0.9160386635995971</v>
       </c>
       <c r="C505" t="n">
-        <v>0.9286813139915466</v>
+        <v>0.9169418215751648</v>
       </c>
     </row>
     <row r="506">
@@ -6002,7 +6002,7 @@
         <v>0.9168403568897548</v>
       </c>
       <c r="C506" t="n">
-        <v>0.9272046685218811</v>
+        <v>0.9164081215858459</v>
       </c>
     </row>
     <row r="507">
@@ -6013,7 +6013,7 @@
         <v>0.9237143102418054</v>
       </c>
       <c r="C507" t="n">
-        <v>0.9272787570953369</v>
+        <v>0.917199969291687</v>
       </c>
     </row>
     <row r="508">
@@ -6024,7 +6024,7 @@
         <v>0.9237202234030416</v>
       </c>
       <c r="C508" t="n">
-        <v>0.9302387237548828</v>
+        <v>0.9171414971351624</v>
       </c>
     </row>
     <row r="509">
@@ -6035,7 +6035,7 @@
         <v>0.9144200852630671</v>
       </c>
       <c r="C509" t="n">
-        <v>0.9305508732795715</v>
+        <v>0.9150575399398804</v>
       </c>
     </row>
     <row r="510">
@@ -6046,7 +6046,7 @@
         <v>0.9076129937589166</v>
       </c>
       <c r="C510" t="n">
-        <v>0.9262916445732117</v>
+        <v>0.911958634853363</v>
       </c>
     </row>
     <row r="511">
@@ -6057,7 +6057,7 @@
         <v>0.9076300997046505</v>
       </c>
       <c r="C511" t="n">
-        <v>0.9216682314872742</v>
+        <v>0.9104806184768677</v>
       </c>
     </row>
     <row r="512">
@@ -6068,7 +6068,7 @@
         <v>0.9070266977071859</v>
       </c>
       <c r="C512" t="n">
-        <v>0.919815719127655</v>
+        <v>0.9097254276275635</v>
       </c>
     </row>
     <row r="513">
@@ -6079,7 +6079,7 @@
         <v>0.9063550209562089</v>
       </c>
       <c r="C513" t="n">
-        <v>0.919181764125824</v>
+        <v>0.9086708426475525</v>
       </c>
     </row>
     <row r="514">
@@ -6090,7 +6090,7 @@
         <v>0.9140815915689274</v>
       </c>
       <c r="C514" t="n">
-        <v>0.919251561164856</v>
+        <v>0.9092057347297668</v>
       </c>
     </row>
     <row r="515">
@@ -6101,7 +6101,7 @@
         <v>0.9146963603114798</v>
       </c>
       <c r="C515" t="n">
-        <v>0.9218056797981262</v>
+        <v>0.9086146950721741</v>
       </c>
     </row>
     <row r="516">
@@ -6112,7 +6112,7 @@
         <v>0.9148759994627612</v>
       </c>
       <c r="C516" t="n">
-        <v>0.9224581122398376</v>
+        <v>0.9076529741287231</v>
       </c>
     </row>
     <row r="517">
@@ -6123,7 +6123,7 @@
         <v>0.9052564973436653</v>
       </c>
       <c r="C517" t="n">
-        <v>0.9218341112136841</v>
+        <v>0.9052472710609436</v>
       </c>
     </row>
     <row r="518">
@@ -6134,7 +6134,7 @@
         <v>0.8984545469799825</v>
       </c>
       <c r="C518" t="n">
-        <v>0.9173710346221924</v>
+        <v>0.902917206287384</v>
       </c>
     </row>
     <row r="519">
@@ -6145,7 +6145,7 @@
         <v>0.898388194562069</v>
       </c>
       <c r="C519" t="n">
-        <v>0.9129383563995361</v>
+        <v>0.9021521806716919</v>
       </c>
     </row>
     <row r="520">
@@ -6156,7 +6156,7 @@
         <v>0.8980343924101388</v>
       </c>
       <c r="C520" t="n">
-        <v>0.9114162921905518</v>
+        <v>0.9015311598777771</v>
       </c>
     </row>
     <row r="521">
@@ -6167,7 +6167,7 @@
         <v>0.8982338877908698</v>
       </c>
       <c r="C521" t="n">
-        <v>0.910825252532959</v>
+        <v>0.9005181789398193</v>
       </c>
     </row>
     <row r="522">
@@ -6178,7 +6178,7 @@
         <v>0.9061463835558251</v>
       </c>
       <c r="C522" t="n">
-        <v>0.9110162854194641</v>
+        <v>0.9012216925621033</v>
       </c>
     </row>
     <row r="523">
@@ -6189,7 +6189,7 @@
         <v>0.906467443691352</v>
       </c>
       <c r="C523" t="n">
-        <v>0.9137815237045288</v>
+        <v>0.9005807638168335</v>
       </c>
     </row>
     <row r="524">
@@ -6200,7 +6200,7 @@
         <v>0.905123859307938</v>
       </c>
       <c r="C524" t="n">
-        <v>0.9144218564033508</v>
+        <v>0.8992303609848022</v>
       </c>
     </row>
     <row r="525">
@@ -6211,7 +6211,7 @@
         <v>0.8967711467352302</v>
       </c>
       <c r="C525" t="n">
-        <v>0.9130350351333618</v>
+        <v>0.8970755338668823</v>
       </c>
     </row>
     <row r="526">
@@ -6222,7 +6222,7 @@
         <v>0.8892238896831482</v>
       </c>
       <c r="C526" t="n">
-        <v>0.9087924957275391</v>
+        <v>0.8946201205253601</v>
       </c>
     </row>
     <row r="527">
@@ -6233,7 +6233,7 @@
         <v>0.8966240641970747</v>
       </c>
       <c r="C527" t="n">
-        <v>0.904994785785675</v>
+        <v>0.8957002758979797</v>
       </c>
     </row>
     <row r="528">
@@ -6244,7 +6244,7 @@
         <v>0.889222105649244</v>
       </c>
       <c r="C528" t="n">
-        <v>0.9056445360183716</v>
+        <v>0.8942456841468811</v>
       </c>
     </row>
     <row r="529">
@@ -6255,7 +6255,7 @@
         <v>0.8887756449398576</v>
       </c>
       <c r="C529" t="n">
-        <v>0.903609573841095</v>
+        <v>0.8930202126502991</v>
       </c>
     </row>
     <row r="530">
@@ -6266,7 +6266,7 @@
         <v>0.898138402525078</v>
       </c>
       <c r="C530" t="n">
-        <v>0.9027553796768188</v>
+        <v>0.8937378525733948</v>
       </c>
     </row>
     <row r="531">
@@ -6277,7 +6277,7 @@
         <v>0.8984679465401729</v>
       </c>
       <c r="C531" t="n">
-        <v>0.9057086110115051</v>
+        <v>0.8931032419204712</v>
       </c>
     </row>
     <row r="532">
@@ -6288,7 +6288,7 @@
         <v>0.8958615610550399</v>
       </c>
       <c r="C532" t="n">
-        <v>0.9064140319824219</v>
+        <v>0.8919223546981812</v>
       </c>
     </row>
     <row r="533">
@@ -6299,7 +6299,7 @@
         <v>0.8880015543759625</v>
       </c>
       <c r="C533" t="n">
-        <v>0.9048500657081604</v>
+        <v>0.8896011114120483</v>
       </c>
     </row>
     <row r="534">
@@ -6310,7 +6310,7 @@
         <v>0.8888992068066747</v>
       </c>
       <c r="C534" t="n">
-        <v>0.9010680317878723</v>
+        <v>0.8890629410743713</v>
       </c>
     </row>
     <row r="535">
@@ -6321,7 +6321,7 @@
         <v>0.8888003225671569</v>
       </c>
       <c r="C535" t="n">
-        <v>0.8997889757156372</v>
+        <v>0.8890324234962463</v>
       </c>
     </row>
     <row r="536">
@@ -6332,7 +6332,7 @@
         <v>0.8882005232731717</v>
       </c>
       <c r="C536" t="n">
-        <v>0.8995892405509949</v>
+        <v>0.8888298869132996</v>
       </c>
     </row>
     <row r="537">
@@ -6343,7 +6343,7 @@
         <v>0.8888139653845244</v>
       </c>
       <c r="C537" t="n">
-        <v>0.8993349671363831</v>
+        <v>0.888589084148407</v>
       </c>
     </row>
     <row r="538">
@@ -6354,7 +6354,7 @@
         <v>0.8961203372084978</v>
       </c>
       <c r="C538" t="n">
-        <v>0.8998453617095947</v>
+        <v>0.8894921541213989</v>
       </c>
     </row>
     <row r="539">
@@ -6365,7 +6365,7 @@
         <v>0.8961984699016766</v>
       </c>
       <c r="C539" t="n">
-        <v>0.9029797911643982</v>
+        <v>0.8894331455230713</v>
       </c>
     </row>
     <row r="540">
@@ -6376,7 +6376,7 @@
         <v>0.8963604228993981</v>
       </c>
       <c r="C540" t="n">
-        <v>0.9040194153785706</v>
+        <v>0.8894286155700684</v>
       </c>
     </row>
     <row r="541">
@@ -6387,7 +6387,7 @@
         <v>0.8963600267750816</v>
       </c>
       <c r="C541" t="n">
-        <v>0.904352605342865</v>
+        <v>0.8896440863609314</v>
       </c>
     </row>
     <row r="542">
@@ -6398,7 +6398,7 @@
         <v>0.8962243458775377</v>
       </c>
       <c r="C542" t="n">
-        <v>0.9045277833938599</v>
+        <v>0.8905457258224487</v>
       </c>
     </row>
     <row r="543">
@@ -6409,7 +6409,7 @@
         <v>0.8964795895345674</v>
       </c>
       <c r="C543" t="n">
-        <v>0.9047856330871582</v>
+        <v>0.8913212418556213</v>
       </c>
     </row>
     <row r="544">
@@ -6420,7 +6420,7 @@
         <v>0.8965879042198213</v>
       </c>
       <c r="C544" t="n">
-        <v>0.9051200151443481</v>
+        <v>0.89225172996521</v>
       </c>
     </row>
     <row r="545">
@@ -6431,7 +6431,7 @@
         <v>0.8965998325536425</v>
       </c>
       <c r="C545" t="n">
-        <v>0.9054801464080811</v>
+        <v>0.8930195569992065</v>
       </c>
     </row>
     <row r="546">
@@ -6442,7 +6442,7 @@
         <v>0.8965876427006713</v>
       </c>
       <c r="C546" t="n">
-        <v>0.90565025806427</v>
+        <v>0.8931766748428345</v>
       </c>
     </row>
     <row r="547">
@@ -6453,7 +6453,7 @@
         <v>0.8966440394375775</v>
       </c>
       <c r="C547" t="n">
-        <v>0.90565025806427</v>
+        <v>0.893182098865509</v>
       </c>
     </row>
     <row r="548">
@@ -6464,7 +6464,7 @@
         <v>0.8967423014501308</v>
       </c>
       <c r="C548" t="n">
-        <v>0.9057550430297852</v>
+        <v>0.8933936953544617</v>
       </c>
     </row>
     <row r="549">
@@ -6475,7 +6475,7 @@
         <v>0.89646879345817</v>
       </c>
       <c r="C549" t="n">
-        <v>0.9058145880699158</v>
+        <v>0.8933089375495911</v>
       </c>
     </row>
     <row r="550">
@@ -6486,7 +6486,7 @@
         <v>0.8964741879303488</v>
       </c>
       <c r="C550" t="n">
-        <v>0.9057525396347046</v>
+        <v>0.8933035135269165</v>
       </c>
     </row>
     <row r="551">
@@ -6497,7 +6497,7 @@
         <v>0.8964430901498783</v>
       </c>
       <c r="C551" t="n">
-        <v>0.9056822061538696</v>
+        <v>0.8933080434799194</v>
       </c>
     </row>
     <row r="552">
@@ -6508,7 +6508,7 @@
         <v>0.8965010574539296</v>
       </c>
       <c r="C552" t="n">
-        <v>0.9056822061538696</v>
+        <v>0.8933086395263672</v>
       </c>
     </row>
     <row r="553">
@@ -6519,7 +6519,7 @@
         <v>0.8799889946072832</v>
       </c>
       <c r="C553" t="n">
-        <v>0.9044446349143982</v>
+        <v>0.8894932270050049</v>
       </c>
     </row>
     <row r="554">
@@ -6530,7 +6530,7 @@
         <v>0.8791704763223276</v>
       </c>
       <c r="C554" t="n">
-        <v>0.898490846157074</v>
+        <v>0.8872191309928894</v>
       </c>
     </row>
     <row r="555">
@@ -6541,7 +6541,7 @@
         <v>0.879718458279799</v>
       </c>
       <c r="C555" t="n">
-        <v>0.894894540309906</v>
+        <v>0.8858159184455872</v>
       </c>
     </row>
     <row r="556">
@@ -6552,7 +6552,7 @@
         <v>0.8873633462480258</v>
       </c>
       <c r="C556" t="n">
-        <v>0.8944823145866394</v>
+        <v>0.8864396214485168</v>
       </c>
     </row>
     <row r="557">
@@ -6563,7 +6563,7 @@
         <v>0.8875856227204881</v>
       </c>
       <c r="C557" t="n">
-        <v>0.896830677986145</v>
+        <v>0.885988175868988</v>
       </c>
     </row>
     <row r="558">
@@ -6574,7 +6574,7 @@
         <v>0.8788700494092774</v>
       </c>
       <c r="C558" t="n">
-        <v>0.8967519998550415</v>
+        <v>0.8827968835830688</v>
       </c>
     </row>
     <row r="559">
@@ -6585,7 +6585,7 @@
         <v>0.8781693226667584</v>
       </c>
       <c r="C559" t="n">
-        <v>0.893071174621582</v>
+        <v>0.8802938461303711</v>
       </c>
     </row>
     <row r="560">
@@ -6596,7 +6596,7 @@
         <v>0.8779736418512609</v>
       </c>
       <c r="C560" t="n">
-        <v>0.8902236223220825</v>
+        <v>0.8788317441940308</v>
       </c>
     </row>
     <row r="561">
@@ -6607,7 +6607,7 @@
         <v>0.8782173481973679</v>
       </c>
       <c r="C561" t="n">
-        <v>0.8893665075302124</v>
+        <v>0.878510057926178</v>
       </c>
     </row>
     <row r="562">
@@ -6618,7 +6618,7 @@
         <v>0.8779974435933913</v>
       </c>
       <c r="C562" t="n">
-        <v>0.8893653154373169</v>
+        <v>0.8784061670303345</v>
       </c>
     </row>
     <row r="563">
@@ -6629,7 +6629,7 @@
         <v>0.8790284932879688</v>
       </c>
       <c r="C563" t="n">
-        <v>0.8893047571182251</v>
+        <v>0.8782675862312317</v>
       </c>
     </row>
     <row r="564">
@@ -6640,7 +6640,7 @@
         <v>0.8801227263721725</v>
       </c>
       <c r="C564" t="n">
-        <v>0.8893835544586182</v>
+        <v>0.8778380751609802</v>
       </c>
     </row>
     <row r="565">
@@ -6651,7 +6651,7 @@
         <v>0.8801037669185554</v>
       </c>
       <c r="C565" t="n">
-        <v>0.8895813822746277</v>
+        <v>0.8773413896560669</v>
       </c>
     </row>
     <row r="566">
@@ -6662,7 +6662,7 @@
         <v>0.8708941597124589</v>
       </c>
       <c r="C566" t="n">
-        <v>0.8886959552764893</v>
+        <v>0.8750030398368835</v>
       </c>
     </row>
     <row r="567">
@@ -6673,7 +6673,7 @@
         <v>0.8699940545265671</v>
       </c>
       <c r="C567" t="n">
-        <v>0.8851529955863953</v>
+        <v>0.873768150806427</v>
       </c>
     </row>
     <row r="568">
@@ -6684,7 +6684,7 @@
         <v>0.8703633263802995</v>
       </c>
       <c r="C568" t="n">
-        <v>0.8829741477966309</v>
+        <v>0.8729825615882874</v>
       </c>
     </row>
     <row r="569">
@@ -6695,7 +6695,7 @@
         <v>0.8701878706854553</v>
       </c>
       <c r="C569" t="n">
-        <v>0.8824143409729004</v>
+        <v>0.8724660277366638</v>
       </c>
     </row>
     <row r="570">
@@ -6706,7 +6706,7 @@
         <v>0.8697258949533608</v>
       </c>
       <c r="C570" t="n">
-        <v>0.8821429014205933</v>
+        <v>0.8715543746948242</v>
       </c>
     </row>
     <row r="571">
@@ -6717,7 +6717,7 @@
         <v>0.870946236808923</v>
       </c>
       <c r="C571" t="n">
-        <v>0.8816530704498291</v>
+        <v>0.8709368109703064</v>
       </c>
     </row>
     <row r="572">
@@ -6728,7 +6728,7 @@
         <v>0.8709557174148721</v>
       </c>
       <c r="C572" t="n">
-        <v>0.8816235065460205</v>
+        <v>0.8700420260429382</v>
       </c>
     </row>
     <row r="573">
@@ -6739,7 +6739,7 @@
         <v>0.877689630401671</v>
       </c>
       <c r="C573" t="n">
-        <v>0.8820116519927979</v>
+        <v>0.8708069324493408</v>
       </c>
     </row>
     <row r="574">
@@ -6750,7 +6750,7 @@
         <v>0.8617313998793577</v>
       </c>
       <c r="C574" t="n">
-        <v>0.8833877444267273</v>
+        <v>0.8675394058227539</v>
       </c>
     </row>
     <row r="575">
@@ -6761,7 +6761,7 @@
         <v>0.8612305118330402</v>
       </c>
       <c r="C575" t="n">
-        <v>0.8783043026924133</v>
+        <v>0.8659205436706543</v>
       </c>
     </row>
     <row r="576">
@@ -6772,7 +6772,7 @@
         <v>0.8612645791204068</v>
       </c>
       <c r="C576" t="n">
-        <v>0.8751890063285828</v>
+        <v>0.865012526512146</v>
       </c>
     </row>
     <row r="577">
@@ -6783,7 +6783,7 @@
         <v>0.8606973079870369</v>
       </c>
       <c r="C577" t="n">
-        <v>0.8742898106575012</v>
+        <v>0.864335834980011</v>
       </c>
     </row>
     <row r="578">
@@ -6794,7 +6794,7 @@
         <v>0.8602808549868367</v>
       </c>
       <c r="C578" t="n">
-        <v>0.8736975789070129</v>
+        <v>0.8636029958724976</v>
       </c>
     </row>
     <row r="579">
@@ -6805,7 +6805,7 @@
         <v>0.8692612167651785</v>
       </c>
       <c r="C579" t="n">
-        <v>0.874102771282196</v>
+        <v>0.8647634387016296</v>
       </c>
     </row>
     <row r="580">
@@ -6816,7 +6816,7 @@
         <v>0.8701033030035989</v>
       </c>
       <c r="C580" t="n">
-        <v>0.8773286938667297</v>
+        <v>0.8647553324699402</v>
       </c>
     </row>
     <row r="581">
@@ -6827,7 +6827,7 @@
         <v>0.8704363771195398</v>
       </c>
       <c r="C581" t="n">
-        <v>0.8785710334777832</v>
+        <v>0.8644309639930725</v>
       </c>
     </row>
     <row r="582">
@@ -6838,7 +6838,7 @@
         <v>0.8605597378634932</v>
       </c>
       <c r="C582" t="n">
-        <v>0.8781598210334778</v>
+        <v>0.862321674823761</v>
       </c>
     </row>
     <row r="583">
@@ -6849,7 +6849,7 @@
         <v>0.8610947938759624</v>
       </c>
       <c r="C583" t="n">
-        <v>0.8745957612991333</v>
+        <v>0.8619809150695801</v>
       </c>
     </row>
     <row r="584">
@@ -6860,7 +6860,7 @@
         <v>0.861596158106132</v>
       </c>
       <c r="C584" t="n">
-        <v>0.8730509281158447</v>
+        <v>0.8623320460319519</v>
       </c>
     </row>
     <row r="585">
@@ -6871,7 +6871,7 @@
         <v>0.8614760473161973</v>
       </c>
       <c r="C585" t="n">
-        <v>0.8730855584144592</v>
+        <v>0.862661600112915</v>
       </c>
     </row>
     <row r="586">
@@ -6882,7 +6882,7 @@
         <v>0.8689585426796664</v>
       </c>
       <c r="C586" t="n">
-        <v>0.873843789100647</v>
+        <v>0.8643363118171692</v>
       </c>
     </row>
     <row r="587">
@@ -6893,7 +6893,7 @@
         <v>0.8702070590081087</v>
       </c>
       <c r="C587" t="n">
-        <v>0.8770090341567993</v>
+        <v>0.8649210929870605</v>
       </c>
     </row>
     <row r="588">
@@ -6904,7 +6904,7 @@
         <v>0.8706948799608778</v>
       </c>
       <c r="C588" t="n">
-        <v>0.8786785006523132</v>
+        <v>0.8649169206619263</v>
       </c>
     </row>
     <row r="589">
@@ -6915,7 +6915,7 @@
         <v>0.8708361683702955</v>
       </c>
       <c r="C589" t="n">
-        <v>0.8792643547058105</v>
+        <v>0.8650329113006592</v>
       </c>
     </row>
     <row r="590">
@@ -6926,7 +6926,7 @@
         <v>0.8708611521598901</v>
       </c>
       <c r="C590" t="n">
-        <v>0.8797187209129333</v>
+        <v>0.8656026124954224</v>
       </c>
     </row>
     <row r="591">
@@ -6937,7 +6937,7 @@
         <v>0.8709606776333947</v>
       </c>
       <c r="C591" t="n">
-        <v>0.8799257874488831</v>
+        <v>0.8667266368865967</v>
       </c>
     </row>
     <row r="592">
@@ -6948,7 +6948,7 @@
         <v>0.8710032088204864</v>
       </c>
       <c r="C592" t="n">
-        <v>0.8804119825363159</v>
+        <v>0.8676256537437439</v>
       </c>
     </row>
     <row r="593">
@@ -6959,7 +6959,7 @@
         <v>0.8709043729113483</v>
       </c>
       <c r="C593" t="n">
-        <v>0.8805797696113586</v>
+        <v>0.8686627745628357</v>
       </c>
     </row>
     <row r="594">
@@ -6970,7 +6970,7 @@
         <v>0.8708347307129446</v>
       </c>
       <c r="C594" t="n">
-        <v>0.8808339834213257</v>
+        <v>0.8690498471260071</v>
       </c>
     </row>
     <row r="595">
@@ -6981,7 +6981,7 @@
         <v>0.8707650803565102</v>
       </c>
       <c r="C595" t="n">
-        <v>0.8808658719062805</v>
+        <v>0.8691518902778625</v>
       </c>
     </row>
     <row r="596">
@@ -6992,7 +6992,7 @@
         <v>0.870702103300127</v>
       </c>
       <c r="C596" t="n">
-        <v>0.8808658719062805</v>
+        <v>0.8691495060920715</v>
       </c>
     </row>
     <row r="597">
@@ -7003,7 +7003,7 @@
         <v>0.8705803666421115</v>
       </c>
       <c r="C597" t="n">
-        <v>0.8808646202087402</v>
+        <v>0.8691523671150208</v>
       </c>
     </row>
     <row r="598">
@@ -7014,7 +7014,7 @@
         <v>0.8704184315053668</v>
       </c>
       <c r="C598" t="n">
-        <v>0.8808633685112</v>
+        <v>0.8690034151077271</v>
       </c>
     </row>
     <row r="599">
@@ -7025,7 +7025,7 @@
         <v>0.8702349964109853</v>
       </c>
       <c r="C599" t="n">
-        <v>0.8807598948478699</v>
+        <v>0.8689937591552734</v>
       </c>
     </row>
     <row r="600">
@@ -7036,7 +7036,7 @@
         <v>0.869943074124728</v>
       </c>
       <c r="C600" t="n">
-        <v>0.8804662227630615</v>
+        <v>0.8688299655914307</v>
       </c>
     </row>
     <row r="601">
@@ -7047,7 +7047,7 @@
         <v>0.870696448500726</v>
       </c>
       <c r="C601" t="n">
-        <v>0.8804402947425842</v>
+        <v>0.8688284158706665</v>
       </c>
     </row>
     <row r="602">
@@ -7058,7 +7058,7 @@
         <v>0.8693876243518259</v>
       </c>
       <c r="C602" t="n">
-        <v>0.8804985284805298</v>
+        <v>0.8684700727462769</v>
       </c>
     </row>
     <row r="603">
@@ -7069,7 +7069,7 @@
         <v>0.8617895495702236</v>
       </c>
       <c r="C603" t="n">
-        <v>0.8793773651123047</v>
+        <v>0.8665753602981567</v>
       </c>
     </row>
     <row r="604">
@@ -7080,7 +7080,7 @@
         <v>0.8705769624891513</v>
       </c>
       <c r="C604" t="n">
-        <v>0.877119243144989</v>
+        <v>0.8675859570503235</v>
       </c>
     </row>
     <row r="605">
@@ -7091,7 +7091,7 @@
         <v>0.8704979080569815</v>
       </c>
       <c r="C605" t="n">
-        <v>0.8792101740837097</v>
+        <v>0.8679339289665222</v>
       </c>
     </row>
     <row r="606">
@@ -7102,7 +7102,7 @@
         <v>0.8618109441131021</v>
       </c>
       <c r="C606" t="n">
-        <v>0.879317045211792</v>
+        <v>0.8657936453819275</v>
       </c>
     </row>
     <row r="607">
@@ -7113,7 +7113,7 @@
         <v>0.8526520812199549</v>
       </c>
       <c r="C607" t="n">
-        <v>0.8752796053886414</v>
+        <v>0.8622506260871887</v>
       </c>
     </row>
     <row r="608">
@@ -7124,7 +7124,7 @@
         <v>0.8526913009051048</v>
       </c>
       <c r="C608" t="n">
-        <v>0.8705312609672546</v>
+        <v>0.86013263463974</v>
       </c>
     </row>
     <row r="609">
@@ -7135,7 +7135,7 @@
         <v>0.8527118500700475</v>
       </c>
       <c r="C609" t="n">
-        <v>0.8679425716400146</v>
+        <v>0.8588235378265381</v>
       </c>
     </row>
     <row r="610">
@@ -7146,7 +7146,7 @@
         <v>0.852707437800616</v>
       </c>
       <c r="C610" t="n">
-        <v>0.8671863079071045</v>
+        <v>0.8576176166534424</v>
       </c>
     </row>
     <row r="611">
@@ -7157,7 +7157,7 @@
         <v>0.8525214654294573</v>
       </c>
       <c r="C611" t="n">
-        <v>0.8666607737541199</v>
+        <v>0.8561534881591797</v>
       </c>
     </row>
     <row r="612">
@@ -7168,7 +7168,7 @@
         <v>0.8619547920116238</v>
       </c>
       <c r="C612" t="n">
-        <v>0.8667882084846497</v>
+        <v>0.8569751977920532</v>
       </c>
     </row>
     <row r="613">
@@ -7179,7 +7179,7 @@
         <v>0.8686938645226849</v>
       </c>
       <c r="C613" t="n">
-        <v>0.8704657554626465</v>
+        <v>0.8580192923545837</v>
       </c>
     </row>
     <row r="614">
@@ -7190,7 +7190,7 @@
         <v>0.8607469795713405</v>
       </c>
       <c r="C614" t="n">
-        <v>0.8739785552024841</v>
+        <v>0.8569349050521851</v>
       </c>
     </row>
     <row r="615">
@@ -7201,7 +7201,7 @@
         <v>0.852285921751575</v>
       </c>
       <c r="C615" t="n">
-        <v>0.8711787462234497</v>
+        <v>0.8548210263252258</v>
       </c>
     </row>
     <row r="616">
@@ -7212,7 +7212,7 @@
         <v>0.8517866496422564</v>
       </c>
       <c r="C616" t="n">
-        <v>0.8666964769363403</v>
+        <v>0.8543905019760132</v>
       </c>
     </row>
     <row r="617">
@@ -7223,7 +7223,7 @@
         <v>0.852232050006164</v>
       </c>
       <c r="C617" t="n">
-        <v>0.8648542761802673</v>
+        <v>0.8546884059906006</v>
       </c>
     </row>
     <row r="618">
@@ -7234,7 +7234,7 @@
         <v>0.8515858777765214</v>
       </c>
       <c r="C618" t="n">
-        <v>0.8645634055137634</v>
+        <v>0.8549395203590393</v>
       </c>
     </row>
     <row r="619">
@@ -7245,7 +7245,7 @@
         <v>0.8512696212519869</v>
       </c>
       <c r="C619" t="n">
-        <v>0.8645188808441162</v>
+        <v>0.8543545603752136</v>
       </c>
     </row>
     <row r="620">
@@ -7256,7 +7256,7 @@
         <v>0.8602295248121531</v>
       </c>
       <c r="C620" t="n">
-        <v>0.8650348782539368</v>
+        <v>0.8555513024330139</v>
       </c>
     </row>
     <row r="621">
@@ -7267,7 +7267,7 @@
         <v>0.8607588978638341</v>
       </c>
       <c r="C621" t="n">
-        <v>0.8681614398956299</v>
+        <v>0.8554635643959045</v>
       </c>
     </row>
     <row r="622">
@@ -7278,7 +7278,7 @@
         <v>0.8600875589972091</v>
       </c>
       <c r="C622" t="n">
-        <v>0.8695322871208191</v>
+        <v>0.8551357388496399</v>
       </c>
     </row>
     <row r="623">
@@ -7289,7 +7289,7 @@
         <v>0.8435493269535687</v>
       </c>
       <c r="C623" t="n">
-        <v>0.867830753326416</v>
+        <v>0.8515051603317261</v>
       </c>
     </row>
     <row r="624">
@@ -7300,7 +7300,7 @@
         <v>0.8422452574033645</v>
       </c>
       <c r="C624" t="n">
-        <v>0.8617821335792542</v>
+        <v>0.8496705293655396</v>
       </c>
     </row>
     <row r="625">
@@ -7311,7 +7311,7 @@
         <v>0.8704637355731691</v>
       </c>
       <c r="C625" t="n">
-        <v>0.861451268196106</v>
+        <v>0.8558626174926758</v>
       </c>
     </row>
     <row r="626">
@@ -7322,7 +7322,7 @@
         <v>0.8598845961393404</v>
       </c>
       <c r="C626" t="n">
-        <v>0.8723049759864807</v>
+        <v>0.8564853668212891</v>
       </c>
     </row>
     <row r="627">
@@ -7333,7 +7333,7 @@
         <v>0.8333051746315975</v>
       </c>
       <c r="C627" t="n">
-        <v>0.8688274025917053</v>
+        <v>0.8500474691390991</v>
       </c>
     </row>
     <row r="628">
@@ -7344,7 +7344,7 @@
         <v>0.8159950423027856</v>
       </c>
       <c r="C628" t="n">
-        <v>0.8575010299682617</v>
+        <v>0.841327965259552</v>
       </c>
     </row>
     <row r="629">
@@ -7355,7 +7355,7 @@
         <v>0.8323062698942509</v>
       </c>
       <c r="C629" t="n">
-        <v>0.8495491147041321</v>
+        <v>0.8412577509880066</v>
       </c>
     </row>
     <row r="630">
@@ -7366,7 +7366,7 @@
         <v>0.8323561152422957</v>
       </c>
       <c r="C630" t="n">
-        <v>0.848345935344696</v>
+        <v>0.840831458568573</v>
       </c>
     </row>
     <row r="631">
@@ -7377,7 +7377,7 @@
         <v>0.8253019745235329</v>
       </c>
       <c r="C631" t="n">
-        <v>0.8485801815986633</v>
+        <v>0.8376234173774719</v>
       </c>
     </row>
     <row r="632">
@@ -7388,7 +7388,7 @@
         <v>0.8058538294494211</v>
       </c>
       <c r="C632" t="n">
-        <v>0.8438690900802612</v>
+        <v>0.8289713859558105</v>
       </c>
     </row>
     <row r="633">
@@ -7399,7 +7399,7 @@
         <v>0.7884500629680552</v>
       </c>
       <c r="C633" t="n">
-        <v>0.8324164748191833</v>
+        <v>0.8180120587348938</v>
       </c>
     </row>
     <row r="634">
@@ -7410,7 +7410,7 @@
         <v>0.7880660263656702</v>
       </c>
       <c r="C634" t="n">
-        <v>0.8196170926094055</v>
+        <v>0.8112424612045288</v>
       </c>
     </row>
     <row r="635">
@@ -7421,7 +7421,7 @@
         <v>0.7792850912487204</v>
       </c>
       <c r="C635" t="n">
-        <v>0.8102913498878479</v>
+        <v>0.8049876689910889</v>
       </c>
     </row>
     <row r="636">
@@ -7432,7 +7432,7 @@
         <v>0.7792702120408839</v>
       </c>
       <c r="C636" t="n">
-        <v>0.8052799105644226</v>
+        <v>0.8003925085067749</v>
       </c>
     </row>
     <row r="637">
@@ -7443,7 +7443,7 @@
         <v>0.7885248620378349</v>
       </c>
       <c r="C637" t="n">
-        <v>0.8025738000869751</v>
+        <v>0.7983787059783936</v>
       </c>
     </row>
     <row r="638">
@@ -7454,7 +7454,7 @@
         <v>0.7963775477253268</v>
       </c>
       <c r="C638" t="n">
-        <v>0.8020215630531311</v>
+        <v>0.7969679832458496</v>
       </c>
     </row>
     <row r="639">
@@ -7465,7 +7465,7 @@
         <v>0.7882017521668391</v>
       </c>
       <c r="C639" t="n">
-        <v>0.8012785315513611</v>
+        <v>0.7929711937904358</v>
       </c>
     </row>
     <row r="640">
@@ -7476,7 +7476,7 @@
         <v>0.7701175361869891</v>
       </c>
       <c r="C640" t="n">
-        <v>0.7950063347816467</v>
+        <v>0.7860398888587952</v>
       </c>
     </row>
     <row r="641">
@@ -7487,7 +7487,7 @@
         <v>0.7701022514882241</v>
       </c>
       <c r="C641" t="n">
-        <v>0.7872644066810608</v>
+        <v>0.78270423412323</v>
       </c>
     </row>
     <row r="642">
@@ -7498,7 +7498,7 @@
         <v>0.7609089280745479</v>
       </c>
       <c r="C642" t="n">
-        <v>0.7811392545700073</v>
+        <v>0.7793970108032227</v>
       </c>
     </row>
     <row r="643">
@@ -7509,7 +7509,7 @@
         <v>0.7609134727150945</v>
       </c>
       <c r="C643" t="n">
-        <v>0.7770381569862366</v>
+        <v>0.7775163054466248</v>
       </c>
     </row>
     <row r="644">
@@ -7520,7 +7520,7 @@
         <v>0.7517404778069002</v>
       </c>
       <c r="C644" t="n">
-        <v>0.7730399370193481</v>
+        <v>0.77313631772995</v>
       </c>
     </row>
     <row r="645">
@@ -7531,7 +7531,7 @@
         <v>0.769131137544652</v>
       </c>
       <c r="C645" t="n">
-        <v>0.7726681232452393</v>
+        <v>0.7735624313354492</v>
       </c>
     </row>
     <row r="646">
@@ -7542,7 +7542,7 @@
         <v>0.7701674827667401</v>
       </c>
       <c r="C646" t="n">
-        <v>0.7749027013778687</v>
+        <v>0.772854745388031</v>
       </c>
     </row>
     <row r="647">
@@ -7553,7 +7553,7 @@
         <v>0.7701848842889197</v>
       </c>
       <c r="C647" t="n">
-        <v>0.7762902975082397</v>
+        <v>0.7716940641403198</v>
       </c>
     </row>
     <row r="648">
@@ -7564,7 +7564,7 @@
         <v>0.7517702104550876</v>
       </c>
       <c r="C648" t="n">
-        <v>0.7728192210197449</v>
+        <v>0.7666983008384705</v>
       </c>
     </row>
     <row r="649">
@@ -7575,7 +7575,7 @@
         <v>0.7425652920134985</v>
       </c>
       <c r="C649" t="n">
-        <v>0.7649126052856445</v>
+        <v>0.7621663212776184</v>
       </c>
     </row>
     <row r="650">
@@ -7586,7 +7586,7 @@
         <v>0.7425782970897109</v>
       </c>
       <c r="C650" t="n">
-        <v>0.7584728002548218</v>
+        <v>0.75981205701828</v>
       </c>
     </row>
     <row r="651">
@@ -7597,7 +7597,7 @@
         <v>0.7425476356687117</v>
       </c>
       <c r="C651" t="n">
-        <v>0.7556293606758118</v>
+        <v>0.7587349414825439</v>
       </c>
     </row>
     <row r="652">
@@ -7608,7 +7608,7 @@
         <v>0.7425617016458456</v>
       </c>
       <c r="C652" t="n">
-        <v>0.7547261118888855</v>
+        <v>0.7573120594024658</v>
       </c>
     </row>
     <row r="653">
@@ -7619,7 +7619,7 @@
         <v>0.742575102221436</v>
       </c>
       <c r="C653" t="n">
-        <v>0.753721296787262</v>
+        <v>0.7553474307060242</v>
       </c>
     </row>
     <row r="654">
@@ -7630,7 +7630,7 @@
         <v>0.7333804247030888</v>
       </c>
       <c r="C654" t="n">
-        <v>0.7504481673240662</v>
+        <v>0.7507990002632141</v>
       </c>
     </row>
     <row r="655">
@@ -7641,7 +7641,7 @@
         <v>0.7333755886334898</v>
       </c>
       <c r="C655" t="n">
-        <v>0.746259331703186</v>
+        <v>0.7477220892906189</v>
       </c>
     </row>
     <row r="656">
@@ -7652,7 +7652,7 @@
         <v>0.7333672194274667</v>
       </c>
       <c r="C656" t="n">
-        <v>0.7435644268989563</v>
+        <v>0.7457079887390137</v>
       </c>
     </row>
     <row r="657">
@@ -7663,7 +7663,7 @@
         <v>0.7242229649944162</v>
       </c>
       <c r="C657" t="n">
-        <v>0.7405136227607727</v>
+        <v>0.7425594329833984</v>
       </c>
     </row>
     <row r="658">
@@ -7674,7 +7674,7 @@
         <v>0.7242052171629293</v>
       </c>
       <c r="C658" t="n">
-        <v>0.7370690107345581</v>
+        <v>0.7404194474220276</v>
       </c>
     </row>
     <row r="659">
@@ -7685,7 +7685,7 @@
         <v>0.7334061481029488</v>
       </c>
       <c r="C659" t="n">
-        <v>0.7369011640548706</v>
+        <v>0.7410200238227844</v>
       </c>
     </row>
     <row r="660">
@@ -7696,7 +7696,7 @@
         <v>0.7426056946545284</v>
       </c>
       <c r="C660" t="n">
-        <v>0.740867018699646</v>
+        <v>0.7433146834373474</v>
       </c>
     </row>
     <row r="661">
@@ -7707,7 +7707,7 @@
         <v>0.7426148887070279</v>
       </c>
       <c r="C661" t="n">
-        <v>0.7450530529022217</v>
+        <v>0.7444267272949219</v>
       </c>
     </row>
     <row r="662">
@@ -7718,7 +7718,7 @@
         <v>0.7421594122548929</v>
       </c>
       <c r="C662" t="n">
-        <v>0.7468587160110474</v>
+        <v>0.7446756958961487</v>
       </c>
     </row>
     <row r="663">
@@ -7729,7 +7729,7 @@
         <v>0.7426373994002502</v>
       </c>
       <c r="C663" t="n">
-        <v>0.747262179851532</v>
+        <v>0.7453529834747314</v>
       </c>
     </row>
     <row r="664">
@@ -7740,7 +7740,7 @@
         <v>0.7421063202745275</v>
       </c>
       <c r="C664" t="n">
-        <v>0.7474246025085449</v>
+        <v>0.7464302778244019</v>
       </c>
     </row>
     <row r="665">
@@ -7751,7 +7751,7 @@
         <v>0.7426434849823402</v>
       </c>
       <c r="C665" t="n">
-        <v>0.7480583190917969</v>
+        <v>0.7477758526802063</v>
       </c>
     </row>
     <row r="666">
@@ -7762,7 +7762,7 @@
         <v>0.7426344690561549</v>
       </c>
       <c r="C666" t="n">
-        <v>0.748673141002655</v>
+        <v>0.748770534992218</v>
       </c>
     </row>
     <row r="667">
@@ -7773,7 +7773,7 @@
         <v>0.7425243856410103</v>
       </c>
       <c r="C667" t="n">
-        <v>0.7490780353546143</v>
+        <v>0.7496050596237183</v>
       </c>
     </row>
     <row r="668">
@@ -7784,7 +7784,7 @@
         <v>0.7426585883424791</v>
       </c>
       <c r="C668" t="n">
-        <v>0.7493390440940857</v>
+        <v>0.7498597502708435</v>
       </c>
     </row>
     <row r="669">
@@ -7795,7 +7795,7 @@
         <v>0.7426360313938595</v>
       </c>
       <c r="C669" t="n">
-        <v>0.7493976354598999</v>
+        <v>0.7498121857643127</v>
       </c>
     </row>
     <row r="670">
@@ -7806,7 +7806,7 @@
         <v>0.7425554490455117</v>
       </c>
       <c r="C670" t="n">
-        <v>0.7494370341300964</v>
+        <v>0.749812126159668</v>
       </c>
     </row>
     <row r="671">
@@ -7817,7 +7817,7 @@
         <v>0.7423319480124084</v>
       </c>
       <c r="C671" t="n">
-        <v>0.7494223117828369</v>
+        <v>0.7497729063034058</v>
       </c>
     </row>
     <row r="672">
@@ -7828,7 +7828,7 @@
         <v>0.7420464636568833</v>
       </c>
       <c r="C672" t="n">
-        <v>0.7493656873703003</v>
+        <v>0.7496777772903442</v>
       </c>
     </row>
     <row r="673">
@@ -7839,7 +7839,7 @@
         <v>0.7334742289704208</v>
       </c>
       <c r="C673" t="n">
-        <v>0.7473721504211426</v>
+        <v>0.7476395964622498</v>
       </c>
     </row>
     <row r="674">
@@ -7850,7 +7850,7 @@
         <v>0.7701589234868388</v>
       </c>
       <c r="C674" t="n">
-        <v>0.752849817276001</v>
+        <v>0.7550196051597595</v>
       </c>
     </row>
     <row r="675">
@@ -7861,7 +7861,7 @@
         <v>0.7609033035578234</v>
       </c>
       <c r="C675" t="n">
-        <v>0.7631819248199463</v>
+        <v>0.7578267455101013</v>
       </c>
     </row>
     <row r="676">
@@ -7872,7 +7872,7 @@
         <v>0.7426676277422946</v>
       </c>
       <c r="C676" t="n">
-        <v>0.7619819045066833</v>
+        <v>0.7549988627433777</v>
       </c>
     </row>
     <row r="677">
@@ -7883,7 +7883,7 @@
         <v>0.7426465484159158</v>
       </c>
       <c r="C677" t="n">
-        <v>0.7557086944580078</v>
+        <v>0.7530609965324402</v>
       </c>
     </row>
     <row r="678">
@@ -7894,7 +7894,7 @@
         <v>0.7424494863644515</v>
       </c>
       <c r="C678" t="n">
-        <v>0.7521044611930847</v>
+        <v>0.7529618740081787</v>
       </c>
     </row>
     <row r="679">
@@ -7905,7 +7905,7 @@
         <v>0.7420699888364735</v>
       </c>
       <c r="C679" t="n">
-        <v>0.7512848377227783</v>
+        <v>0.7535156011581421</v>
       </c>
     </row>
     <row r="680">
@@ -7916,7 +7916,7 @@
         <v>0.7334772919121579</v>
       </c>
       <c r="C680" t="n">
-        <v>0.7496883273124695</v>
+        <v>0.7515820264816284</v>
       </c>
     </row>
     <row r="681">
@@ -7927,7 +7927,7 @@
         <v>0.7334932709902129</v>
       </c>
       <c r="C681" t="n">
-        <v>0.7470787167549133</v>
+        <v>0.7493783235549927</v>
       </c>
     </row>
     <row r="682">
@@ -7938,7 +7938,7 @@
         <v>0.7334957483308469</v>
       </c>
       <c r="C682" t="n">
-        <v>0.7444052696228027</v>
+        <v>0.7472944259643555</v>
       </c>
     </row>
     <row r="683">
@@ -7949,7 +7949,7 @@
         <v>0.7243289756731514</v>
       </c>
       <c r="C683" t="n">
-        <v>0.7408215403556824</v>
+        <v>0.7431062459945679</v>
       </c>
     </row>
     <row r="684">
@@ -7960,7 +7960,7 @@
         <v>0.7243311252792412</v>
       </c>
       <c r="C684" t="n">
-        <v>0.7370961308479309</v>
+        <v>0.740422785282135</v>
       </c>
     </row>
     <row r="685">
@@ -7971,7 +7971,7 @@
         <v>0.7242495019936396</v>
       </c>
       <c r="C685" t="n">
-        <v>0.7349241971969604</v>
+        <v>0.7385103106498718</v>
       </c>
     </row>
     <row r="686">
@@ -7982,7 +7982,7 @@
         <v>0.7240242081495654</v>
       </c>
       <c r="C686" t="n">
-        <v>0.733600378036499</v>
+        <v>0.7370665073394775</v>
       </c>
     </row>
     <row r="687">
@@ -7993,7 +7993,7 @@
         <v>0.7150902867662645</v>
       </c>
       <c r="C687" t="n">
-        <v>0.7304266095161438</v>
+        <v>0.7328819632530212</v>
       </c>
     </row>
     <row r="688">
@@ -8004,7 +8004,7 @@
         <v>0.7150819934729593</v>
       </c>
       <c r="C688" t="n">
-        <v>0.7269777059555054</v>
+        <v>0.7298870086669922</v>
       </c>
     </row>
     <row r="689">
@@ -8015,7 +8015,7 @@
         <v>0.7239010543552877</v>
       </c>
       <c r="C689" t="n">
-        <v>0.72681725025177</v>
+        <v>0.7305945754051208</v>
       </c>
     </row>
     <row r="690">
@@ -8026,7 +8026,7 @@
         <v>0.7243343034501507</v>
       </c>
       <c r="C690" t="n">
-        <v>0.7286267280578613</v>
+        <v>0.7310365438461304</v>
       </c>
     </row>
     <row r="691">
@@ -8037,7 +8037,7 @@
         <v>0.7151250547659594</v>
       </c>
       <c r="C691" t="n">
-        <v>0.7277655005455017</v>
+        <v>0.7279356122016907</v>
       </c>
     </row>
     <row r="692">
@@ -8048,7 +8048,7 @@
         <v>0.7059557209593157</v>
       </c>
       <c r="C692" t="n">
-        <v>0.7226130962371826</v>
+        <v>0.7222043871879578</v>
       </c>
     </row>
     <row r="693">
@@ -8059,7 +8059,7 @@
         <v>0.7059343942130181</v>
       </c>
       <c r="C693" t="n">
-        <v>0.7177903652191162</v>
+        <v>0.7188292145729065</v>
       </c>
     </row>
     <row r="694">
@@ -8070,7 +8070,7 @@
         <v>0.7059285744507864</v>
       </c>
       <c r="C694" t="n">
-        <v>0.71515953540802</v>
+        <v>0.7172207832336426</v>
       </c>
     </row>
     <row r="695">
@@ -8081,7 +8081,7 @@
         <v>0.6967819928940042</v>
       </c>
       <c r="C695" t="n">
-        <v>0.7119419574737549</v>
+        <v>0.7124236226081848</v>
       </c>
     </row>
     <row r="696">
@@ -8092,7 +8092,7 @@
         <v>0.6967729477576236</v>
       </c>
       <c r="C696" t="n">
-        <v>0.7085667252540588</v>
+        <v>0.7082837224006653</v>
       </c>
     </row>
     <row r="697">
@@ -8103,7 +8103,7 @@
         <v>0.6967518754219327</v>
       </c>
       <c r="C697" t="n">
-        <v>0.7059022188186646</v>
+        <v>0.7049068808555603</v>
       </c>
     </row>
     <row r="698">
@@ -8114,7 +8114,7 @@
         <v>0.6967558821576755</v>
       </c>
       <c r="C698" t="n">
-        <v>0.7042092084884644</v>
+        <v>0.7021508812904358</v>
       </c>
     </row>
     <row r="699">
@@ -8125,7 +8125,7 @@
         <v>0.6967881071192816</v>
       </c>
       <c r="C699" t="n">
-        <v>0.7031523585319519</v>
+        <v>0.6999204754829407</v>
       </c>
     </row>
     <row r="700">
@@ -8136,7 +8136,7 @@
         <v>0.6967592324577617</v>
       </c>
       <c r="C700" t="n">
-        <v>0.7024911046028137</v>
+        <v>0.6982658505439758</v>
       </c>
     </row>
     <row r="701">
@@ -8147,7 +8147,7 @@
         <v>0.6875823689707986</v>
       </c>
       <c r="C701" t="n">
-        <v>0.6994423866271973</v>
+        <v>0.694158673286438</v>
       </c>
     </row>
     <row r="702">
@@ -8158,7 +8158,7 @@
         <v>0.687570361257292</v>
       </c>
       <c r="C702" t="n">
-        <v>0.6958149671554565</v>
+        <v>0.6912276744842529</v>
       </c>
     </row>
     <row r="703">
@@ -8169,7 +8169,7 @@
         <v>0.6783817493882122</v>
       </c>
       <c r="C703" t="n">
-        <v>0.6909826397895813</v>
+        <v>0.6865766644477844</v>
       </c>
     </row>
     <row r="704">
@@ -8180,7 +8180,7 @@
         <v>0.6784028253295951</v>
       </c>
       <c r="C704" t="n">
-        <v>0.6870922446250916</v>
+        <v>0.6835894584655762</v>
       </c>
     </row>
     <row r="705">
@@ -8191,7 +8191,7 @@
         <v>0.6783893076454867</v>
       </c>
       <c r="C705" t="n">
-        <v>0.6845448613166809</v>
+        <v>0.6813153028488159</v>
       </c>
     </row>
     <row r="706">
@@ -8202,7 +8202,7 @@
         <v>0.6783862136958502</v>
       </c>
       <c r="C706" t="n">
-        <v>0.683253288269043</v>
+        <v>0.6792625188827515</v>
       </c>
     </row>
     <row r="707">
@@ -8213,7 +8213,7 @@
         <v>0.6783815574454868</v>
       </c>
       <c r="C707" t="n">
-        <v>0.6822878122329712</v>
+        <v>0.6773039698600769</v>
       </c>
     </row>
     <row r="708">
@@ -8224,7 +8224,7 @@
         <v>0.6784119066110954</v>
       </c>
       <c r="C708" t="n">
-        <v>0.6813966631889343</v>
+        <v>0.675518274307251</v>
       </c>
     </row>
     <row r="709">
@@ -8235,7 +8235,7 @@
         <v>0.6692140872234983</v>
       </c>
       <c r="C709" t="n">
-        <v>0.6780032515525818</v>
+        <v>0.6716187596321106</v>
       </c>
     </row>
     <row r="710">
@@ -8246,7 +8246,7 @@
         <v>0.6692154868076339</v>
       </c>
       <c r="C710" t="n">
-        <v>0.6743679046630859</v>
+        <v>0.6689084768295288</v>
       </c>
     </row>
     <row r="711">
@@ -8257,7 +8257,7 @@
         <v>0.6692230877731818</v>
       </c>
       <c r="C711" t="n">
-        <v>0.6718692779541016</v>
+        <v>0.6672419309616089</v>
       </c>
     </row>
     <row r="712">
@@ -8268,7 +8268,7 @@
         <v>0.6692305928626917</v>
       </c>
       <c r="C712" t="n">
-        <v>0.6710056066513062</v>
+        <v>0.666495680809021</v>
       </c>
     </row>
     <row r="713">
@@ -8279,7 +8279,7 @@
         <v>0.6692155312910768</v>
       </c>
       <c r="C713" t="n">
-        <v>0.6704332828521729</v>
+        <v>0.6655467748641968</v>
       </c>
     </row>
     <row r="714">
@@ -8290,7 +8290,7 @@
         <v>0.660065971658288</v>
       </c>
       <c r="C714" t="n">
-        <v>0.6672205328941345</v>
+        <v>0.6621475219726562</v>
       </c>
     </row>
     <row r="715">
@@ -8301,7 +8301,7 @@
         <v>0.660041161745935</v>
       </c>
       <c r="C715" t="n">
-        <v>0.6634088754653931</v>
+        <v>0.6590820550918579</v>
       </c>
     </row>
     <row r="716">
@@ -8312,7 +8312,7 @@
         <v>0.6600493698367573</v>
       </c>
       <c r="C716" t="n">
-        <v>0.6611469984054565</v>
+        <v>0.6573938727378845</v>
       </c>
     </row>
     <row r="717">
@@ -8323,7 +8323,7 @@
         <v>0.6600511019046109</v>
       </c>
       <c r="C717" t="n">
-        <v>0.6603734493255615</v>
+        <v>0.6562932729721069</v>
       </c>
     </row>
     <row r="718">
@@ -8334,7 +8334,7 @@
         <v>0.660036668734467</v>
       </c>
       <c r="C718" t="n">
-        <v>0.6600258350372314</v>
+        <v>0.6554864645004272</v>
       </c>
     </row>
     <row r="719">
@@ -8345,7 +8345,7 @@
         <v>0.6966496697807585</v>
       </c>
       <c r="C719" t="n">
-        <v>0.6699931025505066</v>
+        <v>0.6652440428733826</v>
       </c>
     </row>
     <row r="720">
@@ -8356,7 +8356,7 @@
         <v>0.6783964255143687</v>
       </c>
       <c r="C720" t="n">
-        <v>0.6792946457862854</v>
+        <v>0.6684145927429199</v>
       </c>
     </row>
     <row r="721">
@@ -8367,7 +8367,7 @@
         <v>0.6692261991333736</v>
       </c>
       <c r="C721" t="n">
-        <v>0.6774995923042297</v>
+        <v>0.6655188798904419</v>
       </c>
     </row>
     <row r="722">
@@ -8378,7 +8378,7 @@
         <v>0.6692081120749879</v>
       </c>
       <c r="C722" t="n">
-        <v>0.6720142364501953</v>
+        <v>0.6636573672294617</v>
       </c>
     </row>
     <row r="723">
@@ -8389,7 +8389,7 @@
         <v>0.6600510151684775</v>
       </c>
       <c r="C723" t="n">
-        <v>0.6669626235961914</v>
+        <v>0.6618441343307495</v>
       </c>
     </row>
     <row r="724">
@@ -8400,7 +8400,7 @@
         <v>0.6600347733691608</v>
       </c>
       <c r="C724" t="n">
-        <v>0.6638321280479431</v>
+        <v>0.6610910892486572</v>
       </c>
     </row>
     <row r="725">
@@ -8411,7 +8411,7 @@
         <v>0.6600434006254738</v>
       </c>
       <c r="C725" t="n">
-        <v>0.6623995304107666</v>
+        <v>0.6601492762565613</v>
       </c>
     </row>
     <row r="726">
@@ -8422,7 +8422,7 @@
         <v>0.6600647904904451</v>
       </c>
       <c r="C726" t="n">
-        <v>0.6617705225944519</v>
+        <v>0.6585921049118042</v>
       </c>
     </row>
     <row r="727">
@@ -8433,7 +8433,7 @@
         <v>0.6600675678220167</v>
       </c>
       <c r="C727" t="n">
-        <v>0.6607623696327209</v>
+        <v>0.6569384336471558</v>
       </c>
     </row>
     <row r="728">
@@ -8444,7 +8444,7 @@
         <v>0.6600629047890765</v>
       </c>
       <c r="C728" t="n">
-        <v>0.6600136756896973</v>
+        <v>0.6548187136650085</v>
       </c>
     </row>
     <row r="729">
@@ -8455,7 +8455,7 @@
         <v>0.650902624169367</v>
       </c>
       <c r="C729" t="n">
-        <v>0.6578873991966248</v>
+        <v>0.6511774659156799</v>
       </c>
     </row>
     <row r="730">
@@ -8466,7 +8466,7 @@
         <v>0.6417156001433182</v>
       </c>
       <c r="C730" t="n">
-        <v>0.6543750166893005</v>
+        <v>0.6462432742118835</v>
       </c>
     </row>
     <row r="731">
@@ -8477,7 +8477,7 @@
         <v>0.6417004847991346</v>
       </c>
       <c r="C731" t="n">
-        <v>0.6513255834579468</v>
+        <v>0.6427381634712219</v>
       </c>
     </row>
     <row r="732">
@@ -8488,7 +8488,7 @@
         <v>0.6325370298469601</v>
       </c>
       <c r="C732" t="n">
-        <v>0.6477686166763306</v>
+        <v>0.6390753984451294</v>
       </c>
     </row>
     <row r="733">
@@ -8499,7 +8499,7 @@
         <v>0.632521335626522</v>
       </c>
       <c r="C733" t="n">
-        <v>0.6453080773353577</v>
+        <v>0.6357899904251099</v>
       </c>
     </row>
     <row r="734">
@@ -8510,7 +8510,7 @@
         <v>0.6233725421088152</v>
       </c>
       <c r="C734" t="n">
-        <v>0.6415503025054932</v>
+        <v>0.6314329504966736</v>
       </c>
     </row>
     <row r="735">
@@ -8521,7 +8521,7 @@
         <v>0.6233439668359307</v>
       </c>
       <c r="C735" t="n">
-        <v>0.638741672039032</v>
+        <v>0.6271292567253113</v>
       </c>
     </row>
     <row r="736">
@@ -8532,7 +8532,7 @@
         <v>0.6233635823293751</v>
       </c>
       <c r="C736" t="n">
-        <v>0.6364759206771851</v>
+        <v>0.6240325570106506</v>
       </c>
     </row>
     <row r="737">
@@ -8543,7 +8543,7 @@
         <v>0.6233786246307023</v>
       </c>
       <c r="C737" t="n">
-        <v>0.6351401209831238</v>
+        <v>0.6216939687728882</v>
       </c>
     </row>
     <row r="738">
@@ -8554,7 +8554,7 @@
         <v>0.623357314374226</v>
       </c>
       <c r="C738" t="n">
-        <v>0.6342832446098328</v>
+        <v>0.6199219226837158</v>
       </c>
     </row>
     <row r="739">
@@ -8565,7 +8565,7 @@
         <v>0.6325147702574311</v>
       </c>
       <c r="C739" t="n">
-        <v>0.6356416344642639</v>
+        <v>0.6202803254127502</v>
       </c>
     </row>
     <row r="740">
@@ -8576,7 +8576,7 @@
         <v>0.6233120826501662</v>
       </c>
       <c r="C740" t="n">
-        <v>0.6350119113922119</v>
+        <v>0.6197910308837891</v>
       </c>
     </row>
     <row r="741">
@@ -8587,7 +8587,7 @@
         <v>0.6141356506505128</v>
       </c>
       <c r="C741" t="n">
-        <v>0.6322099566459656</v>
+        <v>0.6169077754020691</v>
       </c>
     </row>
     <row r="742">
@@ -8598,7 +8598,7 @@
         <v>0.6141446383400341</v>
       </c>
       <c r="C742" t="n">
-        <v>0.6292272806167603</v>
+        <v>0.613938570022583</v>
       </c>
     </row>
     <row r="743">
@@ -8609,7 +8609,7 @@
         <v>0.6141310833483441</v>
       </c>
       <c r="C743" t="n">
-        <v>0.6274512410163879</v>
+        <v>0.6125413179397583</v>
       </c>
     </row>
     <row r="744">
@@ -8620,7 +8620,7 @@
         <v>0.6049631397803698</v>
       </c>
       <c r="C744" t="n">
-        <v>0.624858558177948</v>
+        <v>0.6100738644599915</v>
       </c>
     </row>
     <row r="745">
@@ -8631,7 +8631,7 @@
         <v>0.6049773979589615</v>
       </c>
       <c r="C745" t="n">
-        <v>0.6226698756217957</v>
+        <v>0.6071531176567078</v>
       </c>
     </row>
     <row r="746">
@@ -8642,7 +8642,7 @@
         <v>0.6049814759469636</v>
       </c>
       <c r="C746" t="n">
-        <v>0.6206954121589661</v>
+        <v>0.6046532392501831</v>
       </c>
     </row>
     <row r="747">
@@ -8653,7 +8653,7 @@
         <v>0.6141688575139805</v>
       </c>
       <c r="C747" t="n">
-        <v>0.6218224167823792</v>
+        <v>0.6047064065933228</v>
       </c>
     </row>
     <row r="748">
@@ -8664,7 +8664,7 @@
         <v>0.6049734533584936</v>
       </c>
       <c r="C748" t="n">
-        <v>0.6210712790489197</v>
+        <v>0.6041539311408997</v>
       </c>
     </row>
     <row r="749">
@@ -8675,7 +8675,7 @@
         <v>0.6049995608707603</v>
       </c>
       <c r="C749" t="n">
-        <v>0.6199899911880493</v>
+        <v>0.6019613742828369</v>
       </c>
     </row>
     <row r="750">
@@ -8686,7 +8686,7 @@
         <v>0.5958137806238227</v>
       </c>
       <c r="C750" t="n">
-        <v>0.6164712309837341</v>
+        <v>0.5992340445518494</v>
       </c>
     </row>
     <row r="751">
@@ -8697,7 +8697,7 @@
         <v>0.5958086692826445</v>
       </c>
       <c r="C751" t="n">
-        <v>0.6138557195663452</v>
+        <v>0.5962965488433838</v>
       </c>
     </row>
     <row r="752">
@@ -8708,7 +8708,7 @@
         <v>0.586632513482979</v>
       </c>
       <c r="C752" t="n">
-        <v>0.6099596619606018</v>
+        <v>0.5931276679039001</v>
       </c>
     </row>
     <row r="753">
@@ -8719,7 +8719,7 @@
         <v>0.5866355564301386</v>
       </c>
       <c r="C753" t="n">
-        <v>0.607331395149231</v>
+        <v>0.5897245407104492</v>
       </c>
     </row>
     <row r="754">
@@ -8730,7 +8730,7 @@
         <v>0.5866171672488816</v>
       </c>
       <c r="C754" t="n">
-        <v>0.6052668690681458</v>
+        <v>0.5871472954750061</v>
       </c>
     </row>
     <row r="755">
@@ -8741,7 +8741,7 @@
         <v>0.5866400084639256</v>
       </c>
       <c r="C755" t="n">
-        <v>0.6041043400764465</v>
+        <v>0.585385262966156</v>
       </c>
     </row>
     <row r="756">
@@ -8752,7 +8752,7 @@
         <v>0.5774618154073258</v>
       </c>
       <c r="C756" t="n">
-        <v>0.6009828448295593</v>
+        <v>0.5825076103210449</v>
       </c>
     </row>
     <row r="757">
@@ -8763,7 +8763,7 @@
         <v>0.5774557218032718</v>
       </c>
       <c r="C757" t="n">
-        <v>0.5981481075286865</v>
+        <v>0.5784417390823364</v>
       </c>
     </row>
     <row r="758">
@@ -8774,7 +8774,7 @@
         <v>0.5774537088448182</v>
       </c>
       <c r="C758" t="n">
-        <v>0.5959624648094177</v>
+        <v>0.5761272311210632</v>
       </c>
     </row>
     <row r="759">
@@ -8785,7 +8785,7 @@
         <v>0.5958486704418464</v>
       </c>
       <c r="C759" t="n">
-        <v>0.5996707677841187</v>
+        <v>0.5773428082466125</v>
       </c>
     </row>
     <row r="760">
@@ -8796,7 +8796,7 @@
         <v>0.6050330997987691</v>
       </c>
       <c r="C760" t="n">
-        <v>0.6060495376586914</v>
+        <v>0.5842507481575012</v>
       </c>
     </row>
     <row r="761">
@@ -8807,7 +8807,7 @@
         <v>0.6050376416458656</v>
       </c>
       <c r="C761" t="n">
-        <v>0.6112490892410278</v>
+        <v>0.5894850492477417</v>
       </c>
     </row>
     <row r="762">
@@ -8818,7 +8818,7 @@
         <v>0.6050310060315314</v>
       </c>
       <c r="C762" t="n">
-        <v>0.6136054992675781</v>
+        <v>0.5918506383895874</v>
       </c>
     </row>
     <row r="763">
@@ -8829,7 +8829,7 @@
         <v>0.605036133323507</v>
       </c>
       <c r="C763" t="n">
-        <v>0.6143857836723328</v>
+        <v>0.5933037996292114</v>
       </c>
     </row>
     <row r="764">
@@ -8840,7 +8840,7 @@
         <v>0.605038676703325</v>
       </c>
       <c r="C764" t="n">
-        <v>0.6151108145713806</v>
+        <v>0.5949553251266479</v>
       </c>
     </row>
     <row r="765">
@@ -8851,7 +8851,7 @@
         <v>0.6050573587207911</v>
       </c>
       <c r="C765" t="n">
-        <v>0.6160065531730652</v>
+        <v>0.5966950058937073</v>
       </c>
     </row>
     <row r="766">
@@ -8862,7 +8862,7 @@
         <v>0.6050479959174367</v>
       </c>
       <c r="C766" t="n">
-        <v>0.616675078868866</v>
+        <v>0.5979511141777039</v>
       </c>
     </row>
     <row r="767">
@@ -8873,7 +8873,7 @@
         <v>0.6050602931395014</v>
       </c>
       <c r="C767" t="n">
-        <v>0.6170495748519897</v>
+        <v>0.5988323092460632</v>
       </c>
     </row>
     <row r="768">
@@ -8884,7 +8884,7 @@
         <v>0.5958707277877165</v>
       </c>
       <c r="C768" t="n">
-        <v>0.6150406002998352</v>
+        <v>0.5976597666740417</v>
       </c>
     </row>
     <row r="769">
@@ -8895,7 +8895,7 @@
         <v>0.5867153637455665</v>
       </c>
       <c r="C769" t="n">
-        <v>0.6108806133270264</v>
+        <v>0.5939109921455383</v>
       </c>
     </row>
     <row r="770">
@@ -8906,7 +8906,7 @@
         <v>0.5775386048769218</v>
       </c>
       <c r="C770" t="n">
-        <v>0.6052011251449585</v>
+        <v>0.5885380506515503</v>
       </c>
     </row>
     <row r="771">
@@ -8917,7 +8917,7 @@
         <v>0.5683542752326546</v>
       </c>
       <c r="C771" t="n">
-        <v>0.598949670791626</v>
+        <v>0.5823230743408203</v>
       </c>
     </row>
     <row r="772">
@@ -8928,7 +8928,7 @@
         <v>0.5591785925454879</v>
       </c>
       <c r="C772" t="n">
-        <v>0.5921989679336548</v>
+        <v>0.5755476355552673</v>
       </c>
     </row>
     <row r="773">
@@ -8939,7 +8939,7 @@
         <v>0.5591954083538471</v>
       </c>
       <c r="C773" t="n">
-        <v>0.5872982144355774</v>
+        <v>0.5690512657165527</v>
       </c>
     </row>
     <row r="774">
@@ -8950,7 +8950,7 @@
         <v>0.5500280270694514</v>
       </c>
       <c r="C774" t="n">
-        <v>0.5813321471214294</v>
+        <v>0.563372015953064</v>
       </c>
     </row>
     <row r="775">
@@ -8961,7 +8961,7 @@
         <v>0.5500355679893599</v>
       </c>
       <c r="C775" t="n">
-        <v>0.5766944289207458</v>
+        <v>0.5568374991416931</v>
       </c>
     </row>
     <row r="776">
@@ -8972,7 +8972,7 @@
         <v>0.5500047375526453</v>
       </c>
       <c r="C776" t="n">
-        <v>0.5729975700378418</v>
+        <v>0.5522014498710632</v>
       </c>
     </row>
     <row r="777">
@@ -8983,7 +8983,7 @@
         <v>0.5500310453858455</v>
       </c>
       <c r="C777" t="n">
-        <v>0.5704785585403442</v>
+        <v>0.5490602850914001</v>
       </c>
     </row>
     <row r="778">
@@ -8994,7 +8994,7 @@
         <v>0.5500170213901945</v>
       </c>
       <c r="C778" t="n">
-        <v>0.5688318014144897</v>
+        <v>0.5471271872520447</v>
       </c>
     </row>
     <row r="779">
@@ -9005,7 +9005,7 @@
         <v>0.5408768888099551</v>
       </c>
       <c r="C779" t="n">
-        <v>0.5650094151496887</v>
+        <v>0.5448406934738159</v>
       </c>
     </row>
     <row r="780">
@@ -9016,7 +9016,7 @@
         <v>0.5408724520840772</v>
       </c>
       <c r="C780" t="n">
-        <v>0.5617793798446655</v>
+        <v>0.5408424735069275</v>
       </c>
     </row>
     <row r="781">
@@ -9027,7 +9027,7 @@
         <v>0.5408706624543688</v>
       </c>
       <c r="C781" t="n">
-        <v>0.559381902217865</v>
+        <v>0.5385588407516479</v>
       </c>
     </row>
     <row r="782">
@@ -9038,7 +9038,7 @@
         <v>0.5316896361395484</v>
       </c>
       <c r="C782" t="n">
-        <v>0.5557833909988403</v>
+        <v>0.5365818738937378</v>
       </c>
     </row>
     <row r="783">
@@ -9049,7 +9049,7 @@
         <v>0.5225219651994492</v>
       </c>
       <c r="C783" t="n">
-        <v>0.5502211451530457</v>
+        <v>0.5317357778549194</v>
       </c>
     </row>
     <row r="784">
@@ -9060,7 +9060,7 @@
         <v>0.5225248623076586</v>
       </c>
       <c r="C784" t="n">
-        <v>0.5454866290092468</v>
+        <v>0.5261204838752747</v>
       </c>
     </row>
     <row r="785">
@@ -9071,7 +9071,7 @@
         <v>0.5317092269146991</v>
       </c>
       <c r="C785" t="n">
-        <v>0.5450723767280579</v>
+        <v>0.5236671566963196</v>
       </c>
     </row>
     <row r="786">
@@ -9082,7 +9082,7 @@
         <v>0.53171830361283</v>
       </c>
       <c r="C786" t="n">
-        <v>0.5459456443786621</v>
+        <v>0.5253376960754395</v>
       </c>
     </row>
     <row r="787">
@@ -9093,7 +9093,7 @@
         <v>0.5316848951894705</v>
       </c>
       <c r="C787" t="n">
-        <v>0.5466938614845276</v>
+        <v>0.525686502456665</v>
       </c>
     </row>
     <row r="788">
@@ -9104,7 +9104,7 @@
         <v>0.5317137895902334</v>
       </c>
       <c r="C788" t="n">
-        <v>0.546445369720459</v>
+        <v>0.5254232287406921</v>
       </c>
     </row>
     <row r="789">
@@ -9115,7 +9115,7 @@
         <v>0.5408921126948768</v>
       </c>
       <c r="C789" t="n">
-        <v>0.5489567518234253</v>
+        <v>0.5259876251220703</v>
       </c>
     </row>
     <row r="790">
@@ -9126,7 +9126,7 @@
         <v>0.5317133218691139</v>
       </c>
       <c r="C790" t="n">
-        <v>0.5488223433494568</v>
+        <v>0.5289618968963623</v>
       </c>
     </row>
     <row r="791">
@@ -9137,7 +9137,7 @@
         <v>0.5317109015265894</v>
       </c>
       <c r="C791" t="n">
-        <v>0.5482991337776184</v>
+        <v>0.5272945761680603</v>
       </c>
     </row>
     <row r="792">
@@ -9148,7 +9148,7 @@
         <v>0.5225295728559419</v>
       </c>
       <c r="C792" t="n">
-        <v>0.5445005893707275</v>
+        <v>0.5257421135902405</v>
       </c>
     </row>
     <row r="793">
@@ -9159,7 +9159,7 @@
         <v>0.5225386129232723</v>
       </c>
       <c r="C793" t="n">
-        <v>0.5416200160980225</v>
+        <v>0.5221596360206604</v>
       </c>
     </row>
     <row r="794">
@@ -9170,7 +9170,7 @@
         <v>0.5225355904079173</v>
       </c>
       <c r="C794" t="n">
-        <v>0.5397008061408997</v>
+        <v>0.5203381776809692</v>
       </c>
     </row>
     <row r="795">
@@ -9181,7 +9181,7 @@
         <v>0.5133551083918046</v>
       </c>
       <c r="C795" t="n">
-        <v>0.5363033413887024</v>
+        <v>0.5183727145195007</v>
       </c>
     </row>
     <row r="796">
@@ -9192,7 +9192,7 @@
         <v>0.5041879168944063</v>
       </c>
       <c r="C796" t="n">
-        <v>0.5306543111801147</v>
+        <v>0.5135438442230225</v>
       </c>
     </row>
     <row r="797">
@@ -9203,7 +9203,7 @@
         <v>0.4950309760316624</v>
       </c>
       <c r="C797" t="n">
-        <v>0.5230706930160522</v>
+        <v>0.5067139863967896</v>
       </c>
     </row>
     <row r="798">
@@ -9214,7 +9214,7 @@
         <v>0.4950234354173185</v>
       </c>
       <c r="C798" t="n">
-        <v>0.517546534538269</v>
+        <v>0.4996185898780823</v>
       </c>
     </row>
     <row r="799">
@@ -9225,7 +9225,7 @@
         <v>0.4950120405900046</v>
       </c>
       <c r="C799" t="n">
-        <v>0.5140777826309204</v>
+        <v>0.4955439269542694</v>
       </c>
     </row>
     <row r="800">
@@ -9236,7 +9236,7 @@
         <v>0.4950129640810567</v>
       </c>
       <c r="C800" t="n">
-        <v>0.5120956301689148</v>
+        <v>0.4929887354373932</v>
       </c>
     </row>
     <row r="801">
@@ -9247,7 +9247,7 @@
         <v>0.4950548507826431</v>
       </c>
       <c r="C801" t="n">
-        <v>0.5104221701622009</v>
+        <v>0.4910667538642883</v>
       </c>
     </row>
     <row r="802">
@@ -9258,7 +9258,7 @@
         <v>0.4858915984454979</v>
       </c>
       <c r="C802" t="n">
-        <v>0.5065186619758606</v>
+        <v>0.488979160785675</v>
       </c>
     </row>
     <row r="803">
@@ -9269,7 +9269,7 @@
         <v>0.4858857783622137</v>
       </c>
       <c r="C803" t="n">
-        <v>0.5030441284179688</v>
+        <v>0.48413947224617</v>
       </c>
     </row>
     <row r="804">
@@ -9280,7 +9280,7 @@
         <v>0.4950486506857188</v>
       </c>
       <c r="C804" t="n">
-        <v>0.503257155418396</v>
+        <v>0.4820392727851868</v>
       </c>
     </row>
     <row r="805">
@@ -9291,7 +9291,7 @@
         <v>0.467547544637065</v>
       </c>
       <c r="C805" t="n">
-        <v>0.4976785182952881</v>
+        <v>0.4831255674362183</v>
       </c>
     </row>
     <row r="806">
@@ -9302,7 +9302,7 @@
         <v>0.4583934404397711</v>
       </c>
       <c r="C806" t="n">
-        <v>0.4900965690612793</v>
+        <v>0.4734435677528381</v>
       </c>
     </row>
     <row r="807">
@@ -9313,7 +9313,7 @@
         <v>0.4492122801847507</v>
       </c>
       <c r="C807" t="n">
-        <v>0.4809610545635223</v>
+        <v>0.4647529125213623</v>
       </c>
     </row>
     <row r="808">
@@ -9324,7 +9324,7 @@
         <v>0.4308806444508281</v>
       </c>
       <c r="C808" t="n">
-        <v>0.4714420735836029</v>
+        <v>0.4563845098018646</v>
       </c>
     </row>
     <row r="809">
@@ -9335,7 +9335,7 @@
         <v>0.4216908042366721</v>
       </c>
       <c r="C809" t="n">
-        <v>0.4629513919353485</v>
+        <v>0.4458160698413849</v>
       </c>
     </row>
     <row r="810">
@@ -9346,7 +9346,7 @@
         <v>0.4217000603040423</v>
       </c>
       <c r="C810" t="n">
-        <v>0.4559871852397919</v>
+        <v>0.4360082149505615</v>
       </c>
     </row>
     <row r="811">
@@ -9357,7 +9357,7 @@
         <v>0.4033692452325771</v>
       </c>
       <c r="C811" t="n">
-        <v>0.4464868009090424</v>
+        <v>0.4277786612510681</v>
       </c>
     </row>
     <row r="812">
@@ -9368,7 +9368,7 @@
         <v>0.3941834554694055</v>
       </c>
       <c r="C812" t="n">
-        <v>0.4360868632793427</v>
+        <v>0.4158842861652374</v>
       </c>
     </row>
     <row r="813">
@@ -9379,7 +9379,7 @@
         <v>0.3941834563704618</v>
       </c>
       <c r="C813" t="n">
-        <v>0.4265832602977753</v>
+        <v>0.4072314500808716</v>
       </c>
     </row>
     <row r="814">
@@ -9390,7 +9390,7 @@
         <v>0.3942000052179978</v>
       </c>
       <c r="C814" t="n">
-        <v>0.4235548675060272</v>
+        <v>0.4003329575061798</v>
       </c>
     </row>
     <row r="815">
@@ -9401,7 +9401,7 @@
         <v>0.3941910157587786</v>
       </c>
       <c r="C815" t="n">
-        <v>0.4216900169849396</v>
+        <v>0.3963319063186646</v>
       </c>
     </row>
     <row r="816">
@@ -9412,7 +9412,7 @@
         <v>0.3941832451900517</v>
       </c>
       <c r="C816" t="n">
-        <v>0.4198812544345856</v>
+        <v>0.3935061991214752</v>
       </c>
     </row>
     <row r="817">
@@ -9423,7 +9423,7 @@
         <v>0.3941865345306234</v>
       </c>
       <c r="C817" t="n">
-        <v>0.4186727404594421</v>
+        <v>0.3917529582977295</v>
       </c>
     </row>
     <row r="818">
@@ -9434,7 +9434,7 @@
         <v>0.3850336053581248</v>
       </c>
       <c r="C818" t="n">
-        <v>0.4166966378688812</v>
+        <v>0.3903068602085114</v>
       </c>
     </row>
     <row r="819">
@@ -9445,7 +9445,7 @@
         <v>0.3758661804547326</v>
       </c>
       <c r="C819" t="n">
-        <v>0.4122693836688995</v>
+        <v>0.3861624002456665</v>
       </c>
     </row>
     <row r="820">
@@ -9456,7 +9456,7 @@
         <v>0.3758662141762447</v>
       </c>
       <c r="C820" t="n">
-        <v>0.4068143367767334</v>
+        <v>0.3810221254825592</v>
       </c>
     </row>
     <row r="821">
@@ -9467,7 +9467,7 @@
         <v>0.3666756273321107</v>
       </c>
       <c r="C821" t="n">
-        <v>0.3999305963516235</v>
+        <v>0.3781775236129761</v>
       </c>
     </row>
     <row r="822">
@@ -9478,7 +9478,7 @@
         <v>0.256677191298316</v>
       </c>
       <c r="C822" t="n">
-        <v>0.379490852355957</v>
+        <v>0.3714323937892914</v>
       </c>
     </row>
     <row r="823">
@@ -9489,7 +9489,7 @@
         <v>0.357517223090135</v>
       </c>
       <c r="C823" t="n">
-        <v>0.3826033771038055</v>
+        <v>0.3523448705673218</v>
       </c>
     </row>
     <row r="824">
@@ -9500,7 +9500,7 @@
         <v>0.3575413227530788</v>
       </c>
       <c r="C824" t="n">
-        <v>0.3834292888641357</v>
+        <v>0.3569552004337311</v>
       </c>
     </row>
     <row r="825">
@@ -9511,7 +9511,7 @@
         <v>0.3575518433711679</v>
       </c>
       <c r="C825" t="n">
-        <v>0.3814625442028046</v>
+        <v>0.3592776358127594</v>
       </c>
     </row>
     <row r="826">
@@ -9522,7 +9522,7 @@
         <v>0.3483830659390293</v>
       </c>
       <c r="C826" t="n">
-        <v>0.3757486939430237</v>
+        <v>0.3584110140800476</v>
       </c>
     </row>
     <row r="827">
@@ -9533,7 +9533,7 @@
         <v>0.3392087124984694</v>
       </c>
       <c r="C827" t="n">
-        <v>0.3685791194438934</v>
+        <v>0.3535220921039581</v>
       </c>
     </row>
     <row r="828">
@@ -9544,7 +9544,7 @@
         <v>0.3483751748839945</v>
       </c>
       <c r="C828" t="n">
-        <v>0.3693191111087799</v>
+        <v>0.3479323089122772</v>
       </c>
     </row>
     <row r="829">
@@ -9555,7 +9555,7 @@
         <v>0.3483751495647857</v>
       </c>
       <c r="C829" t="n">
-        <v>0.3701537251472473</v>
+        <v>0.3488168716430664</v>
       </c>
     </row>
     <row r="830">
@@ -9566,7 +9566,7 @@
         <v>0.3575579703025525</v>
       </c>
       <c r="C830" t="n">
-        <v>0.3740534484386444</v>
+        <v>0.350003570318222</v>
       </c>
     </row>
     <row r="831">
@@ -9577,7 +9577,7 @@
         <v>0.3575413995803954</v>
       </c>
       <c r="C831" t="n">
-        <v>0.3760704398155212</v>
+        <v>0.354481428861618</v>
       </c>
     </row>
     <row r="832">
@@ -9588,7 +9588,7 @@
         <v>0.3483749266708227</v>
       </c>
       <c r="C832" t="n">
-        <v>0.3726478815078735</v>
+        <v>0.3562789857387543</v>
       </c>
     </row>
     <row r="833">
@@ -9599,7 +9599,7 @@
         <v>0.3392181625784727</v>
       </c>
       <c r="C833" t="n">
-        <v>0.3668326735496521</v>
+        <v>0.3529317378997803</v>
       </c>
     </row>
     <row r="834">
@@ -9610,7 +9610,7 @@
         <v>0.3300245148356597</v>
       </c>
       <c r="C834" t="n">
-        <v>0.360948771238327</v>
+        <v>0.3478755354881287</v>
       </c>
     </row>
     <row r="835">
@@ -9621,7 +9621,7 @@
         <v>0.3300274704158397</v>
       </c>
       <c r="C835" t="n">
-        <v>0.3580663502216339</v>
+        <v>0.3427010178565979</v>
       </c>
     </row>
     <row r="836">
@@ -9632,7 +9632,7 @@
         <v>0.3208599774757216</v>
       </c>
       <c r="C836" t="n">
-        <v>0.353486567735672</v>
+        <v>0.3398377895355225</v>
       </c>
     </row>
     <row r="837">
@@ -9643,7 +9643,7 @@
         <v>0.3208630363648057</v>
       </c>
       <c r="C837" t="n">
-        <v>0.3499182462692261</v>
+        <v>0.3353791236877441</v>
       </c>
     </row>
     <row r="838">
@@ -9654,7 +9654,7 @@
         <v>0.3116953406762406</v>
       </c>
       <c r="C838" t="n">
-        <v>0.3443551063537598</v>
+        <v>0.3321164548397064</v>
       </c>
     </row>
     <row r="839">
@@ -9665,7 +9665,7 @@
         <v>0.311692338451985</v>
       </c>
       <c r="C839" t="n">
-        <v>0.3404901623725891</v>
+        <v>0.3271373808383942</v>
       </c>
     </row>
     <row r="840">
@@ -9676,7 +9676,7 @@
         <v>0.3117013589625995</v>
       </c>
       <c r="C840" t="n">
-        <v>0.3381708860397339</v>
+        <v>0.3238517045974731</v>
       </c>
     </row>
     <row r="841">
@@ -9687,7 +9687,7 @@
         <v>0.3025236706919727</v>
       </c>
       <c r="C841" t="n">
-        <v>0.333611398935318</v>
+        <v>0.3215788900852203</v>
       </c>
     </row>
     <row r="842">
@@ -9698,7 +9698,7 @@
         <v>0.3116953772357139</v>
       </c>
       <c r="C842" t="n">
-        <v>0.33360755443573</v>
+        <v>0.3170701861381531</v>
       </c>
     </row>
     <row r="843">
@@ -9709,7 +9709,7 @@
         <v>0.3117074005578991</v>
       </c>
       <c r="C843" t="n">
-        <v>0.3337089717388153</v>
+        <v>0.318033754825592</v>
       </c>
     </row>
     <row r="844">
@@ -9720,7 +9720,7 @@
         <v>0.3116873977550046</v>
       </c>
       <c r="C844" t="n">
-        <v>0.333293616771698</v>
+        <v>0.3183265328407288</v>
       </c>
     </row>
     <row r="845">
@@ -9731,7 +9731,7 @@
         <v>0.3025216717723666</v>
       </c>
       <c r="C845" t="n">
-        <v>0.3296701908111572</v>
+        <v>0.3179514408111572</v>
       </c>
     </row>
     <row r="846">
@@ -9742,7 +9742,7 @@
         <v>0.3025298907408889</v>
       </c>
       <c r="C846" t="n">
-        <v>0.3275556266307831</v>
+        <v>0.3139159679412842</v>
       </c>
     </row>
     <row r="847">
@@ -9753,7 +9753,7 @@
         <v>0.3025303923210256</v>
       </c>
       <c r="C847" t="n">
-        <v>0.3267906010150909</v>
+        <v>0.3116558790206909</v>
       </c>
     </row>
     <row r="848">
@@ -9764,7 +9764,7 @@
         <v>0.2933674822223846</v>
       </c>
       <c r="C848" t="n">
-        <v>0.3233671188354492</v>
+        <v>0.3105604946613312</v>
       </c>
     </row>
     <row r="849">
@@ -9775,7 +9775,7 @@
         <v>0.467547544637065</v>
       </c>
       <c r="C849" t="n">
-        <v>0.4196168184280396</v>
+        <v>0.3118525147438049</v>
       </c>
     </row>
     <row r="850">
@@ -9786,7 +9786,7 @@
         <v>0.4583934404397711</v>
       </c>
       <c r="C850" t="n">
-        <v>0.4497110545635223</v>
+        <v>0.4165165722370148</v>
       </c>
     </row>
     <row r="851">
@@ -9797,7 +9797,7 @@
         <v>0.4492122801847507</v>
       </c>
       <c r="C851" t="n">
-        <v>0.46283820271492</v>
+        <v>0.424154132604599</v>
       </c>
     </row>
     <row r="852">
@@ -9808,7 +9808,7 @@
         <v>0.4308806444508281</v>
       </c>
       <c r="C852" t="n">
-        <v>0.4551524221897125</v>
+        <v>0.4229904413223267</v>
       </c>
     </row>
     <row r="853">
@@ -9819,7 +9819,7 @@
         <v>0.4216908042366721</v>
       </c>
       <c r="C853" t="n">
-        <v>0.4460481703281403</v>
+        <v>0.4177037179470062</v>
       </c>
     </row>
     <row r="854">
@@ -9830,7 +9830,7 @@
         <v>0.4217000603040423</v>
       </c>
       <c r="C854" t="n">
-        <v>0.4400494992733002</v>
+        <v>0.4141610264778137</v>
       </c>
     </row>
     <row r="855">
@@ -9841,7 +9841,7 @@
         <v>0.4125293089144965</v>
       </c>
       <c r="C855" t="n">
-        <v>0.437319815158844</v>
+        <v>0.4139356315135956</v>
       </c>
     </row>
     <row r="856">
@@ -9852,7 +9852,7 @@
         <v>0.4033541392388784</v>
       </c>
       <c r="C856" t="n">
-        <v>0.4325582683086395</v>
+        <v>0.4121023416519165</v>
       </c>
     </row>
     <row r="857">
@@ -9863,7 +9863,7 @@
         <v>0.4033692452325771</v>
       </c>
       <c r="C857" t="n">
-        <v>0.4266460835933685</v>
+        <v>0.4084348976612091</v>
       </c>
     </row>
     <row r="858">
@@ -9874,7 +9874,7 @@
         <v>0.3941834554694055</v>
       </c>
       <c r="C858" t="n">
-        <v>0.4236476123332977</v>
+        <v>0.4048846065998077</v>
       </c>
     </row>
     <row r="859">
@@ -9885,7 +9885,7 @@
         <v>0.3941834563704618</v>
       </c>
       <c r="C859" t="n">
-        <v>0.421520322561264</v>
+        <v>0.398915022611618</v>
       </c>
     </row>
     <row r="860">
@@ -9896,7 +9896,7 @@
         <v>0.3942000052179978</v>
       </c>
       <c r="C860" t="n">
-        <v>0.4204953610897064</v>
+        <v>0.3951881229877472</v>
       </c>
     </row>
     <row r="861">
@@ -9907,7 +9907,7 @@
         <v>0.3941910157587786</v>
       </c>
       <c r="C861" t="n">
-        <v>0.4193869829177856</v>
+        <v>0.3929353058338165</v>
       </c>
     </row>
     <row r="862">
@@ -9918,7 +9918,7 @@
         <v>0.3941832451900517</v>
       </c>
       <c r="C862" t="n">
-        <v>0.4185281991958618</v>
+        <v>0.3916115760803223</v>
       </c>
     </row>
     <row r="863">
@@ -9929,7 +9929,7 @@
         <v>0.3941865345306234</v>
       </c>
       <c r="C863" t="n">
-        <v>0.4179188907146454</v>
+        <v>0.390697181224823</v>
       </c>
     </row>
     <row r="864">
@@ -9940,7 +9940,7 @@
         <v>0.3850336053581248</v>
       </c>
       <c r="C864" t="n">
-        <v>0.4163121581077576</v>
+        <v>0.3897372484207153</v>
       </c>
     </row>
     <row r="865">
@@ -9951,7 +9951,7 @@
         <v>0.3758661804547326</v>
       </c>
       <c r="C865" t="n">
-        <v>0.4117524325847626</v>
+        <v>0.3859625160694122</v>
       </c>
     </row>
     <row r="866">
@@ -9962,7 +9962,7 @@
         <v>0.3758662141762447</v>
       </c>
       <c r="C866" t="n">
-        <v>0.4064651727676392</v>
+        <v>0.3810221254825592</v>
       </c>
     </row>
     <row r="867">
@@ -9973,7 +9973,7 @@
         <v>0.3666756273321107</v>
       </c>
       <c r="C867" t="n">
-        <v>0.3996865451335907</v>
+        <v>0.3781775236129761</v>
       </c>
     </row>
     <row r="868">
@@ -9984,7 +9984,7 @@
         <v>0.256677191298316</v>
       </c>
       <c r="C868" t="n">
-        <v>0.379490852355957</v>
+        <v>0.3714323937892914</v>
       </c>
     </row>
     <row r="869">
@@ -9995,7 +9995,7 @@
         <v>0.357517223090135</v>
       </c>
       <c r="C869" t="n">
-        <v>0.3826033771038055</v>
+        <v>0.3523448705673218</v>
       </c>
     </row>
     <row r="870">
@@ -10006,7 +10006,7 @@
         <v>0.3575413227530788</v>
       </c>
       <c r="C870" t="n">
-        <v>0.3834292888641357</v>
+        <v>0.3569552004337311</v>
       </c>
     </row>
     <row r="871">
@@ -10017,7 +10017,7 @@
         <v>0.3575518433711679</v>
       </c>
       <c r="C871" t="n">
-        <v>0.3814625442028046</v>
+        <v>0.3592776358127594</v>
       </c>
     </row>
     <row r="872">
@@ -10028,7 +10028,7 @@
         <v>0.3483830659390293</v>
       </c>
       <c r="C872" t="n">
-        <v>0.3757486939430237</v>
+        <v>0.3584110140800476</v>
       </c>
     </row>
     <row r="873">
@@ -10039,7 +10039,7 @@
         <v>0.3392087124984694</v>
       </c>
       <c r="C873" t="n">
-        <v>0.3685791194438934</v>
+        <v>0.3535220921039581</v>
       </c>
     </row>
     <row r="874">
@@ -10050,7 +10050,7 @@
         <v>0.3483751748839945</v>
       </c>
       <c r="C874" t="n">
-        <v>0.3693191111087799</v>
+        <v>0.3479323089122772</v>
       </c>
     </row>
     <row r="875">
@@ -10061,7 +10061,7 @@
         <v>0.3483751495647857</v>
       </c>
       <c r="C875" t="n">
-        <v>0.3701537251472473</v>
+        <v>0.3488168716430664</v>
       </c>
     </row>
     <row r="876">
@@ -10072,7 +10072,7 @@
         <v>0.3575579703025525</v>
       </c>
       <c r="C876" t="n">
-        <v>0.3740534484386444</v>
+        <v>0.350003570318222</v>
       </c>
     </row>
     <row r="877">
@@ -10083,7 +10083,7 @@
         <v>0.3575413995803954</v>
       </c>
       <c r="C877" t="n">
-        <v>0.3760704398155212</v>
+        <v>0.354481428861618</v>
       </c>
     </row>
     <row r="878">
@@ -10094,7 +10094,7 @@
         <v>0.3483749266708227</v>
       </c>
       <c r="C878" t="n">
-        <v>0.3726478815078735</v>
+        <v>0.3562789857387543</v>
       </c>
     </row>
     <row r="879">
@@ -10105,7 +10105,7 @@
         <v>0.3392181625784727</v>
       </c>
       <c r="C879" t="n">
-        <v>0.3668326735496521</v>
+        <v>0.3529317378997803</v>
       </c>
     </row>
     <row r="880">
@@ -10116,7 +10116,7 @@
         <v>0.3300245148356597</v>
       </c>
       <c r="C880" t="n">
-        <v>0.360948771238327</v>
+        <v>0.3478755354881287</v>
       </c>
     </row>
     <row r="881">
@@ -10127,7 +10127,7 @@
         <v>0.3300274704158397</v>
       </c>
       <c r="C881" t="n">
-        <v>0.3580663502216339</v>
+        <v>0.3427010178565979</v>
       </c>
     </row>
     <row r="882">
@@ -10138,7 +10138,7 @@
         <v>0.3208599774757216</v>
       </c>
       <c r="C882" t="n">
-        <v>0.353486567735672</v>
+        <v>0.3398377895355225</v>
       </c>
     </row>
     <row r="883">
@@ -10149,7 +10149,7 @@
         <v>0.3208630363648057</v>
       </c>
       <c r="C883" t="n">
-        <v>0.3499182462692261</v>
+        <v>0.3353791236877441</v>
       </c>
     </row>
   </sheetData>
